--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AEF8D26-E860-4D48-91B5-9806CDEAB6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFADCB-D3BF-0145-8E9E-0C9B300F2FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-7700" windowWidth="28800" windowHeight="15840" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFADCB-D3BF-0145-8E9E-0C9B300F2FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1268FDD-AAA4-7744-BBB4-A1B84885F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-7700" windowWidth="28800" windowHeight="15840" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="-35360" yWindow="-7040" windowWidth="28800" windowHeight="15840" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
     <sheet name="capital_cost" sheetId="5" r:id="rId2"/>
     <sheet name="marginal_cost" sheetId="7" r:id="rId3"/>
-    <sheet name="Chile" sheetId="2" r:id="rId4"/>
-    <sheet name="Transport" sheetId="3" r:id="rId5"/>
-    <sheet name="Zement" sheetId="4" r:id="rId6"/>
-    <sheet name="Quellen" sheetId="6" r:id="rId7"/>
+    <sheet name="Quellen" sheetId="6" r:id="rId4"/>
+    <sheet name="Chile" sheetId="2" r:id="rId5"/>
+    <sheet name="Transport" sheetId="3" r:id="rId6"/>
+    <sheet name="Zement" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
   <si>
     <t>Inputs</t>
   </si>
@@ -343,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +570,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -669,6 +675,9 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1039,7 +1048,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,28 +1113,28 @@
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="37" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1185,9 +1194,7 @@
       <c r="E5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="F5" s="16"/>
       <c r="G5" s="17"/>
       <c r="H5" s="16"/>
       <c r="I5" s="17" t="s">
@@ -1219,9 +1226,7 @@
       <c r="E6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="17" t="s">
@@ -1639,7 +1644,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1817,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428944FC-EF93-D147-9510-9BB668504AEF}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2037,42 +2042,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161CAFB3-6641-4214-A1BC-4CB4769BA3D9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2378BD-3952-40CE-8760-D9B1F68CDD97}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A3E41-3845-480C-A707-54760FCBF4DD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB688AA-69C9-F548-BB05-A24A4E882F1A}">
   <dimension ref="A1:B28"/>
   <sheetViews>
@@ -2222,6 +2191,42 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161CAFB3-6641-4214-A1BC-4CB4769BA3D9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2378BD-3952-40CE-8760-D9B1F68CDD97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A3E41-3845-480C-A707-54760FCBF4DD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1268FDD-AAA4-7744-BBB4-A1B84885F43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C09361-FAFB-7545-80CC-EC43D59549C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35360" yWindow="-7040" windowWidth="28800" windowHeight="15840" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -653,15 +653,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -673,11 +664,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -686,6 +686,9 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -721,9 +724,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -741,7 +741,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}" name="Tabelle1" displayName="Tabelle1" ref="A2:B28" totalsRowShown="0">
   <autoFilter ref="A2:B28" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9C8ABFA1-DCBA-9944-8549-EEC7F214E37A}" name="Quelle "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,20 +1061,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
@@ -1113,28 +1113,28 @@
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="34" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1258,18 +1258,18 @@
       <c r="E7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="29">
         <f>marginal_cost!K2</f>
         <v>95.226003047232098</v>
       </c>
       <c r="G7" s="16">
         <v>10</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="29">
         <f>capital_cost!I2</f>
         <v>720000</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="32">
         <f>marginal_cost!E2/marginal_cost!F2</f>
         <v>0.59891107078039929</v>
       </c>
@@ -1302,18 +1302,18 @@
       <c r="E8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="29">
         <f>marginal_cost!K3</f>
         <v>120.83131947800869</v>
       </c>
       <c r="G8" s="16">
         <v>10</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="29">
         <f>capital_cost!I3</f>
         <v>630000</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="32">
         <f>marginal_cost!E3/marginal_cost!F3</f>
         <v>0.61797752808988771</v>
       </c>
@@ -1346,14 +1346,14 @@
       <c r="E9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="29">
         <f>marginal_cost!K4</f>
         <v>6.0606060606060606</v>
       </c>
       <c r="G9" s="16">
         <v>20</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="29">
         <f>capital_cost!I4</f>
         <v>3296969.6969696968</v>
       </c>
@@ -1449,21 +1449,21 @@
       <c r="E12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="29">
         <f>marginal_cost!K5</f>
         <v>21.818181818181817</v>
       </c>
       <c r="G12" s="16">
         <v>25</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="29">
         <f>capital_cost!I5</f>
         <v>1090.9090909090908</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="33">
         <f>0.002/24</f>
         <v>8.3333333333333331E-5</v>
       </c>
@@ -1620,18 +1620,18 @@
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:L11 C12:D16 F12:L16">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(C5))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="n.v.">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="n.v.">
       <formula>NOT(ISERROR(SEARCH("n.v.",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L16">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Simulation">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Simulation">
       <formula>NOT(ISERROR(SEARCH("Simulation",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1693,25 +1693,25 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="31">
-        <v>0</v>
-      </c>
-      <c r="D2" s="31">
-        <v>0</v>
-      </c>
-      <c r="E2" s="31">
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
         <v>33</v>
       </c>
-      <c r="F2" s="31">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="31">
-        <v>0</v>
-      </c>
-      <c r="I2" s="31">
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="28">
+        <v>0</v>
+      </c>
+      <c r="H2" s="28">
+        <v>0</v>
+      </c>
+      <c r="I2" s="28">
         <f>720*1000</f>
         <v>720000</v>
       </c>
@@ -1723,25 +1723,25 @@
       <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="31">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31">
-        <v>0</v>
-      </c>
-      <c r="E3" s="31">
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
         <v>33</v>
       </c>
-      <c r="F3" s="31">
-        <v>0</v>
-      </c>
-      <c r="G3" s="31">
-        <v>0</v>
-      </c>
-      <c r="H3" s="31">
-        <v>0</v>
-      </c>
-      <c r="I3" s="31">
+      <c r="F3" s="28">
+        <v>0</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0</v>
+      </c>
+      <c r="H3" s="28">
+        <v>0</v>
+      </c>
+      <c r="I3" s="28">
         <f>630*1000</f>
         <v>630000</v>
       </c>
@@ -1753,26 +1753,26 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="31">
-        <v>0</v>
-      </c>
-      <c r="D4" s="31">
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28">
         <v>136000000</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="28">
         <v>33</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>8000</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="28">
         <v>30000</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="28">
         <f>(F4/24)*G4</f>
         <v>10000000</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="28">
         <f>D4/(H4*E4/F4)*1000</f>
         <v>3296969.6969696968</v>
       </c>
@@ -1784,28 +1784,28 @@
       <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="28">
         <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="31">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31">
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
         <v>33</v>
       </c>
-      <c r="F5" s="31">
-        <v>0</v>
-      </c>
-      <c r="G5" s="31">
-        <v>0</v>
-      </c>
-      <c r="H5" s="31">
-        <v>0</v>
-      </c>
-      <c r="I5" s="31">
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
         <f>B5/E5*1000</f>
         <v>1090.9090909090908</v>
       </c>
@@ -1881,36 +1881,36 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="28">
         <v>15</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="28">
         <f>B2*100000</f>
         <v>1500000</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="28">
         <v>33</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="28">
         <v>55.1</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="28">
         <v>8000</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="28">
         <v>1969</v>
       </c>
-      <c r="I2" s="31">
-        <v>0</v>
-      </c>
-      <c r="J2" s="31">
+      <c r="I2" s="28">
+        <v>0</v>
+      </c>
+      <c r="J2" s="28">
         <f>G2*H2</f>
         <v>15752000</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="28">
         <f>D2/J2*1000</f>
         <v>95.226003047232098</v>
       </c>
@@ -1922,36 +1922,36 @@
       <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="28">
         <v>20</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="28">
         <f>B3*100000</f>
         <v>2000000</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="28">
         <v>33</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="28">
         <v>53.4</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="28">
         <v>8000</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="28">
         <v>2069</v>
       </c>
-      <c r="I3" s="31">
-        <v>0</v>
-      </c>
-      <c r="J3" s="31">
+      <c r="I3" s="28">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28">
         <f>G3*H3</f>
         <v>16552000</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="28">
         <f>D3/J3*1000</f>
         <v>120.83131947800869</v>
       </c>
@@ -1963,33 +1963,33 @@
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="31">
-        <v>0</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31">
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28">
         <v>2000000</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="28">
         <v>33</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>10</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="28">
         <v>8000</v>
       </c>
-      <c r="H4" s="31">
-        <v>0</v>
-      </c>
-      <c r="I4" s="31">
+      <c r="H4" s="28">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28">
         <v>30000</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="28">
         <f>(G4/24)*I4</f>
         <v>10000000</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="28">
         <f>D4/(J4*E4)*1000</f>
         <v>6.0606060606060606</v>
       </c>
@@ -2001,34 +2001,34 @@
       <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="31">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31">
-        <v>0</v>
-      </c>
-      <c r="F5" s="31">
-        <v>0</v>
-      </c>
-      <c r="G5" s="31">
-        <v>0</v>
-      </c>
-      <c r="H5" s="31">
-        <v>0</v>
-      </c>
-      <c r="I5" s="31">
-        <v>0</v>
-      </c>
-      <c r="J5" s="31">
-        <v>0</v>
-      </c>
-      <c r="K5" s="31">
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0</v>
+      </c>
+      <c r="J5" s="28">
+        <v>0</v>
+      </c>
+      <c r="K5" s="28">
         <f>capital_cost!I5*B5*0.01</f>
         <v>21.818181818181817</v>
       </c>
@@ -2056,7 +2056,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2096,95 +2096,95 @@
       <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="31"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="31"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
-      <c r="B9" s="34"/>
+      <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
-      <c r="B10" s="34"/>
+      <c r="B10" s="31"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
-      <c r="B11" s="34"/>
+      <c r="B11" s="31"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
-      <c r="B12" s="34"/>
+      <c r="B12" s="31"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
-      <c r="B13" s="34"/>
+      <c r="B13" s="31"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
-      <c r="B14" s="34"/>
+      <c r="B14" s="31"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="34"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
-      <c r="B18" s="34"/>
+      <c r="B18" s="31"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
-      <c r="B19" s="34"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
-      <c r="B20" s="34"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
-      <c r="B21" s="34"/>
+      <c r="B21" s="31"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="31"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
-      <c r="B24" s="34"/>
+      <c r="B24" s="31"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
-      <c r="B25" s="34"/>
+      <c r="B25" s="31"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
-      <c r="B26" s="34"/>
+      <c r="B26" s="31"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
-      <c r="B27" s="34"/>
+      <c r="B27" s="31"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
-      <c r="B28" s="34"/>
+      <c r="B28" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2231,26 +2231,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aca6c290d7270e062501f87f2390e508">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3e4e919cbdb82cbbd1a44b9c8ca9704" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -2427,10 +2407,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2453,21 +2465,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C09361-FAFB-7545-80CC-EC43D59549C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE75780A-771E-554F-8688-AC25500CF551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="-36920" yWindow="-7240" windowWidth="35080" windowHeight="20220" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
     <sheet name="capital_cost" sheetId="5" r:id="rId2"/>
     <sheet name="marginal_cost" sheetId="7" r:id="rId3"/>
-    <sheet name="Quellen" sheetId="6" r:id="rId4"/>
-    <sheet name="Chile" sheetId="2" r:id="rId5"/>
-    <sheet name="Transport" sheetId="3" r:id="rId6"/>
-    <sheet name="Zement" sheetId="4" r:id="rId7"/>
+    <sheet name="Chile" sheetId="2" r:id="rId4"/>
+    <sheet name="Transport" sheetId="3" r:id="rId5"/>
+    <sheet name="Zement" sheetId="4" r:id="rId6"/>
+    <sheet name="Quellen" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="115">
   <si>
     <t>Inputs</t>
   </si>
@@ -101,7 +101,7 @@
     <t>standing_loss</t>
   </si>
   <si>
-    <t>length</t>
+    <t>length km</t>
   </si>
   <si>
     <t>s_max_pu</t>
@@ -143,58 +143,211 @@
     <t>Simulation</t>
   </si>
   <si>
+    <t>[2]</t>
+  </si>
+  <si>
     <t>AEL Elektrolyse</t>
   </si>
   <si>
     <t>Verflüssigung</t>
   </si>
   <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Haber-Bosch</t>
+  </si>
+  <si>
+    <t>LH2 Speicher</t>
+  </si>
+  <si>
     <t>Store</t>
   </si>
   <si>
-    <t>Ferntransport</t>
-  </si>
-  <si>
-    <t>Inlandstransport</t>
-  </si>
-  <si>
-    <t>Haber-Bosch</t>
-  </si>
-  <si>
-    <t>LOHC</t>
+    <t>GH2 Speicher</t>
   </si>
   <si>
     <t>Pipeline</t>
   </si>
   <si>
+    <t>Wasserentsalzungsanlage</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
     <t>Transportation BOG</t>
   </si>
   <si>
     <t>%/day</t>
   </si>
   <si>
-    <t>0,17/0,004/0,0016 loss/d</t>
+    <t>Schiffsart</t>
+  </si>
+  <si>
+    <t>Schiffskosten crude vessel (LOHC)</t>
+  </si>
+  <si>
+    <t>€/per day</t>
+  </si>
+  <si>
+    <t>Quelle</t>
+  </si>
+  <si>
+    <t>https://www.freightwaves.com/news/lng-shipping-rates-top-100000day-oil-tanker-rates-still-rising#:~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022</t>
+  </si>
+  <si>
+    <t>Schiffsgröße chemical tanker (NH3)</t>
+  </si>
+  <si>
+    <t>https://lloydslist.maritimeintelligence.informa.com/LL1141976/Odfjell-says-chemical-tanker-rates-at-highest-since-2007#:~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022</t>
+  </si>
+  <si>
+    <t>Schiffsgröße LNG tanker (LNG)</t>
+  </si>
+  <si>
+    <t>https://www.freightwaves.com/news/lng-shipping-rates-shooting-for-the-stars-at-500000-per-day#:~:text=LNG%20shipping%20rates%20'shooting%20for%20the%20stars'%20at%20%24500%2C000%20per%20day  zuletzt geprüft am 15.12.2022</t>
+  </si>
+  <si>
+    <t>Schiffsgröße CNG tanker (LH2, Methanol)</t>
+  </si>
+  <si>
+    <t>spezifische Investitionskosten</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>CAPEX [€]</t>
+  </si>
+  <si>
+    <t>Energiegehalt Wasserstoff [kWh/kg]</t>
+  </si>
+  <si>
+    <t>Betriebsstunden [h/a]</t>
+  </si>
+  <si>
+    <t>Leistung [kg/d]</t>
+  </si>
+  <si>
+    <t>Anlagenkapazität [kg/a]</t>
   </si>
   <si>
     <t>capital_cost [€/MW]</t>
   </si>
   <si>
-    <t>Leistung [kg/d]</t>
-  </si>
-  <si>
-    <t>CAPEX [€]</t>
-  </si>
-  <si>
-    <t>Energiegehalt Wasserstoff [kWh/kg]</t>
-  </si>
-  <si>
-    <t>Betriebsstunden [h/a]</t>
-  </si>
-  <si>
-    <t>Anlagenkapazität [kg/a]</t>
-  </si>
-  <si>
-    <t>Quelle</t>
+    <t>€/kg</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>$/kg</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>Umrechnungskurs [€]</t>
+  </si>
+  <si>
+    <t>spezifische Betriebskosten</t>
+  </si>
+  <si>
+    <t>OPEX [€/a]</t>
+  </si>
+  <si>
+    <t>spezifischer Strombedarf [kWh/kg]</t>
+  </si>
+  <si>
+    <t>Leistung [kg/h]</t>
+  </si>
+  <si>
+    <t>marginal_cost [€/MWh]</t>
+  </si>
+  <si>
+    <t>€/kW</t>
+  </si>
+  <si>
+    <t>%/invest*a</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>Meerwasserentsalzung</t>
+  </si>
+  <si>
+    <t>Verfahren:</t>
+  </si>
+  <si>
+    <t>Umkehrosmose</t>
+  </si>
+  <si>
+    <t>Quellen:</t>
+  </si>
+  <si>
+    <t>https://www.advisian.com/en/global-perspectives/the-cost-of-desalination#</t>
+  </si>
+  <si>
+    <t>https://watereuse.org/wp-content/uploads/2015/10/WateReuse_Desal_Cost_White_Paper.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tga-fachplaner.de/energietechnik/energietraeger-wasserstoff-wie-viel-wasser-wird-dafuer-benoetigt#:~:text=Um%201%20kg%20Wasserstoff%20durch,9%20kg%20Wasser*)%20erforderlich.</t>
+  </si>
+  <si>
+    <t>Nimmt man den Mittelwert der rund 16 000 in weltweit 177 Ländern in Betrieb befindlichen Entsalzungsanlagen, entsteht 1 l Süßwasser aus 2,5 l Rohwasser (Daten aus: The state of desalination and brine production: A global outlook). Würde man aus diesen Anlagen Wasser zur Wasserstoffgewinnung per Wasserelektrolyse einsetzen, läge der technische Wasserbedarf bei fast 22,5 kg Rohwasser pro 1 kg Wasserstoff</t>
+  </si>
+  <si>
+    <t>PEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 kg Wasser = </t>
+  </si>
+  <si>
+    <t>1 m3</t>
+  </si>
+  <si>
+    <t>l/h</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>kg H2</t>
+  </si>
+  <si>
+    <t>Liter pro Jahr</t>
+  </si>
+  <si>
+    <t>m3 pro Jahr</t>
+  </si>
+  <si>
+    <t>m3/d</t>
+  </si>
+  <si>
+    <t>m3/a</t>
+  </si>
+  <si>
+    <t>kwh/ m3</t>
+  </si>
+  <si>
+    <t>MW/ a</t>
+  </si>
+  <si>
+    <t>AEL</t>
+  </si>
+  <si>
+    <t>H2/h</t>
+  </si>
+  <si>
+    <t>He</t>
   </si>
   <si>
     <t xml:space="preserve">Quellenverzeichnis </t>
@@ -206,75 +359,47 @@
     <t xml:space="preserve">Quelle </t>
   </si>
   <si>
+    <t>Zhenyang Zhang, Cong Miao, Zhijiu, Jianli Gan (2022): Liquid Hydrogen Production, Transportation and Economic Analysis. In: Frontiers in Business, Economics and Management (5 (2)).</t>
+  </si>
+  <si>
     <t>Marius Holst, Stefan Aschbrenner, Tom Smolinka, Christopher Voglstätter, Gunter Grimm (2022): Cost Forecast for Low-Temperature Electrolysis. Technology Driven Bottom-Up Prognosis for PEM and Alkaline Water Electrolysis Systems. Fraunhofer Institute for Solar Energy Systems ISE.</t>
   </si>
   <si>
-    <t>Zhenyang Zhang, Cong Miao, Zhijiu, Jianli Gan (2022): Liquid Hydrogen Production, Transportation and Economic Analysis. In: Frontiers in Business, Economics and Management (5 (2)).</t>
+    <t>Y. Wang, J. Kowal, M. Leuthold, D. U. Sauer (2014): Economic Analysis of Storage Systems for Renewable Energy Generated Hydrogen. In: Current Topics in Electrochemistry (Vol. 18).</t>
   </si>
   <si>
     <t>J. Hoelzen, M. Flohr, D. Silberhorn, J. Mangold, A. Bensmann, R. Hanke-Rauschenbach: H2-powered aviation at airports - Design and economics of LH2 refueling systems. In: Energy Conversion and Management 2022 (14).</t>
   </si>
   <si>
-    <t>Y. Wang, J. Kowal, M. Leuthold, D. U. Sauer (2014): Economic Analysis of Storage Systems for Renewable Energy Generated Hydrogen. In: Current Topics in Electrochemistry (Vol. 18).</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>OPEX [€/a]</t>
-  </si>
-  <si>
-    <t>marginal_cost [€/MWh]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>Leistung [kg/h]</t>
-  </si>
-  <si>
-    <t>spezifischer Strombedarf [kWh/kg]</t>
-  </si>
-  <si>
-    <t>spezifische Betriebskosten</t>
-  </si>
-  <si>
-    <t>LH2 Speicher</t>
-  </si>
-  <si>
-    <t>GH2 Speicher</t>
-  </si>
-  <si>
-    <t>spezifische Investitionskosten</t>
-  </si>
-  <si>
-    <t>Einheit</t>
-  </si>
-  <si>
-    <t>€/kg</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>%/invest*a</t>
-  </si>
-  <si>
-    <t>€/kW</t>
+    <t>Bulk Storage of Hydrogen 4 D. D. Papadias and R. K. Ahluwalia 5 Argonne National Laboratory 6 9700 South Cass Avenue, Lemont, IL 60439</t>
+  </si>
+  <si>
+    <t>LH2 Schiff</t>
+  </si>
+  <si>
+    <t>NH3 Schiff</t>
+  </si>
+  <si>
+    <t>LOHC Schiff</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Hydrierung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -342,8 +467,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,22 +523,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,28 +657,6 @@
       </right>
       <top/>
       <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -564,13 +706,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -578,7 +796,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -587,70 +811,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -670,25 +876,49 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -724,6 +954,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -741,7 +974,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}" name="Tabelle1" displayName="Tabelle1" ref="A2:B28" totalsRowShown="0">
   <autoFilter ref="A2:B28" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9C8ABFA1-DCBA-9944-8549-EEC7F214E37A}" name="Quelle "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1045,38 +1278,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14DACE-E658-6948-9904-3793876CEF37}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="20.83203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="20.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="20.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9" t="s">
@@ -1110,31 +1345,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1144,7 +1379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -1178,7 +1413,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
@@ -1194,9 +1429,15 @@
       <c r="E5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="33">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="I5" s="17" t="s">
         <v>28</v>
       </c>
@@ -1210,7 +1451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
@@ -1226,9 +1467,15 @@
       <c r="E6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="F6" s="33">
+        <v>48.41</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="I6" s="17" t="s">
         <v>28</v>
       </c>
@@ -1242,7 +1489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
@@ -1258,18 +1505,18 @@
       <c r="E7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="33">
         <f>marginal_cost!K2</f>
         <v>95.226003047232098</v>
       </c>
       <c r="G7" s="16">
         <v>10</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="25">
         <f>capital_cost!I2</f>
         <v>720000</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="28">
         <f>marginal_cost!E2/marginal_cost!F2</f>
         <v>0.59891107078039929</v>
       </c>
@@ -1283,12 +1530,12 @@
         <v>28</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>31</v>
@@ -1302,18 +1549,18 @@
       <c r="E8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="33">
         <f>marginal_cost!K3</f>
         <v>120.83131947800869</v>
       </c>
       <c r="G8" s="16">
         <v>10</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="25">
         <f>capital_cost!I3</f>
         <v>630000</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="28">
         <f>marginal_cost!E3/marginal_cost!F3</f>
         <v>0.61797752808988771</v>
       </c>
@@ -1327,12 +1574,12 @@
         <v>28</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>31</v>
@@ -1346,18 +1593,18 @@
       <c r="E9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="33">
         <f>marginal_cost!K4</f>
         <v>6.0606060606060606</v>
       </c>
       <c r="G9" s="16">
         <v>20</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="25">
         <f>capital_cost!I4</f>
         <v>3296969.6969696968</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="28">
         <v>1</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -1370,12 +1617,12 @@
         <v>28</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>31</v>
@@ -1389,7 +1636,7 @@
       <c r="E10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -1405,7 +1652,7 @@
     </row>
     <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>31</v>
@@ -1419,7 +1666,7 @@
       <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1435,10 +1682,10 @@
     </row>
     <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>27</v>
@@ -1449,21 +1696,21 @@
       <c r="E12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="33">
         <f>marginal_cost!K5</f>
         <v>21.818181818181817</v>
       </c>
       <c r="G12" s="16">
         <v>25</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="25">
         <f>capital_cost!I5</f>
         <v>1090.9090909090908</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="29">
         <f>0.002/24</f>
         <v>8.3333333333333331E-5</v>
       </c>
@@ -1476,10 +1723,10 @@
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>27</v>
@@ -1490,9 +1737,15 @@
       <c r="E13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="33">
+        <f>marginal_cost!K6</f>
+        <v>20.854545454545459</v>
+      </c>
       <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="25">
+        <f>capital_cost!I6</f>
+        <v>1042.727272727273</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="17" t="s">
@@ -1502,9 +1755,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>31</v>
@@ -1518,7 +1771,9 @@
       <c r="E14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="33">
+        <v>4.8040000000000003</v>
+      </c>
       <c r="G14" s="17" t="s">
         <v>28</v>
       </c>
@@ -1527,12 +1782,14 @@
       <c r="J14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="16">
+        <v>351</v>
+      </c>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>31</v>
@@ -1546,108 +1803,241 @@
       <c r="E15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="17" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="I15" s="16"/>
       <c r="J15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>37</v>
+      <c r="K15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="23"/>
-    </row>
-    <row r="23" spans="5:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="E23" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="25" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="26">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E22" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="22">
         <v>0.17</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H22" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I22" s="22">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J22" s="22">
         <v>0</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K22" s="23">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="42">
+        <v>28303.5</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="42">
+        <v>25664.67</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="42">
+        <v>295299.84999999998</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="44">
+        <v>160386.5</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:L11 C12:D16 F12:L16">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+  <conditionalFormatting sqref="C5:L11 C12:D17 F12:L17">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(C5))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="n.v.">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="n.v.">
       <formula>NOT(ISERROR(SEARCH("n.v.",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L16">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Simulation">
+  <conditionalFormatting sqref="C5:L17">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Simulation">
       <formula>NOT(ISERROR(SEARCH("Simulation",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E25" r:id="rId1" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{243E730A-2DC7-443B-AF2E-441B3880AB0B}"/>
+    <hyperlink ref="E28" r:id="rId2" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{56C96019-A3D3-46BE-A8A4-AABF719B84DF}"/>
+    <hyperlink ref="E26" r:id="rId3" location=":~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" display="https://lloydslist.maritimeintelligence.informa.com/LL1141976/Odfjell-says-chemical-tanker-rates-at-highest-since-2007#:~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" xr:uid="{7BE54115-5FC6-4DD9-A46D-94D61CADAC4A}"/>
+    <hyperlink ref="E27" r:id="rId4" location=":~:text=LNG%20shipping%20rates%20'shooting%20for%20the%20stars'%20at%20%24500%2C000%20per%20day  zuletzt geprüft am 15.12.2022" xr:uid="{D43FADDF-AD1C-43D6-A4B3-B26A3A636EBD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA457E3-0315-E74D-BF3E-7E7A6A01568D}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
@@ -1662,171 +2052,203 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
         <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="24">
         <v>0</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="24">
         <v>0</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="24">
         <v>33</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="24">
         <v>0</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="24">
         <v>0</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="24">
         <v>0</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="24">
         <f>720*1000</f>
         <v>720000</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
         <v>33</v>
       </c>
-      <c r="B3" s="28">
+      <c r="F3" s="24">
         <v>0</v>
       </c>
-      <c r="D3" s="28">
+      <c r="G3" s="24">
         <v>0</v>
       </c>
-      <c r="E3" s="28">
-        <v>33</v>
-      </c>
-      <c r="F3" s="28">
+      <c r="H3" s="24">
         <v>0</v>
       </c>
-      <c r="G3" s="28">
-        <v>0</v>
-      </c>
-      <c r="H3" s="28">
-        <v>0</v>
-      </c>
-      <c r="I3" s="28">
+      <c r="I3" s="24">
         <f>630*1000</f>
         <v>630000</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="28">
+        <v>35</v>
+      </c>
+      <c r="B4" s="24">
         <v>0</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <v>136000000</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="24">
         <v>33</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="24">
         <v>8000</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="24">
         <v>30000</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="24">
         <f>(F4/24)*G4</f>
         <v>10000000</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="24">
         <f>D4/(H4*E4/F4)*1000</f>
         <v>3296969.6969696968</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="28">
+        <v>38</v>
+      </c>
+      <c r="B5" s="24">
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="28">
+        <v>64</v>
+      </c>
+      <c r="D5" s="24">
         <v>0</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="24">
         <v>33</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="24">
         <v>0</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="24">
         <v>0</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="24">
         <v>0</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="24">
         <f>B5/E5*1000</f>
         <v>1090.9090909090908</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="24">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="24">
+        <v>33</v>
+      </c>
+      <c r="I6" s="24">
+        <f>B6*C8/E6*1000</f>
+        <v>1042.727272727273</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="35">
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428944FC-EF93-D147-9510-9BB668504AEF}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
@@ -1844,358 +2266,520 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
         <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="24">
         <v>15</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="28">
+      <c r="C2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="24">
         <f>B2*100000</f>
         <v>1500000</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="24">
         <v>33</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="24">
         <v>55.1</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="24">
         <v>8000</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="24">
         <v>1969</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="24">
         <v>0</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="24">
         <f>G2*H2</f>
         <v>15752000</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="50">
         <f>D2/J2*1000</f>
         <v>95.226003047232098</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="28">
+        <v>34</v>
+      </c>
+      <c r="B3" s="24">
         <v>20</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="28">
+      <c r="C3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="24">
         <f>B3*100000</f>
         <v>2000000</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="24">
         <v>33</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="24">
         <v>53.4</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="24">
         <v>8000</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="24">
         <v>2069</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="24">
         <v>0</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="24">
         <f>G3*H3</f>
         <v>16552000</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="50">
         <f>D3/J3*1000</f>
         <v>120.83131947800869</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="28">
+        <v>35</v>
+      </c>
+      <c r="B4" s="24">
         <v>0</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24">
         <v>2000000</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="24">
         <v>33</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="24">
         <v>10</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="24">
         <v>8000</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="24">
         <v>0</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="24">
         <v>30000</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="24">
         <f>(G4/24)*I4</f>
         <v>10000000</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="50">
         <f>D4/(J4*E4)*1000</f>
         <v>6.0606060606060606</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="28">
+        <v>38</v>
+      </c>
+      <c r="B5" s="24">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="C5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="24">
         <v>0</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="24">
+        <v>33</v>
+      </c>
+      <c r="F5" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="28">
+      <c r="G5" s="24">
         <v>0</v>
       </c>
-      <c r="G5" s="28">
+      <c r="H5" s="24">
         <v>0</v>
       </c>
-      <c r="H5" s="28">
+      <c r="I5" s="24">
         <v>0</v>
       </c>
-      <c r="I5" s="28">
+      <c r="J5" s="24">
         <v>0</v>
       </c>
-      <c r="J5" s="28">
-        <v>0</v>
-      </c>
-      <c r="K5" s="28">
+      <c r="K5" s="50">
         <f>capital_cost!I5*B5*0.01</f>
         <v>21.818181818181817</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
-      </c>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="24">
+        <v>33</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="50">
+        <f>capital_cost!I6*B6*0.01</f>
+        <v>20.854545454545459</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>28303.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <f>B7*$B$10</f>
+        <v>429269.75</v>
+      </c>
+      <c r="E7" s="24">
+        <v>33</v>
+      </c>
+      <c r="K7" s="51">
+        <f>D7/(35*1000*33)</f>
+        <v>0.37166212121212122</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8">
+        <v>25664.67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D9" si="0">B8*$B$10</f>
+        <v>389247.49499999994</v>
+      </c>
+      <c r="E8" s="24">
+        <v>33</v>
+      </c>
+      <c r="K8" s="51">
+        <f t="shared" ref="K8:K9" si="1">D8/(35*1000*1000)</f>
+        <v>1.1121356999999998E-2</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>160386.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2432528.583333333</v>
+      </c>
+      <c r="E9" s="24">
+        <v>33</v>
+      </c>
+      <c r="K9" s="51">
+        <f t="shared" si="1"/>
+        <v>6.9500816666666659E-2</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="49">
+        <f>15+4/24</f>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="45"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L7" r:id="rId1" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{390ABFAB-55EA-A541-94C7-724A7C035D74}"/>
+    <hyperlink ref="L8" r:id="rId2" location=":~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" display="https://lloydslist.maritimeintelligence.informa.com/LL1141976/Odfjell-says-chemical-tanker-rates-at-highest-since-2007#:~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" xr:uid="{69AB4808-13C1-0643-82AA-1CD658E49E4F}"/>
+    <hyperlink ref="L9" r:id="rId3" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{C78D2B28-CE59-DF43-B997-8C6FB86E24F2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB688AA-69C9-F548-BB05-A24A4E882F1A}">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161CAFB3-6641-4214-A1BC-4CB4769BA3D9}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="144.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>280</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>232</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10">
+        <v>8000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="31"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="31"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="31"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="31"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="31"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="31"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="31"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="31"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="31"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="31"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="31"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="31"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="31"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="31"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="31"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="31"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="31"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="31"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="31"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="31"/>
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>F10*D10*F10</f>
+        <v>14848000000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f>B11/1000</f>
+        <v>14848000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12">
+        <v>189000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12">
+        <v>136000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>G12*365</f>
+        <v>49640000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13">
+        <f>365*E12</f>
+        <v>68985000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13">
+        <f>G12*365</f>
+        <v>49640000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="34">
+        <f>B13/3</f>
+        <v>16546666.666666666</v>
+      </c>
+      <c r="D15">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>B12*D15</f>
+        <v>54937600</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f>B17/1000</f>
+        <v>54937.599999999999</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>222</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{57337292-9CBC-4AD7-9E84-C7DB08DF1105}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{D640AF44-3E3F-4121-8014-C0996ECBF63D}"/>
+    <hyperlink ref="B5" r:id="rId3" location=":~:text=Um%201%20kg%20Wasserstoff%20durch,9%20kg%20Wasser*)%20erforderlich." xr:uid="{76ED7C4F-3EE1-4D15-AA25-B9257090F40E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161CAFB3-6641-4214-A1BC-4CB4769BA3D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2378BD-3952-40CE-8760-D9B1F68CDD97}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2207,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2378BD-3952-40CE-8760-D9B1F68CDD97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A3E41-3845-480C-A707-54760FCBF4DD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2219,18 +2803,174 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A3E41-3845-480C-A707-54760FCBF4DD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB688AA-69C9-F548-BB05-A24A4E882F1A}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="27"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="27"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="27"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="27"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="27"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="27"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="27"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="27"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="27"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="27"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aca6c290d7270e062501f87f2390e508">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3e4e919cbdb82cbbd1a44b9c8ca9704" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -2407,17 +3147,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2428,38 +3157,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
     <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE75780A-771E-554F-8688-AC25500CF551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD2603DA-E3F2-EA4A-A022-0AEB07B156F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36920" yWindow="-7240" windowWidth="35080" windowHeight="20220" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
   <si>
     <t>Inputs</t>
   </si>
@@ -71,12 +71,6 @@
     <t>Speicherverluste</t>
   </si>
   <si>
-    <t>Entfernung</t>
-  </si>
-  <si>
-    <t>Tansportzeiten</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -101,12 +95,6 @@
     <t>standing_loss</t>
   </si>
   <si>
-    <t>length km</t>
-  </si>
-  <si>
-    <t>s_max_pu</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -387,6 +375,12 @@
   </si>
   <si>
     <t>Hydrierung</t>
+  </si>
+  <si>
+    <t>NH3 Speicher</t>
+  </si>
+  <si>
+    <t>LOHC Speicher</t>
   </si>
 </sst>
 </file>
@@ -396,8 +390,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -542,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -611,17 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -631,30 +614,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thick">
         <color indexed="64"/>
@@ -788,12 +751,9 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -817,22 +777,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -841,22 +792,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -888,29 +833,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -918,7 +860,62 @@
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="2" tint="-0.24994659260841701"/>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -974,7 +971,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}" name="Tabelle1" displayName="Tabelle1" ref="A2:B28" totalsRowShown="0">
   <autoFilter ref="A2:B28" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{9C8ABFA1-DCBA-9944-8549-EEC7F214E37A}" name="Quelle "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1278,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14DACE-E658-6948-9904-3793876CEF37}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1290,739 +1287,698 @@
     <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
     <col min="3" max="9" width="20.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="D3" s="24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="30" t="s">
+      <c r="E3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="G3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="H3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="I3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="J3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="30" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="27">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="27">
+        <v>48.41</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="33">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="C7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="33">
-        <v>48.41</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="F7" s="27">
         <f>marginal_cost!K2</f>
         <v>95.226003047232098</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="19">
         <f>capital_cost!I2</f>
         <v>720000</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="22">
         <f>marginal_cost!E2/marginal_cost!F2</f>
         <v>0.59891107078039929</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="F8" s="27">
         <f>marginal_cost!K3</f>
         <v>120.83131947800869</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="12">
         <v>10</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="19">
         <f>capital_cost!I3</f>
         <v>630000</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="22">
         <f>marginal_cost!E3/marginal_cost!F3</f>
         <v>0.61797752808988771</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="33">
+      <c r="F9" s="27">
         <f>marginal_cost!K4</f>
         <v>6.0606060606060606</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="12">
         <v>20</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="19">
         <f>capital_cost!I4</f>
         <v>3296969.6969696968</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="22">
         <v>1</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17" t="s">
+      <c r="F12" s="27">
+        <f>marginal_cost!K6</f>
+        <v>20.854545454545459</v>
+      </c>
+      <c r="G12" s="12">
+        <v>20</v>
+      </c>
+      <c r="H12" s="19">
+        <f>capital_cost!I6</f>
+        <v>1042.727272727273</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="33">
+      <c r="F13" s="27">
         <f>marginal_cost!K5</f>
         <v>21.818181818181817</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G13" s="12">
         <v>25</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H13" s="19">
         <f>capital_cost!I5</f>
         <v>1090.9090909090908</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="29">
+      <c r="I13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="23">
         <f>0.002/24</f>
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="K12" s="17" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="F15" s="27"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="27">
+        <v>4.8040000000000003</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="33">
-        <f>marginal_cost!K6</f>
-        <v>20.854545454545459</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="25">
-        <f>capital_cost!I6</f>
-        <v>1042.727272727273</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="33">
-        <v>4.8040000000000003</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="16">
-        <v>351</v>
-      </c>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="C24" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="D24" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="E22" s="20" t="s">
+      <c r="B27" s="36">
+        <v>28303.5</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="D27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="22">
-        <v>0.17</v>
-      </c>
-      <c r="H22" s="22">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I22" s="22">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="J22" s="22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="23">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="E27" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="42">
-        <v>28303.5</v>
-      </c>
-      <c r="C25" s="39" t="s">
+      <c r="B28" s="36">
+        <v>25664.67</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="40" t="s">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="B29" s="36">
+        <v>295299.84999999998</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="42">
-        <v>25664.67</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="42">
-        <v>295299.84999999998</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="44">
+      <c r="B30" s="38">
         <v>160386.5</v>
       </c>
-      <c r="C28" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>50</v>
+      <c r="C30" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:L11 C12:D17 F12:L17">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
+  <conditionalFormatting sqref="C5:J11 C12:D19 F12:J19">
+    <cfRule type="containsBlanks" dxfId="9" priority="6">
       <formula>LEN(TRIM(C5))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="n.v.">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="n.v.">
       <formula>NOT(ISERROR(SEARCH("n.v.",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Simulation">
+  <conditionalFormatting sqref="C5:J19">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Simulation">
       <formula>NOT(ISERROR(SEARCH("Simulation",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F5:J19">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
+      <formula>LEN(TRIM(F5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{243E730A-2DC7-443B-AF2E-441B3880AB0B}"/>
-    <hyperlink ref="E28" r:id="rId2" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{56C96019-A3D3-46BE-A8A4-AABF719B84DF}"/>
-    <hyperlink ref="E26" r:id="rId3" location=":~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" display="https://lloydslist.maritimeintelligence.informa.com/LL1141976/Odfjell-says-chemical-tanker-rates-at-highest-since-2007#:~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" xr:uid="{7BE54115-5FC6-4DD9-A46D-94D61CADAC4A}"/>
-    <hyperlink ref="E27" r:id="rId4" location=":~:text=LNG%20shipping%20rates%20'shooting%20for%20the%20stars'%20at%20%24500%2C000%20per%20day  zuletzt geprüft am 15.12.2022" xr:uid="{D43FADDF-AD1C-43D6-A4B3-B26A3A636EBD}"/>
+    <hyperlink ref="E27" r:id="rId1" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{243E730A-2DC7-443B-AF2E-441B3880AB0B}"/>
+    <hyperlink ref="E30" r:id="rId2" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{56C96019-A3D3-46BE-A8A4-AABF719B84DF}"/>
+    <hyperlink ref="E28" r:id="rId3" location=":~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" display="https://lloydslist.maritimeintelligence.informa.com/LL1141976/Odfjell-says-chemical-tanker-rates-at-highest-since-2007#:~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" xr:uid="{7BE54115-5FC6-4DD9-A46D-94D61CADAC4A}"/>
+    <hyperlink ref="E29" r:id="rId4" location=":~:text=LNG%20shipping%20rates%20'shooting%20for%20the%20stars'%20at%20%24500%2C000%20per%20day  zuletzt geprüft am 15.12.2022" xr:uid="{D43FADDF-AD1C-43D6-A4B3-B26A3A636EBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -2052,185 +2008,185 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="24">
+        <v>26</v>
+      </c>
+      <c r="B2" s="18">
         <v>0</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="18">
         <v>0</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="18">
         <v>33</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="18">
         <v>0</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="18">
         <v>0</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="18">
         <v>0</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="18">
         <f>720*1000</f>
         <v>720000</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="24">
+        <v>30</v>
+      </c>
+      <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="18">
         <v>0</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="18">
         <v>33</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="18">
         <v>0</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="18">
         <v>0</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="18">
         <v>0</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="18">
         <f>630*1000</f>
         <v>630000</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="24">
+        <v>31</v>
+      </c>
+      <c r="B4" s="18">
         <v>0</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="18">
         <v>136000000</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="18">
         <v>33</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="18">
         <v>8000</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="18">
         <v>30000</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="18">
         <f>(F4/24)*G4</f>
         <v>10000000</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="18">
         <f>D4/(H4*E4/F4)*1000</f>
         <v>3296969.6969696968</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="24">
+        <v>34</v>
+      </c>
+      <c r="B5" s="18">
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="24">
+        <v>60</v>
+      </c>
+      <c r="D5" s="18">
         <v>0</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="18">
         <v>33</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="18">
         <v>0</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="18">
         <v>0</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="18">
         <f>B5/E5*1000</f>
         <v>1090.9090909090908</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="24">
+        <v>36</v>
+      </c>
+      <c r="B6" s="18">
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="24">
+        <v>62</v>
+      </c>
+      <c r="E6" s="18">
         <v>33</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="18">
         <f>B6*C8/E6*1000</f>
         <v>1042.727272727273</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="35">
+      <c r="C8" s="29">
         <v>0.93</v>
       </c>
     </row>
@@ -2266,309 +2222,309 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>73</v>
-      </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="24">
+        <v>26</v>
+      </c>
+      <c r="B2" s="18">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="24">
+      <c r="C2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="18">
         <f>B2*100000</f>
         <v>1500000</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="18">
         <v>33</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="18">
         <v>55.1</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="18">
         <v>8000</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="18">
         <v>1969</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="18">
         <v>0</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="18">
         <f>G2*H2</f>
         <v>15752000</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="41">
         <f>D2/J2*1000</f>
         <v>95.226003047232098</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="24">
+        <v>30</v>
+      </c>
+      <c r="B3" s="18">
         <v>20</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="C3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="18">
         <f>B3*100000</f>
         <v>2000000</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="18">
         <v>33</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="18">
         <v>53.4</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="18">
         <v>8000</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="18">
         <v>2069</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="18">
         <v>0</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="18">
         <f>G3*H3</f>
         <v>16552000</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="41">
         <f>D3/J3*1000</f>
         <v>120.83131947800869</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="24">
+        <v>31</v>
+      </c>
+      <c r="B4" s="18">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18">
         <v>2000000</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="18">
         <v>33</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="18">
         <v>10</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="18">
         <v>8000</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="18">
         <v>0</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="18">
         <v>30000</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="18">
         <f>(G4/24)*I4</f>
         <v>10000000</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="41">
         <f>D4/(J4*E4)*1000</f>
         <v>6.0606060606060606</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="24">
+        <v>34</v>
+      </c>
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="C5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="18">
         <v>0</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="18">
         <v>33</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="18">
         <v>0</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="18">
         <v>0</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="18">
         <v>0</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="18">
         <v>0</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="18">
         <v>0</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="41">
         <f>capital_cost!I5*B5*0.01</f>
         <v>21.818181818181817</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="24">
+        <v>36</v>
+      </c>
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="24">
+      <c r="C6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="18">
         <v>33</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="50">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="41">
         <f>capital_cost!I6*B6*0.01</f>
         <v>20.854545454545459</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>28303.5</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <f>B7*$B$10</f>
         <v>429269.75</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="18">
         <v>33</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="42">
         <f>D7/(35*1000*33)</f>
         <v>0.37166212121212122</v>
       </c>
-      <c r="L7" s="45" t="s">
-        <v>50</v>
+      <c r="L7" s="39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <v>25664.67</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D9" si="0">B8*$B$10</f>
         <v>389247.49499999994</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="18">
         <v>33</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="42">
         <f t="shared" ref="K8:K9" si="1">D8/(35*1000*1000)</f>
         <v>1.1121356999999998E-2</v>
       </c>
-      <c r="L8" s="45" t="s">
-        <v>52</v>
+      <c r="L8" s="39" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B9">
         <v>160386.5</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>2432528.583333333</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="18">
         <v>33</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="42">
         <f t="shared" si="1"/>
         <v>6.9500816666666659E-2</v>
       </c>
-      <c r="L9" s="45" t="s">
-        <v>50</v>
+      <c r="L9" s="39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="49">
+      <c r="B10" s="40">
         <f>15+4/24</f>
         <v>15.166666666666666</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="45"/>
+        <v>109</v>
+      </c>
+      <c r="L10" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2595,49 +2551,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
-        <v>82</v>
+      <c r="B4" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
-        <v>83</v>
+      <c r="B5" s="25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2645,31 +2601,31 @@
         <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F10">
         <v>8000</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2678,7 +2634,7 @@
         <v>14848000000</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2687,19 +2643,19 @@
         <v>14848000</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>189000</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G12">
         <v>136000</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2708,25 +2664,25 @@
         <v>49640000</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <f>365*E12</f>
         <v>68985000</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G13">
         <f>G12*365</f>
         <v>49640000</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="34">
+      <c r="B15" s="28">
         <f>B13/3</f>
         <v>16546666.666666666</v>
       </c>
@@ -2740,7 +2696,7 @@
         <v>54937600</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2749,23 +2705,23 @@
         <v>54937.599999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B21">
         <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2817,139 +2773,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>102</v>
+      <c r="A1" s="20" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="27" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="12"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="21"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="21"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="21"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="21"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="21"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="21"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="21"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+      <c r="A23" s="12"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="21"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="21"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="21"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2971,6 +2927,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aca6c290d7270e062501f87f2390e508">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3e4e919cbdb82cbbd1a44b9c8ca9704" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -3147,33 +3112,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3190,12 +3154,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD2603DA-E3F2-EA4A-A022-0AEB07B156F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422B6B57-6F91-3347-937B-6ED5B08DE9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36920" yWindow="-7240" windowWidth="35080" windowHeight="20220" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
   <si>
     <t>Inputs</t>
   </si>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,12 +1407,8 @@
       <c r="F5" s="27">
         <v>68.900000000000006</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
         <v>24</v>
       </c>
@@ -1439,12 +1435,8 @@
       <c r="F6" s="27">
         <v>48.41</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
         <v>24</v>
       </c>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422B6B57-6F91-3347-937B-6ED5B08DE9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A71F45E-EF23-A84C-8897-1BDDB25EBB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36920" yWindow="-7240" windowWidth="35080" windowHeight="20220" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="113">
   <si>
     <t>Inputs</t>
   </si>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1768,9 +1768,7 @@
       <c r="G17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="H17" s="13"/>
       <c r="I17" s="12"/>
       <c r="J17" s="13" t="s">
         <v>24</v>
@@ -1796,9 +1794,7 @@
       <c r="G18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="H18" s="13"/>
       <c r="I18" s="12"/>
       <c r="J18" s="13" t="s">
         <v>24</v>
@@ -1824,9 +1820,7 @@
       <c r="G19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="13" t="s">
         <v>24</v>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thkoelnde.sharepoint.com/sites/DWE-bung3/Freigegebene Dokumente/General/Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A71F45E-EF23-A84C-8897-1BDDB25EBB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="6_{8BDA5C42-A9DE-AF44-894E-C36561D9BF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EE58742-7208-DC48-AD93-B3151A2BE225}"/>
   <bookViews>
     <workbookView xWindow="-36920" yWindow="-7240" windowWidth="35080" windowHeight="20220" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
   <si>
     <t>Inputs</t>
   </si>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,8 +1407,12 @@
       <c r="F5" s="27">
         <v>68.900000000000006</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="I5" s="13" t="s">
         <v>24</v>
       </c>
@@ -1435,8 +1439,12 @@
       <c r="F6" s="27">
         <v>48.41</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="I6" s="13" t="s">
         <v>24</v>
       </c>
@@ -1768,7 +1776,9 @@
       <c r="G17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="13" t="s">
         <v>24</v>
@@ -1794,7 +1804,9 @@
       <c r="G18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="13" t="s">
         <v>24</v>
@@ -1820,7 +1832,9 @@
       <c r="G19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="I19" s="12"/>
       <c r="J19" s="13" t="s">
         <v>24</v>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thkoelnde.sharepoint.com/sites/DWE-bung3/Freigegebene Dokumente/General/Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="6_{8BDA5C42-A9DE-AF44-894E-C36561D9BF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EE58742-7208-DC48-AD93-B3151A2BE225}"/>
+  <xr:revisionPtr revIDLastSave="548" documentId="6_{8BDA5C42-A9DE-AF44-894E-C36561D9BF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E99BD553-8695-1340-A698-DBCA03F88C73}"/>
   <bookViews>
-    <workbookView xWindow="-36920" yWindow="-7240" windowWidth="35080" windowHeight="20220" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="-38400" yWindow="-7700" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
-    <sheet name="capital_cost" sheetId="5" r:id="rId2"/>
-    <sheet name="marginal_cost" sheetId="7" r:id="rId3"/>
-    <sheet name="Chile" sheetId="2" r:id="rId4"/>
-    <sheet name="Transport" sheetId="3" r:id="rId5"/>
-    <sheet name="Zement" sheetId="4" r:id="rId6"/>
+    <sheet name="Allgemein" sheetId="9" r:id="rId2"/>
+    <sheet name="capital_cost" sheetId="5" r:id="rId3"/>
+    <sheet name="marginal_cost" sheetId="7" r:id="rId4"/>
+    <sheet name="efficiency" sheetId="8" r:id="rId5"/>
+    <sheet name="Chile" sheetId="2" r:id="rId6"/>
     <sheet name="Quellen" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
   <si>
     <t>Inputs</t>
   </si>
@@ -158,12 +158,6 @@
     <t>Pipeline</t>
   </si>
   <si>
-    <t>Wasserentsalzungsanlage</t>
-  </si>
-  <si>
-    <t>Wasser</t>
-  </si>
-  <si>
     <t>Transportation BOG</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
     <t>CAPEX [€]</t>
   </si>
   <si>
-    <t>Energiegehalt Wasserstoff [kWh/kg]</t>
-  </si>
-  <si>
     <t>Betriebsstunden [h/a]</t>
   </si>
   <si>
@@ -236,12 +227,6 @@
     <t>[5]</t>
   </si>
   <si>
-    <t>Umrechnungskurs [€]</t>
-  </si>
-  <si>
-    <t>spezifische Betriebskosten</t>
-  </si>
-  <si>
     <t>OPEX [€/a]</t>
   </si>
   <si>
@@ -371,9 +356,6 @@
     <t>LOHC Schiff</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Hydrierung</t>
   </si>
   <si>
@@ -381,6 +363,114 @@
   </si>
   <si>
     <t>LOHC Speicher</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>trips/year</t>
+  </si>
+  <si>
+    <t>boiloff/year</t>
+  </si>
+  <si>
+    <t>boiloff/trip</t>
+  </si>
+  <si>
+    <t>$/m3</t>
+  </si>
+  <si>
+    <t>Fahrten/a</t>
+  </si>
+  <si>
+    <t>Transportkapazität [MWh/a]</t>
+  </si>
+  <si>
+    <t>OPEX [$/a]</t>
+  </si>
+  <si>
+    <t>Umrechnung</t>
+  </si>
+  <si>
+    <t>Invest [€/m3]</t>
+  </si>
+  <si>
+    <t>Kosten überprüfen</t>
+  </si>
+  <si>
+    <t>capital_cost [€/MWh]</t>
+  </si>
+  <si>
+    <t>Transportzeit pro Fahrt</t>
+  </si>
+  <si>
+    <t>Transportzeit pro Jahr</t>
+  </si>
+  <si>
+    <t>Fahrten pro Jahr</t>
+  </si>
+  <si>
+    <t>Transportspezifisch</t>
+  </si>
+  <si>
+    <t>Stoffspezifisch</t>
+  </si>
+  <si>
+    <t>Dichte Wasserstoff</t>
+  </si>
+  <si>
+    <t>Dichte Ammoniak</t>
+  </si>
+  <si>
+    <t>Währung</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>h/n</t>
+  </si>
+  <si>
+    <t>h/a</t>
+  </si>
+  <si>
+    <t>https://gdch.app/article/energietraeger-wie-teuer-fortbewegung-ist-4116971</t>
+  </si>
+  <si>
+    <t>LOHC (aus der Tankstelle) €/kWh</t>
+  </si>
+  <si>
+    <t>Wie hoch ist der Wirkungsgrad eines LOHC Speichers?</t>
+  </si>
+  <si>
+    <t>Der Wirkungsgrad wird vor allem durch die elektrochemischen Bauteile bestimmt. Elektrolyse 70 % (Strom zu Wasserstoff) Brennstoffzelle 50 % (Wasserstoff zu Strom). Damit ergibt sich ein maximaler Wirkungsgrad von 35 % Strom zu Strom. Die Abwärme aus der Beladung lässt sich technisch noch nutzen, zugleich muss aber auch die Wärme für die Entladung bereitgestellt werden. Je nachdem, wie diese Bereitstellung umgesetzt wird, verändert sich auch der Wirkungsgrad. Unter Berücksichtigung der Energiebereitstellung für die Entladung ist es derzeit möglich, 20-25 % des eingespeicherten Stroms wieder zu Strom umzusetzen.</t>
+  </si>
+  <si>
+    <t>Gravimetrische Energiedichte Wasserstoff</t>
+  </si>
+  <si>
+    <t>Volumetrische Energiedichte Wasserstoff (l)</t>
+  </si>
+  <si>
+    <t>kWh/kg oder MWh/t</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>Gravimetrische Energiedichte Ammoniak</t>
+  </si>
+  <si>
+    <t>spezifische Parameter</t>
+  </si>
+  <si>
+    <t>€/$</t>
+  </si>
+  <si>
+    <t>Mohammed Al-Breiki, Yusuf Bicer: Comparative cost assessment of sustainable energy carriers produced from natural gas accounting for boil-off gas and social cost of carbon. In: Energy Reports (2020)</t>
+  </si>
+  <si>
+    <t>[6]</t>
   </si>
 </sst>
 </file>
@@ -391,9 +481,9 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -476,12 +566,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -751,7 +835,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -829,29 +913,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -860,7 +951,7 @@
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -874,14 +965,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="2" tint="-0.24994659260841701"/>
           <bgColor theme="2" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -907,47 +990,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <fgColor theme="2" tint="-0.24994659260841701"/>
           <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -967,11 +1013,64 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>261471</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>464943</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>196268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E741A582-4149-CB6E-2F48-4B8A6B82C11A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="261471" y="8456706"/>
+          <a:ext cx="5283472" cy="3206915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}" name="Tabelle1" displayName="Tabelle1" ref="A2:B28" totalsRowShown="0">
   <autoFilter ref="A2:B28" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{9C8ABFA1-DCBA-9944-8549-EEC7F214E37A}" name="Quelle "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -979,7 +1078,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1267,7 +1366,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1275,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14DACE-E658-6948-9904-3793876CEF37}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1291,18 +1390,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -1407,12 +1506,8 @@
       <c r="F5" s="27">
         <v>68.900000000000006</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
         <v>24</v>
       </c>
@@ -1439,12 +1534,8 @@
       <c r="F6" s="27">
         <v>48.41</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
         <v>24</v>
       </c>
@@ -1469,18 +1560,18 @@
         <v>28</v>
       </c>
       <c r="F7" s="27">
-        <f>marginal_cost!K2</f>
+        <f>marginal_cost!L2</f>
         <v>95.226003047232098</v>
       </c>
       <c r="G7" s="12">
         <v>10</v>
       </c>
       <c r="H7" s="19">
-        <f>capital_cost!I2</f>
+        <f>capital_cost!J2</f>
         <v>720000</v>
       </c>
       <c r="I7" s="22">
-        <f>marginal_cost!E2/marginal_cost!F2</f>
+        <f>Allgemein!$B$12/marginal_cost!F2</f>
         <v>0.59891107078039929</v>
       </c>
       <c r="J7" s="13" t="s">
@@ -1507,18 +1598,18 @@
         <v>28</v>
       </c>
       <c r="F8" s="27">
-        <f>marginal_cost!K3</f>
+        <f>marginal_cost!L3</f>
         <v>120.83131947800869</v>
       </c>
       <c r="G8" s="12">
         <v>10</v>
       </c>
       <c r="H8" s="19">
-        <f>capital_cost!I3</f>
+        <f>capital_cost!J3</f>
         <v>630000</v>
       </c>
       <c r="I8" s="22">
-        <f>marginal_cost!E3/marginal_cost!F3</f>
+        <f>Allgemein!$B$12/marginal_cost!F3</f>
         <v>0.61797752808988771</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -1545,14 +1636,14 @@
         <v>28</v>
       </c>
       <c r="F9" s="27">
-        <f>marginal_cost!K4</f>
+        <f>marginal_cost!L4</f>
         <v>6.0606060606060606</v>
       </c>
       <c r="G9" s="12">
         <v>20</v>
       </c>
       <c r="H9" s="19">
-        <f>capital_cost!I4</f>
+        <f>capital_cost!J4</f>
         <v>3296969.6969696968</v>
       </c>
       <c r="I9" s="22">
@@ -1591,7 +1682,7 @@
     </row>
     <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -1630,15 +1721,15 @@
         <v>28</v>
       </c>
       <c r="F12" s="27">
-        <f>marginal_cost!K6</f>
-        <v>20.854545454545459</v>
+        <f>marginal_cost!L6</f>
+        <v>24.442424242424249</v>
       </c>
       <c r="G12" s="12">
         <v>20</v>
       </c>
       <c r="H12" s="19">
-        <f>capital_cost!I6</f>
-        <v>1042.727272727273</v>
+        <f>capital_cost!J6</f>
+        <v>1222.1212121212125</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>24</v>
@@ -1662,27 +1753,27 @@
         <v>28</v>
       </c>
       <c r="F13" s="27">
-        <f>marginal_cost!K5</f>
+        <f>marginal_cost!L5</f>
         <v>21.818181818181817</v>
       </c>
       <c r="G13" s="12">
         <v>25</v>
       </c>
       <c r="H13" s="19">
-        <f>capital_cost!I5</f>
+        <f>capital_cost!J5</f>
         <v>1090.9090909090908</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="23">
-        <f>0.002/24</f>
-        <v>8.3333333333333331E-5</v>
+      <c r="J13" s="39">
+        <f>0.002*24</f>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>35</v>
@@ -1706,7 +1797,7 @@
     </row>
     <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>35</v>
@@ -1756,9 +1847,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
@@ -1772,21 +1863,31 @@
       <c r="E17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="12"/>
+      <c r="F17" s="27">
+        <f>marginal_cost!L7</f>
+        <v>0.11107804278831422</v>
+      </c>
+      <c r="G17" s="13">
+        <v>20</v>
+      </c>
+      <c r="H17" s="42">
+        <f>capital_cost!J7</f>
+        <v>2291308.8692835532</v>
+      </c>
+      <c r="I17" s="39">
+        <f>efficiency!F2</f>
+        <v>0.86221181280202108</v>
+      </c>
       <c r="J17" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -1800,21 +1901,31 @@
       <c r="E18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="12"/>
+      <c r="F18" s="27">
+        <f>marginal_cost!L8</f>
+        <v>5.8299648826375096E-2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>20</v>
+      </c>
+      <c r="H18" s="42">
+        <f>capital_cost!J8</f>
+        <v>1135336.8482718221</v>
+      </c>
+      <c r="I18" s="39">
+        <f>efficiency!F3</f>
+        <v>0.99675027863908006</v>
+      </c>
       <c r="J18" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
@@ -1832,30 +1943,21 @@
       <c r="G19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="B24" s="15" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="C24" s="16">
         <v>0.17</v>
@@ -1873,104 +1975,125 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="44">
+        <v>28303.5</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="D27" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="36">
-        <v>28303.5</v>
-      </c>
-      <c r="C27" s="33" t="s">
+      <c r="E27" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="34" t="s">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="B28" s="44">
+        <v>25664.67</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="36">
-        <v>25664.67</v>
-      </c>
-      <c r="C28" s="33" t="s">
+      <c r="B29" s="44">
+        <v>295299.84999999998</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="45">
+        <v>160386.5</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="36">
-        <v>295299.84999999998</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="38">
-        <v>160386.5</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>46</v>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:J11 C12:D19 F12:J19">
-    <cfRule type="containsBlanks" dxfId="9" priority="6">
+  <conditionalFormatting sqref="C12:D19 F12:J19 C5:J11">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="n.v.">
+      <formula>NOT(ISERROR(SEARCH("n.v.",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(C5))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="n.v.">
-      <formula>NOT(ISERROR(SEARCH("n.v.",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:J19">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Simulation">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Simulation">
       <formula>NOT(ISERROR(SEARCH("Simulation",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:J19">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(F5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1979,74 +2102,214 @@
     <hyperlink ref="E30" r:id="rId2" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{56C96019-A3D3-46BE-A8A4-AABF719B84DF}"/>
     <hyperlink ref="E28" r:id="rId3" location=":~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" display="https://lloydslist.maritimeintelligence.informa.com/LL1141976/Odfjell-says-chemical-tanker-rates-at-highest-since-2007#:~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" xr:uid="{7BE54115-5FC6-4DD9-A46D-94D61CADAC4A}"/>
     <hyperlink ref="E29" r:id="rId4" location=":~:text=LNG%20shipping%20rates%20'shooting%20for%20the%20stars'%20at%20%24500%2C000%20per%20day  zuletzt geprüft am 15.12.2022" xr:uid="{D43FADDF-AD1C-43D6-A4B3-B26A3A636EBD}"/>
+    <hyperlink ref="C38" r:id="rId5" xr:uid="{77646C58-65A7-44BC-90AB-A20D7EC7683E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA457E3-0315-E74D-BF3E-7E7A6A01568D}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21831451-8AFD-2242-90C2-49C48CD5C077}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <f>24*15+4</f>
+        <v>364</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <f>B6*B5</f>
+        <v>3640</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15">
+        <v>5.2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16">
+        <v>682.8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA457E3-0315-E74D-BF3E-7E7A6A01568D}">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
       </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
       <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F2" s="18">
         <v>0</v>
@@ -2058,25 +2321,31 @@
         <v>0</v>
       </c>
       <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
         <f>720*1000</f>
         <v>720000</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
       </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
       <c r="D3" s="18">
         <v>0</v>
       </c>
       <c r="E3" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
@@ -2088,25 +2357,31 @@
         <v>0</v>
       </c>
       <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
         <f>630*1000</f>
         <v>630000</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
       </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
       <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
         <v>136000000</v>
-      </c>
-      <c r="E4" s="18">
-        <v>33</v>
       </c>
       <c r="F4" s="18">
         <v>8000</v>
@@ -2119,28 +2394,31 @@
         <v>10000000</v>
       </c>
       <c r="I4" s="18">
-        <f>D4/(H4*E4/F4)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <f>E4/(H4*Allgemein!$B$12/F4)*1000</f>
         <v>3296969.6969696968</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="18">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>60</v>
+      <c r="C5" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
       </c>
       <c r="E5" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -2152,43 +2430,140 @@
         <v>0</v>
       </c>
       <c r="I5" s="18">
-        <f>B5/E5*1000</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <f>B5/Allgemein!$B$12*1000</f>
         <v>1090.9090909090908</v>
       </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="18">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
-        <v>62</v>
+      <c r="C6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
       </c>
       <c r="E6" s="18">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
       </c>
       <c r="I6" s="18">
-        <f>B6*C8/E6*1000</f>
-        <v>1042.727272727273</v>
-      </c>
-      <c r="J6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="29">
-        <v>0.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
+        <f>B6*Allgemein!$B$2/Allgemein!$B$12*1000</f>
+        <v>1222.1212121212125</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1355</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="18">
+        <f>B7*Allgemein!$B$2</f>
+        <v>1476.95</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <f>D7/(Allgemein!$B$14*Allgemein!$B$12/1000)</f>
+        <v>629.48045859438275</v>
+      </c>
+      <c r="J7" s="18">
+        <f>I7*Allgemein!$B$7</f>
+        <v>2291308.8692835532</v>
+      </c>
+      <c r="K7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1016</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="18">
+        <f>B8*Allgemein!$B$2</f>
+        <v>1107.44</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <f>D8/(Allgemein!$B$16*Allgemein!$B$15/1000)</f>
+        <v>311.90572754720387</v>
+      </c>
+      <c r="J8" s="18">
+        <f>I8*Allgemein!$B$7</f>
+        <v>1135336.8482718221</v>
+      </c>
+      <c r="K8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="18"/>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2196,66 +2571,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428944FC-EF93-D147-9510-9BB668504AEF}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.83203125" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
-        <v>58</v>
-      </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2263,14 +2641,14 @@
         <v>15</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18">
         <f>B2*100000</f>
         <v>1500000</v>
-      </c>
-      <c r="E2" s="18">
-        <v>33</v>
       </c>
       <c r="F2" s="18">
         <v>55.1</v>
@@ -2288,15 +2666,18 @@
         <f>G2*H2</f>
         <v>15752000</v>
       </c>
-      <c r="K2" s="41">
-        <f>D2/J2*1000</f>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
+        <f>E2/J2*1000</f>
         <v>95.226003047232098</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2304,14 +2685,14 @@
         <v>20</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
         <f>B3*100000</f>
         <v>2000000</v>
-      </c>
-      <c r="E3" s="18">
-        <v>33</v>
       </c>
       <c r="F3" s="18">
         <v>53.4</v>
@@ -2329,27 +2710,32 @@
         <f>G3*H3</f>
         <v>16552000</v>
       </c>
-      <c r="K3" s="41">
-        <f>D3/J3*1000</f>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <f>E3/J3*1000</f>
         <v>120.83131947800869</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
       <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
         <v>2000000</v>
-      </c>
-      <c r="E4" s="18">
-        <v>33</v>
       </c>
       <c r="F4" s="18">
         <v>10</v>
@@ -2367,15 +2753,18 @@
         <f>(G4/24)*I4</f>
         <v>10000000</v>
       </c>
-      <c r="K4" s="41">
-        <f>D4/(J4*E4)*1000</f>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <f>E4/(J4*Allgemein!$B$12)*1000</f>
         <v>6.0606060606060606</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2383,13 +2772,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
       </c>
       <c r="E5" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -2406,15 +2795,18 @@
       <c r="J5" s="18">
         <v>0</v>
       </c>
-      <c r="K5" s="41">
-        <f>capital_cost!I5*B5*0.01</f>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <f>capital_cost!$J$5*B5*0.01</f>
         <v>21.818181818181817</v>
       </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2422,127 +2814,273 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="18">
-        <v>33</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="41">
-        <f>capital_cost!I6*B6*0.01</f>
-        <v>20.854545454545459</v>
-      </c>
-      <c r="L6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0</v>
+      </c>
+      <c r="H6" s="47">
+        <v>0</v>
+      </c>
+      <c r="I6" s="47">
+        <v>0</v>
+      </c>
+      <c r="J6" s="47">
+        <v>0</v>
+      </c>
+      <c r="K6" s="47">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <f>capital_cost!$J$6*B6*0.01</f>
+        <v>24.442424242424249</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7">
-        <v>28303.5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7">
-        <f>B7*$B$10</f>
-        <v>429269.75</v>
+        <v>101</v>
+      </c>
+      <c r="B7" s="18">
+        <v>24.14</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="18">
+        <f>24300000/B7</f>
+        <v>1006628.0033140016</v>
       </c>
       <c r="E7" s="18">
-        <v>33</v>
-      </c>
-      <c r="K7" s="42">
-        <f>D7/(35*1000*33)</f>
-        <v>0.37166212121212122</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <f>D7*Allgemein!$B$2</f>
+        <v>1097224.5236122617</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <f>efficiency!B2*efficiency!C2</f>
+        <v>274616640</v>
+      </c>
+      <c r="K7" s="18">
+        <f>J7*Allgemein!$B$12/1000</f>
+        <v>9062349.1199999992</v>
+      </c>
+      <c r="L7" s="18">
+        <f>D7/K7</f>
+        <v>0.11107804278831422</v>
+      </c>
+      <c r="M7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8">
-        <v>25664.67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D9" si="0">B8*$B$10</f>
-        <v>389247.49499999994</v>
+        <v>102</v>
+      </c>
+      <c r="B8" s="18">
+        <v>24.14</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="18">
+        <f>19300000/B8</f>
+        <v>799502.89975144982</v>
       </c>
       <c r="E8" s="18">
-        <v>33</v>
-      </c>
-      <c r="K8" s="42">
-        <f t="shared" ref="K8:K9" si="1">D8/(35*1000*1000)</f>
-        <v>1.1121356999999998E-2</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <f>D8*Allgemein!$B$2</f>
+        <v>871458.16072908032</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <f>efficiency!B3*efficiency!C3</f>
+        <v>2637246720</v>
+      </c>
+      <c r="K8" s="18">
+        <f>J8*Allgemein!$B$15/1000</f>
+        <v>13713682.944</v>
+      </c>
+      <c r="L8" s="18">
+        <f>D8/K8</f>
+        <v>5.8299648826375096E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9">
-        <v>160386.5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2432528.583333333</v>
-      </c>
-      <c r="E9" s="18">
-        <v>33</v>
-      </c>
-      <c r="K9" s="42">
-        <f t="shared" si="1"/>
-        <v>6.9500816666666659E-2</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="40">
-        <f>15+4/24</f>
-        <v>15.166666666666666</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="39"/>
+        <v>103</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18">
+        <f>E9/(35*1000*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="36"/>
+      <c r="M10" s="35"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L7" r:id="rId1" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{390ABFAB-55EA-A541-94C7-724A7C035D74}"/>
-    <hyperlink ref="L8" r:id="rId2" location=":~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" display="https://lloydslist.maritimeintelligence.informa.com/LL1141976/Odfjell-says-chemical-tanker-rates-at-highest-since-2007#:~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" xr:uid="{69AB4808-13C1-0643-82AA-1CD658E49E4F}"/>
-    <hyperlink ref="L9" r:id="rId3" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{C78D2B28-CE59-DF43-B997-8C6FB86E24F2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE4D1B0-F1F9-1E40-B5E2-84D75BDB73F9}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="18">
+        <v>11376000</v>
+      </c>
+      <c r="C2" s="18">
+        <v>24.14</v>
+      </c>
+      <c r="D2" s="18">
+        <v>37838929</v>
+      </c>
+      <c r="E2" s="18">
+        <f>D2/C2</f>
+        <v>1567478.4175642089</v>
+      </c>
+      <c r="F2" s="40">
+        <f>1-E2/B2</f>
+        <v>0.86221181280202108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="18">
+        <v>109248000</v>
+      </c>
+      <c r="C3" s="18">
+        <v>24.14</v>
+      </c>
+      <c r="D3" s="18">
+        <v>8570317</v>
+      </c>
+      <c r="E3" s="18">
+        <f>D3/C3</f>
+        <v>355025.55923777958</v>
+      </c>
+      <c r="F3" s="40">
+        <f>1-E3/B3</f>
+        <v>0.99675027863908006</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18">
+        <v>24.14</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161CAFB3-6641-4214-A1BC-4CB4769BA3D9}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2551,49 +3089,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2601,31 +3139,31 @@
         <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D10">
         <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <v>8000</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2634,7 +3172,7 @@
         <v>14848000000</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2643,19 +3181,19 @@
         <v>14848000</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>189000</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G12">
         <v>136000</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2664,21 +3202,21 @@
         <v>49640000</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <f>365*E12</f>
         <v>68985000</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G13">
         <f>G12*365</f>
         <v>49640000</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2696,7 +3234,7 @@
         <v>54937600</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2705,23 +3243,23 @@
         <v>54937.599999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2734,36 +3272,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2378BD-3952-40CE-8760-D9B1F68CDD97}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4A3E41-3845-480C-A707-54760FCBF4DD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB688AA-69C9-F548-BB05-A24A4E882F1A}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="159" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2774,15 +3288,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2790,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2798,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2806,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -2814,7 +3328,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2822,12 +3336,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="21"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
@@ -2916,17 +3434,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2935,7 +3442,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aca6c290d7270e062501f87f2390e508">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3e4e919cbdb82cbbd1a44b9c8ca9704" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -3112,24 +3619,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3137,7 +3638,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3154,4 +3655,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thkoelnde.sharepoint.com/sites/DWE-bung3/Freigegebene Dokumente/General/Simulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="548" documentId="6_{8BDA5C42-A9DE-AF44-894E-C36561D9BF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E99BD553-8695-1340-A698-DBCA03F88C73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88431C6C-680F-444E-B916-1A10DDB44452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-7700" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="-36560" yWindow="-7700" windowWidth="34040" windowHeight="20220" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="efficiency" sheetId="8" r:id="rId5"/>
     <sheet name="Chile" sheetId="2" r:id="rId6"/>
     <sheet name="Quellen" sheetId="6" r:id="rId7"/>
+    <sheet name="xAmmoniak" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="178">
   <si>
     <t>Inputs</t>
   </si>
@@ -146,18 +147,39 @@
     <t>Haber-Bosch</t>
   </si>
   <si>
+    <t>Hydrierung</t>
+  </si>
+  <si>
+    <t>GH2 Speicher</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
     <t>LH2 Speicher</t>
   </si>
   <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>GH2 Speicher</t>
+    <t>NH3 Speicher</t>
+  </si>
+  <si>
+    <t>LOHC Speicher</t>
   </si>
   <si>
     <t>Pipeline</t>
   </si>
   <si>
+    <t>LH2 Schiff</t>
+  </si>
+  <si>
+    <t>Kosten überprüfen</t>
+  </si>
+  <si>
+    <t>NH3 Schiff</t>
+  </si>
+  <si>
+    <t>LOHC Schiff</t>
+  </si>
+  <si>
     <t>Transportation BOG</t>
   </si>
   <si>
@@ -194,12 +216,81 @@
     <t>Schiffsgröße CNG tanker (LH2, Methanol)</t>
   </si>
   <si>
+    <t>LOHC (aus der Tankstelle) €/kWh</t>
+  </si>
+  <si>
+    <t>https://gdch.app/article/energietraeger-wie-teuer-fortbewegung-ist-4116971</t>
+  </si>
+  <si>
+    <t>Wie hoch ist der Wirkungsgrad eines LOHC Speichers?</t>
+  </si>
+  <si>
+    <t>Der Wirkungsgrad wird vor allem durch die elektrochemischen Bauteile bestimmt. Elektrolyse 70 % (Strom zu Wasserstoff) Brennstoffzelle 50 % (Wasserstoff zu Strom). Damit ergibt sich ein maximaler Wirkungsgrad von 35 % Strom zu Strom. Die Abwärme aus der Beladung lässt sich technisch noch nutzen, zugleich muss aber auch die Wärme für die Entladung bereitgestellt werden. Je nachdem, wie diese Bereitstellung umgesetzt wird, verändert sich auch der Wirkungsgrad. Unter Berücksichtigung der Energiebereitstellung für die Entladung ist es derzeit möglich, 20-25 % des eingespeicherten Stroms wieder zu Strom umzusetzen.</t>
+  </si>
+  <si>
+    <t>Währung</t>
+  </si>
+  <si>
+    <t>Umrechnung</t>
+  </si>
+  <si>
+    <t>€/$</t>
+  </si>
+  <si>
+    <t>Transportspezifisch</t>
+  </si>
+  <si>
+    <t>Fahrten pro Jahr</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Transportzeit pro Fahrt</t>
+  </si>
+  <si>
+    <t>h/n</t>
+  </si>
+  <si>
+    <t>Transportzeit pro Jahr</t>
+  </si>
+  <si>
+    <t>h/a</t>
+  </si>
+  <si>
+    <t>Stoffspezifisch</t>
+  </si>
+  <si>
+    <t>Gravimetrische Energiedichte Wasserstoff</t>
+  </si>
+  <si>
+    <t>kWh/kg oder MWh/t</t>
+  </si>
+  <si>
+    <t>Volumetrische Energiedichte Wasserstoff (l)</t>
+  </si>
+  <si>
+    <t>Dichte Wasserstoff</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>Gravimetrische Energiedichte Ammoniak</t>
+  </si>
+  <si>
+    <t>Dichte Ammoniak</t>
+  </si>
+  <si>
     <t>spezifische Investitionskosten</t>
   </si>
   <si>
     <t>Einheit</t>
   </si>
   <si>
+    <t>Invest [€/m3]</t>
+  </si>
+  <si>
     <t>CAPEX [€]</t>
   </si>
   <si>
@@ -212,6 +303,9 @@
     <t>Anlagenkapazität [kg/a]</t>
   </si>
   <si>
+    <t>capital_cost [€/MWh]</t>
+  </si>
+  <si>
     <t>capital_cost [€/MW]</t>
   </si>
   <si>
@@ -227,6 +321,18 @@
     <t>[5]</t>
   </si>
   <si>
+    <t>$/m3</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>spezifische Parameter</t>
+  </si>
+  <si>
+    <t>OPEX [$/a]</t>
+  </si>
+  <si>
     <t>OPEX [€/a]</t>
   </si>
   <si>
@@ -236,6 +342,9 @@
     <t>Leistung [kg/h]</t>
   </si>
   <si>
+    <t>Transportkapazität [MWh/a]</t>
+  </si>
+  <si>
     <t>marginal_cost [€/MWh]</t>
   </si>
   <si>
@@ -248,6 +357,21 @@
     <t>[4]</t>
   </si>
   <si>
+    <t>Fahrten/a</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>trips/year</t>
+  </si>
+  <si>
+    <t>boiloff/year</t>
+  </si>
+  <si>
+    <t>boiloff/trip</t>
+  </si>
+  <si>
     <t>Meerwasserentsalzung</t>
   </si>
   <si>
@@ -347,143 +471,124 @@
     <t>Bulk Storage of Hydrogen 4 D. D. Papadias and R. K. Ahluwalia 5 Argonne National Laboratory 6 9700 South Cass Avenue, Lemont, IL 60439</t>
   </si>
   <si>
-    <t>LH2 Schiff</t>
-  </si>
-  <si>
-    <t>NH3 Schiff</t>
-  </si>
-  <si>
-    <t>LOHC Schiff</t>
-  </si>
-  <si>
-    <t>Hydrierung</t>
-  </si>
-  <si>
-    <t>NH3 Speicher</t>
-  </si>
-  <si>
-    <t>LOHC Speicher</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>trips/year</t>
-  </si>
-  <si>
-    <t>boiloff/year</t>
-  </si>
-  <si>
-    <t>boiloff/trip</t>
-  </si>
-  <si>
-    <t>$/m3</t>
-  </si>
-  <si>
-    <t>Fahrten/a</t>
-  </si>
-  <si>
-    <t>Transportkapazität [MWh/a]</t>
-  </si>
-  <si>
-    <t>OPEX [$/a]</t>
-  </si>
-  <si>
-    <t>Umrechnung</t>
-  </si>
-  <si>
-    <t>Invest [€/m3]</t>
-  </si>
-  <si>
-    <t>Kosten überprüfen</t>
-  </si>
-  <si>
-    <t>capital_cost [€/MWh]</t>
-  </si>
-  <si>
-    <t>Transportzeit pro Fahrt</t>
-  </si>
-  <si>
-    <t>Transportzeit pro Jahr</t>
-  </si>
-  <si>
-    <t>Fahrten pro Jahr</t>
-  </si>
-  <si>
-    <t>Transportspezifisch</t>
-  </si>
-  <si>
-    <t>Stoffspezifisch</t>
-  </si>
-  <si>
-    <t>Dichte Wasserstoff</t>
-  </si>
-  <si>
-    <t>Dichte Ammoniak</t>
-  </si>
-  <si>
-    <t>Währung</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>h/n</t>
-  </si>
-  <si>
-    <t>h/a</t>
-  </si>
-  <si>
-    <t>https://gdch.app/article/energietraeger-wie-teuer-fortbewegung-ist-4116971</t>
-  </si>
-  <si>
-    <t>LOHC (aus der Tankstelle) €/kWh</t>
-  </si>
-  <si>
-    <t>Wie hoch ist der Wirkungsgrad eines LOHC Speichers?</t>
-  </si>
-  <si>
-    <t>Der Wirkungsgrad wird vor allem durch die elektrochemischen Bauteile bestimmt. Elektrolyse 70 % (Strom zu Wasserstoff) Brennstoffzelle 50 % (Wasserstoff zu Strom). Damit ergibt sich ein maximaler Wirkungsgrad von 35 % Strom zu Strom. Die Abwärme aus der Beladung lässt sich technisch noch nutzen, zugleich muss aber auch die Wärme für die Entladung bereitgestellt werden. Je nachdem, wie diese Bereitstellung umgesetzt wird, verändert sich auch der Wirkungsgrad. Unter Berücksichtigung der Energiebereitstellung für die Entladung ist es derzeit möglich, 20-25 % des eingespeicherten Stroms wieder zu Strom umzusetzen.</t>
-  </si>
-  <si>
-    <t>Gravimetrische Energiedichte Wasserstoff</t>
-  </si>
-  <si>
-    <t>Volumetrische Energiedichte Wasserstoff (l)</t>
-  </si>
-  <si>
-    <t>kWh/kg oder MWh/t</t>
-  </si>
-  <si>
-    <t>kg/m3</t>
-  </si>
-  <si>
-    <t>Gravimetrische Energiedichte Ammoniak</t>
-  </si>
-  <si>
-    <t>spezifische Parameter</t>
-  </si>
-  <si>
-    <t>€/$</t>
-  </si>
-  <si>
     <t>Mohammed Al-Breiki, Yusuf Bicer: Comparative cost assessment of sustainable energy carriers produced from natural gas accounting for boil-off gas and social cost of carbon. In: Energy Reports (2020)</t>
   </si>
   <si>
-    <t>[6]</t>
+    <t>LH2 €/kg</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>Entsalzung</t>
+  </si>
+  <si>
+    <t>kWh/m3</t>
+  </si>
+  <si>
+    <t>spez Strombedarf [kWh/kg]</t>
+  </si>
+  <si>
+    <t>kwh/kg</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Dehydrierung</t>
+  </si>
+  <si>
+    <t>Regasifizierung</t>
+  </si>
+  <si>
+    <t>NH3 Cracker</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Stoffliche Verluste!</t>
+  </si>
+  <si>
+    <t>LOHC</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>Wert on Top</t>
+  </si>
+  <si>
+    <t>1000-2000euro/t hn3</t>
+  </si>
+  <si>
+    <t>€/MW H2</t>
+  </si>
+  <si>
+    <t>€/MWh H2</t>
+  </si>
+  <si>
+    <t>g/mol</t>
+  </si>
+  <si>
+    <t>3H2</t>
+  </si>
+  <si>
+    <t>2NH3</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>% Massenanteil</t>
+  </si>
+  <si>
+    <t>durch 2</t>
+  </si>
+  <si>
+    <t>1t NH3 gleich 1500Euro</t>
+  </si>
+  <si>
+    <t>176,47 kg H2 gleich 1500Euro</t>
+  </si>
+  <si>
+    <t>176,47*33,33</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>1500Euro/5,88MWh</t>
+  </si>
+  <si>
+    <t>Euro/MwH2</t>
+  </si>
+  <si>
+    <t>255Euro/MWh H2?</t>
+  </si>
+  <si>
+    <t>Jaro Jens, Anthony Wang, Kees van der Leun, Daan Peters, Maud Buseman (2021): Extending the European Hydrogen Backbone</t>
+  </si>
+  <si>
+    <t>[7]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -574,6 +679,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -835,7 +946,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -899,9 +1010,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -923,26 +1031,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -951,7 +1072,42 @@
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="2" tint="-0.24994659260841701"/>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1019,14 +1175,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>261471</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>37353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>464943</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>196268</xdr:rowOff>
+      <xdr:colOff>472563</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>2032</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1062,15 +1218,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}" name="Tabelle1" displayName="Tabelle1" ref="A2:B28" totalsRowShown="0">
   <autoFilter ref="A2:B28" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{9C8ABFA1-DCBA-9944-8549-EEC7F214E37A}" name="Quelle "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1374,36 +1526,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14DACE-E658-6948-9904-3793876CEF37}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="9" width="20.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -1430,36 +1583,37 @@
       <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
@@ -1487,7 +1641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
@@ -1503,10 +1657,12 @@
       <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>68.900000000000006</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13">
+        <v>20</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
         <v>24</v>
@@ -1515,7 +1671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -1531,10 +1687,12 @@
       <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>48.41</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12">
+        <v>20</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
         <v>24</v>
@@ -1543,9 +1701,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
@@ -1559,130 +1717,130 @@
       <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="26">
         <f>marginal_cost!L2</f>
         <v>95.226003047232098</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H8" s="19">
         <f>capital_cost!J2</f>
         <v>720000</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I8" s="22">
         <f>Allgemein!$B$12/marginal_cost!F2</f>
         <v>0.59891107078039929</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F9" s="26">
         <f>marginal_cost!L3</f>
         <v>120.83131947800869</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="12">
         <v>10</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H9" s="19">
         <f>capital_cost!J3</f>
         <v>630000</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I9" s="22">
         <f>Allgemein!$B$12/marginal_cost!F3</f>
         <v>0.61797752808988771</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F10" s="26">
         <f>marginal_cost!L4</f>
         <v>6.0606060606060606</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="12">
         <v>20</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H10" s="19">
         <f>capital_cost!J4</f>
         <v>3296969.6969696968</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I10" s="22">
         <v>1</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
       <c r="J10" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="K10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -1696,20 +1854,20 @@
       <c r="E11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>23</v>
@@ -1717,31 +1875,31 @@
       <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="27">
-        <f>marginal_cost!L6</f>
-        <v>24.442424242424249</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="F12" s="26">
+        <v>1325</v>
+      </c>
+      <c r="G12" s="26">
         <v>20</v>
       </c>
-      <c r="H12" s="19">
-        <f>capital_cost!J6</f>
-        <v>1222.1212121212125</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="26">
+        <v>53000</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0.99</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>23</v>
@@ -1752,31 +1910,20 @@
       <c r="E13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="27">
-        <f>marginal_cost!L5</f>
-        <v>21.818181818181817</v>
-      </c>
-      <c r="G13" s="12">
-        <v>25</v>
-      </c>
-      <c r="H13" s="19">
-        <f>capital_cost!J5</f>
-        <v>1090.9090909090908</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="39">
-        <f>0.002*24</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>105</v>
+    </row>
+    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>23</v>
@@ -1787,20 +1934,20 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="13" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>23</v>
@@ -1811,17 +1958,25 @@
       <c r="E15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="13" t="s">
+      <c r="F15" s="26">
+        <v>3400</v>
+      </c>
+      <c r="G15" s="26">
+        <v>20</v>
+      </c>
+      <c r="H15" s="26">
+        <v>136000</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
@@ -1835,8 +1990,8 @@
       <c r="E16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="27">
-        <v>4.8040000000000003</v>
+      <c r="F16" s="26">
+        <v>3.9</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>24</v>
@@ -1846,10 +2001,13 @@
       <c r="J16" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
@@ -1863,31 +2021,31 @@
       <c r="E17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <f>marginal_cost!L7</f>
         <v>0.11107804278831422</v>
       </c>
       <c r="G17" s="13">
         <v>20</v>
       </c>
-      <c r="H17" s="42">
-        <f>capital_cost!J7</f>
+      <c r="H17" s="39">
+        <f>capital_cost!J8</f>
         <v>2291308.8692835532</v>
       </c>
-      <c r="I17" s="39">
-        <f>efficiency!F2</f>
+      <c r="I17" s="36">
+        <f>efficiency!G3</f>
         <v>0.86221181280202108</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -1901,31 +2059,34 @@
       <c r="E18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="26">
         <f>marginal_cost!L8</f>
         <v>5.8299648826375096E-2</v>
       </c>
       <c r="G18" s="13">
         <v>20</v>
       </c>
-      <c r="H18" s="42">
-        <f>capital_cost!J8</f>
+      <c r="H18" s="39">
+        <f>capital_cost!J9</f>
         <v>1135336.8482718221</v>
       </c>
-      <c r="I18" s="39">
-        <f>efficiency!F3</f>
+      <c r="I18" s="36">
+        <f>efficiency!G4</f>
         <v>0.99675027863908006</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L18" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
@@ -1939,170 +2100,455 @@
       <c r="E19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="39"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="36">
+        <v>1</v>
+      </c>
       <c r="J19" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="26">
+        <f>marginal_cost!L6</f>
+        <v>24.442424242424249</v>
+      </c>
+      <c r="G20" s="12">
+        <v>20</v>
+      </c>
+      <c r="H20" s="19">
+        <f>capital_cost!J6</f>
+        <v>1222.1212121212125</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="36">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="26">
+        <f>marginal_cost!L5</f>
+        <v>21.818181818181817</v>
+      </c>
+      <c r="G21" s="12">
+        <v>25</v>
+      </c>
+      <c r="H21" s="19">
+        <f>capital_cost!J5</f>
+        <v>1090.9090909090908</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="36">
+        <f>0.002*24</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G22" s="12">
+        <v>20</v>
+      </c>
+      <c r="H22" s="19">
+        <v>255</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="36">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="16">
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="26">
+        <v>1.673</v>
+      </c>
+      <c r="G23" s="12">
+        <v>30</v>
+      </c>
+      <c r="H23" s="19">
+        <v>239</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="E28" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="25"/>
+      <c r="I30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="16">
         <v>0.17</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D34" s="16">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E34" s="16">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17">
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="44">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="41">
         <v>28303.5</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="44">
+      <c r="C37" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="41">
         <v>25664.67</v>
       </c>
-      <c r="C28" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="44">
+      <c r="C38" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="41">
         <v>295299.84999999998</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="C39" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="45">
+      <c r="D39" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="42">
         <v>160386.5</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="C40" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1">
         <v>0.27</v>
       </c>
-      <c r="C38" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E42" s="1" t="s">
-        <v>133</v>
+      <c r="C42" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E45" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="25" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E46:G60"/>
   </mergeCells>
-  <conditionalFormatting sqref="C12:D19 F12:J19 C5:J11">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="n.v.">
+  <conditionalFormatting sqref="C16:D23 C5:J15 F28:J28 F16:J23">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="n.v.">
       <formula>NOT(ISERROR(SEARCH("n.v.",C5)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="7" priority="10">
       <formula>LEN(TRIM(C5))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:J19">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Simulation">
+  <conditionalFormatting sqref="E28:J28 C5:J23">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Simulation">
       <formula>NOT(ISERROR(SEARCH("Simulation",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:J19">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+  <conditionalFormatting sqref="F28:J28 F5:J23">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(F5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C13:D15">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="n.v.">
+      <formula>NOT(ISERROR(SEARCH("n.v.",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(C13))=0</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:D15">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Simulation">
+      <formula>NOT(ISERROR(SEARCH("Simulation",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{243E730A-2DC7-443B-AF2E-441B3880AB0B}"/>
-    <hyperlink ref="E30" r:id="rId2" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{56C96019-A3D3-46BE-A8A4-AABF719B84DF}"/>
-    <hyperlink ref="E28" r:id="rId3" location=":~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" display="https://lloydslist.maritimeintelligence.informa.com/LL1141976/Odfjell-says-chemical-tanker-rates-at-highest-since-2007#:~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" xr:uid="{7BE54115-5FC6-4DD9-A46D-94D61CADAC4A}"/>
-    <hyperlink ref="E29" r:id="rId4" location=":~:text=LNG%20shipping%20rates%20'shooting%20for%20the%20stars'%20at%20%24500%2C000%20per%20day  zuletzt geprüft am 15.12.2022" xr:uid="{D43FADDF-AD1C-43D6-A4B3-B26A3A636EBD}"/>
-    <hyperlink ref="C38" r:id="rId5" xr:uid="{77646C58-65A7-44BC-90AB-A20D7EC7683E}"/>
+    <hyperlink ref="E37" r:id="rId1" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{243E730A-2DC7-443B-AF2E-441B3880AB0B}"/>
+    <hyperlink ref="E40" r:id="rId2" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{56C96019-A3D3-46BE-A8A4-AABF719B84DF}"/>
+    <hyperlink ref="E38" r:id="rId3" location=":~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" display="https://lloydslist.maritimeintelligence.informa.com/LL1141976/Odfjell-says-chemical-tanker-rates-at-highest-since-2007#:~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" xr:uid="{7BE54115-5FC6-4DD9-A46D-94D61CADAC4A}"/>
+    <hyperlink ref="E39" r:id="rId4" location=":~:text=LNG%20shipping%20rates%20'shooting%20for%20the%20stars'%20at%20%24500%2C000%20per%20day  zuletzt geprüft am 15.12.2022" xr:uid="{D43FADDF-AD1C-43D6-A4B3-B26A3A636EBD}"/>
+    <hyperlink ref="C42" r:id="rId5" xr:uid="{77646C58-65A7-44BC-90AB-A20D7EC7683E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -2118,123 +2564,123 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>126</v>
+      <c r="A1" s="40" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <f>24*15+4</f>
         <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <f>B6*B5</f>
         <v>3640</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
-        <v>123</v>
+      <c r="A11" s="40" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>71.099999999999994</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>5.2</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>682.8</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2244,55 +2690,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA457E3-0315-E74D-BF3E-7E7A6A01568D}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2406,13 +2852,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="18">
         <v>36</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
@@ -2437,18 +2883,18 @@
         <v>1090.9090909090908</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="18">
         <v>37</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -2473,60 +2919,36 @@
         <v>1222.1212121212125</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="18">
-        <v>1355</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="18">
-        <f>B7*Allgemein!$B$2</f>
-        <v>1476.95</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <f>D7/(Allgemein!$B$14*Allgemein!$B$12/1000)</f>
-        <v>629.48045859438275</v>
-      </c>
-      <c r="J7" s="18">
-        <f>I7*Allgemein!$B$7</f>
-        <v>2291308.8692835532</v>
-      </c>
-      <c r="K7" t="s">
-        <v>142</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="B8" s="18">
-        <v>1016</v>
+        <v>1355</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D8" s="18">
         <f>B8*Allgemein!$B$2</f>
-        <v>1107.44</v>
+        <v>1476.95</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
@@ -2541,29 +2963,76 @@
         <v>0</v>
       </c>
       <c r="I8" s="18">
-        <f>D8/(Allgemein!$B$16*Allgemein!$B$15/1000)</f>
-        <v>311.90572754720387</v>
+        <f>D8/(Allgemein!$B$14*Allgemein!$B$12/1000)</f>
+        <v>629.48045859438275</v>
       </c>
       <c r="J8" s="18">
         <f>I8*Allgemein!$B$7</f>
-        <v>1135336.8482718221</v>
+        <v>2291308.8692835532</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D25" s="18"/>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1016</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="18">
+        <f>B9*Allgemein!$B$2</f>
+        <v>1107.44</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <f>D9/(Allgemein!$B$16*Allgemein!$B$15/1000)</f>
+        <v>311.90572754720387</v>
+      </c>
+      <c r="J9" s="18">
+        <f>I9*Allgemein!$B$7</f>
+        <v>1135336.8482718221</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="18">
+        <v>235000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="18"/>
+      <c r="E26" s="38"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2576,61 +3045,61 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2641,7 +3110,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
@@ -2685,7 +3154,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D3" s="18">
         <v>0</v>
@@ -2766,13 +3235,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="18">
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
@@ -2803,41 +3272,41 @@
         <v>21.818181818181817</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
       </c>
-      <c r="E6" s="47">
-        <v>0</v>
-      </c>
-      <c r="F6" s="47">
-        <v>0</v>
-      </c>
-      <c r="G6" s="47">
-        <v>0</v>
-      </c>
-      <c r="H6" s="47">
-        <v>0</v>
-      </c>
-      <c r="I6" s="47">
-        <v>0</v>
-      </c>
-      <c r="J6" s="47">
-        <v>0</v>
-      </c>
-      <c r="K6" s="47">
+      <c r="E6" s="43">
+        <v>0</v>
+      </c>
+      <c r="F6" s="43">
+        <v>0</v>
+      </c>
+      <c r="G6" s="43">
+        <v>0</v>
+      </c>
+      <c r="H6" s="43">
+        <v>0</v>
+      </c>
+      <c r="I6" s="43">
+        <v>0</v>
+      </c>
+      <c r="J6" s="43">
+        <v>0</v>
+      </c>
+      <c r="K6" s="43">
         <v>0</v>
       </c>
       <c r="L6" s="18">
@@ -2845,18 +3314,18 @@
         <v>24.442424242424249</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B7" s="18">
         <v>24.14</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D7" s="18">
         <f>24300000/B7</f>
@@ -2879,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="18">
-        <f>efficiency!B2*efficiency!C2</f>
+        <f>efficiency!C3*efficiency!D3</f>
         <v>274616640</v>
       </c>
       <c r="K7" s="18">
@@ -2891,18 +3360,18 @@
         <v>0.11107804278831422</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="B8" s="18">
         <v>24.14</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D8" s="18">
         <f>19300000/B8</f>
@@ -2925,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="18">
-        <f>efficiency!B3*efficiency!C3</f>
+        <f>efficiency!C4*efficiency!D4</f>
         <v>2637246720</v>
       </c>
       <c r="K8" s="18">
@@ -2937,12 +3406,12 @@
         <v>5.8299648826375096E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2958,11 +3427,14 @@
         <f>E9/(35*1000*1000)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="35"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="36"/>
-      <c r="M10" s="35"/>
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="M10" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2971,105 +3443,196 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE4D1B0-F1F9-1E40-B5E2-84D75BDB73F9}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37">
+        <f>B2/Allgemein!$B$12</f>
+        <v>0.30303030303030304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="18">
+        <v>11376000</v>
+      </c>
+      <c r="D3" s="18">
+        <v>24.14</v>
+      </c>
+      <c r="E3" s="18">
+        <v>37838929</v>
+      </c>
+      <c r="F3" s="18">
+        <f>E3/D3</f>
+        <v>1567478.4175642089</v>
+      </c>
+      <c r="G3" s="37">
+        <f>1-F3/C3</f>
+        <v>0.86221181280202108</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="18">
+        <v>160000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="18">
-        <v>11376000</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="C4" s="18">
+        <v>109248000</v>
+      </c>
+      <c r="D4" s="18">
         <v>24.14</v>
       </c>
-      <c r="D2" s="18">
-        <v>37838929</v>
-      </c>
-      <c r="E2" s="18">
-        <f>D2/C2</f>
-        <v>1567478.4175642089</v>
-      </c>
-      <c r="F2" s="40">
-        <f>1-E2/B2</f>
-        <v>0.86221181280202108</v>
-      </c>
-      <c r="G2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="18">
-        <v>109248000</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="E4" s="18">
+        <v>8570317</v>
+      </c>
+      <c r="F4" s="18">
+        <f>E4/D4</f>
+        <v>355025.55923777958</v>
+      </c>
+      <c r="G4" s="37">
+        <f>1-F4/C4</f>
+        <v>0.99675027863908006</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="18">
+        <v>160000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
         <v>24.14</v>
       </c>
-      <c r="D3" s="18">
-        <v>8570317</v>
-      </c>
-      <c r="E3" s="18">
-        <f>D3/C3</f>
-        <v>355025.55923777958</v>
-      </c>
-      <c r="F3" s="40">
-        <f>1-E3/B3</f>
-        <v>0.99675027863908006</v>
-      </c>
-      <c r="G3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18">
-        <v>24.14</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="I5" s="18">
+        <v>160000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>3.7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3089,49 +3652,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>72</v>
+        <v>112</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
-        <v>73</v>
+      <c r="B4" s="24" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
-        <v>74</v>
+      <c r="B5" s="24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3139,31 +3702,31 @@
         <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="F10">
         <v>8000</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3172,7 +3735,7 @@
         <v>14848000000</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3181,19 +3744,19 @@
         <v>14848000</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="E12">
         <v>189000</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G12">
         <v>136000</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3202,25 +3765,25 @@
         <v>49640000</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E13">
         <f>365*E12</f>
         <v>68985000</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="G13">
         <f>G12*365</f>
         <v>49640000</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <f>B13/3</f>
         <v>16546666.666666666</v>
       </c>
@@ -3234,7 +3797,7 @@
         <v>54937600</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3243,23 +3806,23 @@
         <v>54937.599999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="B21">
         <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3276,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB688AA-69C9-F548-BB05-A24A4E882F1A}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView zoomScale="159" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3288,15 +3851,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3304,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3312,7 +3875,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3320,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3328,7 +3891,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3336,7 +3899,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3344,16 +3907,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="21"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
@@ -3427,22 +3994,125 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF4E21F-9521-427B-9B87-75B05CEB0313}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>28/34</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="B4" s="47">
+        <f>6/34</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>1000*A4</f>
+        <v>823.52941176470586</v>
+      </c>
+      <c r="B6">
+        <f>1000*B4</f>
+        <v>176.47058823529412</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <f>176.47*33.33</f>
+        <v>5881.7451000000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <f>1500/5.88</f>
+        <v>255.10204081632654</v>
+      </c>
+      <c r="F13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aca6c290d7270e062501f87f2390e508">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3e4e919cbdb82cbbd1a44b9c8ca9704" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -3619,6 +4289,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3631,14 +4310,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3657,19 +4328,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88431C6C-680F-444E-B916-1A10DDB44452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10119661-5C17-1043-916F-7663CA170B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36560" yWindow="-7700" windowWidth="34040" windowHeight="20220" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1658,12 +1658,15 @@
         <v>23</v>
       </c>
       <c r="F5" s="26">
-        <v>68.900000000000006</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="G5" s="13">
         <v>20</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="26">
+        <f>1333*1000</f>
+        <v>1333000</v>
+      </c>
       <c r="I5" s="13" t="s">
         <v>24</v>
       </c>
@@ -1688,12 +1691,15 @@
         <v>23</v>
       </c>
       <c r="F6" s="26">
-        <v>48.41</v>
+        <v>30</v>
       </c>
       <c r="G6" s="12">
         <v>20</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="26">
+        <f>1462*1000</f>
+        <v>1462000</v>
+      </c>
       <c r="I6" s="13" t="s">
         <v>24</v>
       </c>
@@ -2561,7 +2567,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2879,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="18">
-        <f>B5/Allgemein!$B$12*1000</f>
+        <f>(B5/Allgemein!$B$12)*1000</f>
         <v>1090.9090909090908</v>
       </c>
       <c r="K5" t="s">
@@ -3045,7 +3051,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10119661-5C17-1043-916F-7663CA170B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E33701-9CA9-1E4E-A6D4-84CB8AD7FF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36560" yWindow="-7700" windowWidth="34040" windowHeight="20220" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2134,10 +2134,7 @@
       <c r="E20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="26">
-        <f>marginal_cost!L6</f>
-        <v>24.442424242424249</v>
-      </c>
+      <c r="F20" s="26"/>
       <c r="G20" s="12">
         <v>20</v>
       </c>
@@ -2169,10 +2166,7 @@
       <c r="E21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="26">
-        <f>marginal_cost!L5</f>
-        <v>21.818181818181817</v>
-      </c>
+      <c r="F21" s="26"/>
       <c r="G21" s="12">
         <v>25</v>
       </c>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E33701-9CA9-1E4E-A6D4-84CB8AD7FF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9FCD3D-383B-A843-92EA-5F7A38A13D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36560" yWindow="-7700" windowWidth="34040" windowHeight="20220" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="-34960" yWindow="-6300" windowWidth="29740" windowHeight="17260" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -42,8 +42,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0C704E41-3D06-4D88-89DC-39DBA7A2C449}</author>
+    <author>tc={B944F9CC-5851-4327-8D98-091D21D67D31}</author>
+    <author>tc={2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}</author>
+  </authors>
+  <commentList>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{0C704E41-3D06-4D88-89DC-39DBA7A2C449}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Muss noch aktualisiert werden</t>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="1" shapeId="0" xr:uid="{B944F9CC-5851-4327-8D98-091D21D67D31}">
+      <text>
+        <t xml:space="preserve">[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Muss noch aktualisiert werden
+</t>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="2" shapeId="0" xr:uid="{2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Muss noch aktualisiert werden</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="175">
   <si>
     <t>Inputs</t>
   </si>
@@ -123,15 +160,21 @@
     <t>Windkraft (Chile)</t>
   </si>
   <si>
+    <t>Entsalzung</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
     <t>PEM Elektrolyse</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
     <t>[2]</t>
   </si>
   <si>
@@ -150,6 +193,9 @@
     <t>Hydrierung</t>
   </si>
   <si>
+    <t>[10]</t>
+  </si>
+  <si>
     <t>GH2 Speicher</t>
   </si>
   <si>
@@ -168,6 +214,9 @@
     <t>Pipeline</t>
   </si>
   <si>
+    <t>[7]</t>
+  </si>
+  <si>
     <t>LH2 Schiff</t>
   </si>
   <si>
@@ -180,52 +229,55 @@
     <t>LOHC Schiff</t>
   </si>
   <si>
+    <t>Regasifizierung</t>
+  </si>
+  <si>
+    <t>NH3 Cracker</t>
+  </si>
+  <si>
+    <t>[10] [8]</t>
+  </si>
+  <si>
+    <t>Dehydrierung</t>
+  </si>
+  <si>
+    <t>Wert on Top</t>
+  </si>
+  <si>
+    <t>€/MWh H2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>€/MW H2</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Stoffliche Verluste!</t>
+  </si>
+  <si>
     <t>Transportation BOG</t>
   </si>
   <si>
     <t>%/day</t>
   </si>
   <si>
-    <t>Schiffsart</t>
-  </si>
-  <si>
-    <t>Schiffskosten crude vessel (LOHC)</t>
-  </si>
-  <si>
-    <t>€/per day</t>
-  </si>
-  <si>
     <t>Quelle</t>
   </si>
   <si>
-    <t>https://www.freightwaves.com/news/lng-shipping-rates-top-100000day-oil-tanker-rates-still-rising#:~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022</t>
-  </si>
-  <si>
-    <t>Schiffsgröße chemical tanker (NH3)</t>
-  </si>
-  <si>
-    <t>https://lloydslist.maritimeintelligence.informa.com/LL1141976/Odfjell-says-chemical-tanker-rates-at-highest-since-2007#:~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022</t>
-  </si>
-  <si>
-    <t>Schiffsgröße LNG tanker (LNG)</t>
-  </si>
-  <si>
-    <t>https://www.freightwaves.com/news/lng-shipping-rates-shooting-for-the-stars-at-500000-per-day#:~:text=LNG%20shipping%20rates%20'shooting%20for%20the%20stars'%20at%20%24500%2C000%20per%20day  zuletzt geprüft am 15.12.2022</t>
-  </si>
-  <si>
-    <t>Schiffsgröße CNG tanker (LH2, Methanol)</t>
-  </si>
-  <si>
     <t>LOHC (aus der Tankstelle) €/kWh</t>
   </si>
   <si>
     <t>https://gdch.app/article/energietraeger-wie-teuer-fortbewegung-ist-4116971</t>
   </si>
   <si>
-    <t>Wie hoch ist der Wirkungsgrad eines LOHC Speichers?</t>
-  </si>
-  <si>
-    <t>Der Wirkungsgrad wird vor allem durch die elektrochemischen Bauteile bestimmt. Elektrolyse 70 % (Strom zu Wasserstoff) Brennstoffzelle 50 % (Wasserstoff zu Strom). Damit ergibt sich ein maximaler Wirkungsgrad von 35 % Strom zu Strom. Die Abwärme aus der Beladung lässt sich technisch noch nutzen, zugleich muss aber auch die Wärme für die Entladung bereitgestellt werden. Je nachdem, wie diese Bereitstellung umgesetzt wird, verändert sich auch der Wirkungsgrad. Unter Berücksichtigung der Energiebereitstellung für die Entladung ist es derzeit möglich, 20-25 % des eingespeicherten Stroms wieder zu Strom umzusetzen.</t>
+    <t>production</t>
+  </si>
+  <si>
+    <t>LH2 €/kg</t>
   </si>
   <si>
     <t>Währung</t>
@@ -360,6 +412,12 @@
     <t>Fahrten/a</t>
   </si>
   <si>
+    <t>3,7 kWh/m3</t>
+  </si>
+  <si>
+    <t>spez Strombedarf [kWh/kg]</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -372,6 +430,12 @@
     <t>boiloff/trip</t>
   </si>
   <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
     <t>Meerwasserentsalzung</t>
   </si>
   <si>
@@ -474,78 +538,30 @@
     <t>Mohammed Al-Breiki, Yusuf Bicer: Comparative cost assessment of sustainable energy carriers produced from natural gas accounting for boil-off gas and social cost of carbon. In: Energy Reports (2020)</t>
   </si>
   <si>
-    <t>LH2 €/kg</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>Entsalzung</t>
-  </si>
-  <si>
-    <t>kWh/m3</t>
-  </si>
-  <si>
-    <t>spez Strombedarf [kWh/kg]</t>
-  </si>
-  <si>
-    <t>kwh/kg</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>Dehydrierung</t>
-  </si>
-  <si>
-    <t>Regasifizierung</t>
-  </si>
-  <si>
-    <t>NH3 Cracker</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Stoffliche Verluste!</t>
-  </si>
-  <si>
-    <t>LOHC</t>
-  </si>
-  <si>
-    <t>Sunshine</t>
-  </si>
-  <si>
-    <t>Wert on Top</t>
-  </si>
-  <si>
-    <t>1000-2000euro/t hn3</t>
-  </si>
-  <si>
-    <t>€/MW H2</t>
-  </si>
-  <si>
-    <t>€/MWh H2</t>
+    <t>Jaro Jens, Anthony Wang, Kees van der Leun, Daan Peters, Maud Buseman (2021): Extending the European Hydrogen Backbone</t>
+  </si>
+  <si>
+    <t>AMMONIA ENERGY ASSOCIATION: [https://www.ammoniaenergy.org/articles/round-trip-efficiency-of-ammonia-as-a-renewable-energy-transportation-media/#:~:text=In%20this%20study%2C%20%E2%80%9Cthe%20net,to%201.13%20MWh%2Fton%20ammonia.]</t>
+  </si>
+  <si>
+    <t>The Cost of Desalination: [https://www.advisian.com/en/global-perspectives/the-cost-of-desalination]</t>
+  </si>
+  <si>
+    <t>Study on the Import of Liquid Renewable Energy: technology Cost Assessment  https://www.gie.eu/wp-content/uploads/filr/2598/DNV-GL_Study-GLE-Technologies-and-costs-analysis-on-imports-of-liquid-renewable-energy.pdf</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>3H2</t>
+  </si>
+  <si>
+    <t>2NH3</t>
   </si>
   <si>
     <t>g/mol</t>
   </si>
   <si>
-    <t>3H2</t>
-  </si>
-  <si>
-    <t>2NH3</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
     <t>% Massenanteil</t>
   </si>
   <si>
@@ -570,25 +586,38 @@
     <t>Euro/MwH2</t>
   </si>
   <si>
-    <t>255Euro/MWh H2?</t>
-  </si>
-  <si>
-    <t>Jaro Jens, Anthony Wang, Kees van der Leun, Daan Peters, Maud Buseman (2021): Extending the European Hydrogen Backbone</t>
-  </si>
-  <si>
-    <t>[7]</t>
+    <t>NH3 Erzeugung</t>
+  </si>
+  <si>
+    <t>was das für wyldes bild</t>
+  </si>
+  <si>
+    <t>$/m4</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>LOHC (Material kauf in $)</t>
+  </si>
+  <si>
+    <t>invest*a</t>
+  </si>
+  <si>
+    <t>Charles Johnston, Muhammad Haider Ali Khan, Rose Amal, Rahman Daiyan, Iain MacGill, Shipping the sunshine: An open-source model for costing renewable hydrogen transport from Australia, International Journal of Hydrogen Energy, Volume 47, Issue 47, 2022, Pages 20362-20377, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2022.04.156.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -681,13 +710,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,26 +748,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -864,81 +882,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -946,7 +889,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1007,9 +950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1021,16 +961,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,8 +973,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1051,11 +982,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,6 +1001,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1073,6 +1012,9 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1153,9 +1095,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1175,14 +1114,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>261471</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>37353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>472563</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>2032</xdr:rowOff>
+      <xdr:colOff>476373</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>2802382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1215,14 +1154,122 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>256068</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>444555</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 2" descr="Elon Musk: Der Milliardär schläft bei Freunden, weil er ...">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E38745-8C6E-C768-B4DA-6F763CE19E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:biLevel thresh="75000"/>
+          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:artisticPhotocopy trans="37000" detail="4"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20034450" y="100853"/>
+          <a:ext cx="3422542" cy="4123654"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 44424"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="1130300">
+            <a:srgbClr val="F40000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:glow>
+          <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="20000"/>
+            </a:prstClr>
+          </a:outerShdw>
+          <a:reflection blurRad="228600" stA="70000" endPos="69000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="perspectiveRelaxed" fov="3600000">
+            <a:rot lat="19800000" lon="1800000" rev="20400000"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d contourW="6350" prstMaterial="matte">
+          <a:bevelT w="101600" h="101600"/>
+          <a:bevelB prst="relaxedInset"/>
+          <a:contourClr>
+            <a:srgbClr val="969696"/>
+          </a:contourClr>
+        </a:sp3d>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mathis Stange (mstange)" id="{5898AE89-8C31-4315-8551-1A557E33296F}" userId="Mathis Stange (mstange)" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}" name="Tabelle1" displayName="Tabelle1" ref="A2:B28" totalsRowShown="0">
   <autoFilter ref="A2:B28" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9C8ABFA1-DCBA-9944-8549-EEC7F214E37A}" name="Quelle "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1524,37 +1571,53 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I11" dT="2023-01-21T10:54:16.97" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{0C704E41-3D06-4D88-89DC-39DBA7A2C449}">
+    <text>Muss noch aktualisiert werden</text>
+  </threadedComment>
+  <threadedComment ref="I12" dT="2023-01-21T10:53:47.83" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{B944F9CC-5851-4327-8D98-091D21D67D31}">
+    <text xml:space="preserve">Muss noch aktualisiert werden
+</text>
+  </threadedComment>
+  <threadedComment ref="I23" dT="2023-01-21T10:55:43.33" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}">
+    <text>Muss noch aktualisiert werden</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14DACE-E658-6948-9904-3793876CEF37}">
-  <dimension ref="A1:M63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14DACE-E658-6948-9904-3793876CEF37}">
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="9" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="20.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -1583,33 +1646,33 @@
       <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1657,14 +1720,13 @@
       <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="26">
-        <v>38.799999999999997</v>
+      <c r="F5" s="25">
+        <v>38.299999999999997</v>
       </c>
       <c r="G5" s="13">
         <v>20</v>
       </c>
-      <c r="H5" s="26">
-        <f>1333*1000</f>
+      <c r="H5" s="25">
         <v>1333000</v>
       </c>
       <c r="I5" s="13" t="s">
@@ -1690,14 +1752,13 @@
       <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>30</v>
       </c>
       <c r="G6" s="12">
         <v>20</v>
       </c>
-      <c r="H6" s="26">
-        <f>1462*1000</f>
+      <c r="H6" s="25">
         <v>1462000</v>
       </c>
       <c r="I6" s="13" t="s">
@@ -1709,7 +1770,7 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
@@ -1723,17 +1784,30 @@
       <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="F7" s="25">
+        <f>marginal_cost!L12</f>
+        <v>8.160773313723205E-3</v>
+      </c>
+      <c r="G7" s="12">
+        <v>20</v>
+      </c>
+      <c r="H7" s="25">
+        <f>capital_cost!J12</f>
+        <v>1213.4979686043803</v>
+      </c>
+      <c r="I7" s="28">
+        <v>1</v>
+      </c>
       <c r="J7" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -1747,7 +1821,7 @@
       <c r="E8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <f>marginal_cost!L2</f>
         <v>95.226003047232098</v>
       </c>
@@ -1758,7 +1832,7 @@
         <f>capital_cost!J2</f>
         <v>720000</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="28">
         <f>Allgemein!$B$12/marginal_cost!F2</f>
         <v>0.59891107078039929</v>
       </c>
@@ -1766,12 +1840,12 @@
         <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
@@ -1785,7 +1859,7 @@
       <c r="E9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <f>marginal_cost!L3</f>
         <v>120.83131947800869</v>
       </c>
@@ -1796,7 +1870,7 @@
         <f>capital_cost!J3</f>
         <v>630000</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="28">
         <f>Allgemein!$B$12/marginal_cost!F3</f>
         <v>0.61797752808988771</v>
       </c>
@@ -1804,12 +1878,12 @@
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -1823,7 +1897,7 @@
       <c r="E10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <f>marginal_cost!L4</f>
         <v>6.0606060606060606</v>
       </c>
@@ -1834,19 +1908,19 @@
         <f>capital_cost!J4</f>
         <v>3296969.6969696968</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="28">
         <v>1</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -1860,17 +1934,25 @@
       <c r="E11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>20</v>
+      </c>
+      <c r="H11" s="25">
+        <v>1212000</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.92</v>
+      </c>
       <c r="J11" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
@@ -1884,28 +1966,31 @@
       <c r="E12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="26">
-        <v>1325</v>
-      </c>
-      <c r="G12" s="26">
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
         <v>20</v>
       </c>
-      <c r="H12" s="26">
-        <v>53000</v>
-      </c>
-      <c r="I12" s="26">
-        <v>0.99</v>
+      <c r="H12" s="25">
+        <v>79500</v>
+      </c>
+      <c r="I12" s="28">
+        <v>0.7</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>23</v>
@@ -1916,20 +2001,31 @@
       <c r="E13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="13" t="s">
+      <c r="F13" s="25">
+        <f>marginal_cost!L6</f>
+        <v>24.442424242424249</v>
+      </c>
+      <c r="G13" s="12">
+        <v>20</v>
+      </c>
+      <c r="H13" s="19">
+        <f>capital_cost!J6</f>
+        <v>1222.1212121212125</v>
+      </c>
+      <c r="I13" s="47" t="s">
         <v>24</v>
       </c>
+      <c r="J13" s="28">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
-        <v>153</v>
+      <c r="A14" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>23</v>
@@ -1940,20 +2036,31 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="13" t="s">
+      <c r="F14" s="25">
+        <f>marginal_cost!L5</f>
+        <v>21.818181818181817</v>
+      </c>
+      <c r="G14" s="12">
+        <v>25</v>
+      </c>
+      <c r="H14" s="19">
+        <f>capital_cost!J5</f>
+        <v>1090.9090909090908</v>
+      </c>
+      <c r="I14" s="47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="J14" s="28">
+        <f>0.002*24</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>23</v>
@@ -1964,28 +2071,31 @@
       <c r="E15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="26">
-        <v>3400</v>
-      </c>
-      <c r="G15" s="26">
+      <c r="F15" s="25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G15" s="12">
         <v>20</v>
       </c>
-      <c r="H15" s="26">
-        <v>136000</v>
-      </c>
-      <c r="I15" s="26">
-        <v>0.9</v>
-      </c>
-      <c r="J15" s="13" t="s">
+      <c r="H15" s="19">
+        <v>255</v>
+      </c>
+      <c r="I15" s="47" t="s">
         <v>24</v>
+      </c>
+      <c r="J15" s="28">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>23</v>
@@ -1996,24 +2106,28 @@
       <c r="E16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="26">
-        <v>3.9</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="25">
+        <v>1.673</v>
+      </c>
+      <c r="G16" s="12">
+        <v>30</v>
+      </c>
+      <c r="H16" s="19">
+        <v>239</v>
+      </c>
+      <c r="I16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13" t="s">
-        <v>24</v>
+      <c r="J16" s="28">
+        <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
@@ -2027,103 +2141,106 @@
       <c r="E17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
+        <v>3.9</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="25">
         <f>marginal_cost!L7</f>
         <v>0.11107804278831422</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>20</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H18" s="31">
         <f>capital_cost!J8</f>
         <v>2291308.8692835532</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I18" s="28">
         <f>efficiency!G3</f>
         <v>0.86221181280202108</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="K18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F19" s="25">
         <f>marginal_cost!L8</f>
         <v>5.8299648826375096E-2</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>20</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H19" s="31">
         <f>capital_cost!J9</f>
         <v>1135336.8482718221</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I19" s="28">
         <f>efficiency!G4</f>
         <v>0.99675027863908006</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="36">
-        <v>1</v>
-      </c>
       <c r="J19" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>23</v>
@@ -2134,28 +2251,30 @@
       <c r="E20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="12">
+      <c r="F20" s="25">
+        <f>marginal_cost!L9</f>
+        <v>1.5972610857142858E-2</v>
+      </c>
+      <c r="G20" s="13">
         <v>20</v>
       </c>
-      <c r="H20" s="19">
-        <f>capital_cost!J6</f>
-        <v>1222.1212121212125</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="40">
+        <f>capital_cost!J10</f>
+        <v>453967.12067955482</v>
+      </c>
+      <c r="I20" s="28">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="36">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="K20" s="44"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>23</v>
@@ -2166,28 +2285,28 @@
       <c r="E21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="12">
-        <v>25</v>
-      </c>
-      <c r="H21" s="19">
-        <f>capital_cost!J5</f>
-        <v>1090.9090909090908</v>
-      </c>
-      <c r="I21" s="13" t="s">
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <v>20</v>
+      </c>
+      <c r="H21" s="25">
+        <v>409500</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0.997</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="36">
-        <f>0.002*24</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
+    </row>
+    <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>23</v>
@@ -2198,31 +2317,33 @@
       <c r="E22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="26">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G22" s="12">
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
         <v>20</v>
       </c>
-      <c r="H22" s="19">
-        <v>255</v>
-      </c>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="25">
+        <f>capital_cost!J11*(1+marginal_cost!B10*G22)</f>
+        <v>376000</v>
+      </c>
+      <c r="I22" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="36">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="K22" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>23</v>
@@ -2233,29 +2354,58 @@
       <c r="E23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="26">
-        <v>1.673</v>
-      </c>
-      <c r="G23" s="12">
-        <v>30</v>
-      </c>
-      <c r="H23" s="19">
-        <v>239</v>
-      </c>
-      <c r="I23" s="13" t="s">
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <v>20</v>
+      </c>
+      <c r="H23" s="25">
+        <v>204000</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0.67</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
-        <v>157</v>
+      <c r="K23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
+      <c r="I27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="B28" s="3"/>
       <c r="E28" s="13" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>24</v>
@@ -2263,8 +2413,8 @@
       <c r="G28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="26" t="s">
-        <v>158</v>
+      <c r="H28" s="25">
+        <v>46360000</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>24</v>
@@ -2273,414 +2423,340 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
-      <c r="I30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="16">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="16">
         <v>0.17</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D31" s="16">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E31" s="16">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="F34" s="16">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17">
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
         <v>0.2</v>
       </c>
     </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="27"/>
+    </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="41">
-        <v>28303.5</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="41">
-        <v>25664.67</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>53</v>
-      </c>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="41">
-        <v>295299.84999999998</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="42">
-        <v>160386.5</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="A39" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1">
         <v>0.27</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>58</v>
-      </c>
+      <c r="C39" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
-        <v>143</v>
+      <c r="A60" s="24" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E46:G60"/>
+    <mergeCell ref="E43:G57"/>
   </mergeCells>
-  <conditionalFormatting sqref="C16:D23 C5:J15 F28:J28 F16:J23">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="n.v.">
+  <conditionalFormatting sqref="C13:D20 F28:J28 G7:G16 C5:J12 F13:J23">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="n.v.">
       <formula>NOT(ISERROR(SEARCH("n.v.",C5)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="7" priority="10">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(C5))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:J28 C5:J23">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Simulation">
+  <conditionalFormatting sqref="E28:J28 E21:J23 C5:J20">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Simulation">
       <formula>NOT(ISERROR(SEARCH("Simulation",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:J28 F5:J23">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(F5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D15">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="n.v.">
-      <formula>NOT(ISERROR(SEARCH("n.v.",C13)))</formula>
+  <conditionalFormatting sqref="C21:D23">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="n.v.">
+      <formula>NOT(ISERROR(SEARCH("n.v.",C21)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(C13))=0</formula>
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(C21))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",C13)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D15">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Simulation">
-      <formula>NOT(ISERROR(SEARCH("Simulation",C13)))</formula>
+  <conditionalFormatting sqref="C21:D23">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Simulation">
+      <formula>NOT(ISERROR(SEARCH("Simulation",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{243E730A-2DC7-443B-AF2E-441B3880AB0B}"/>
-    <hyperlink ref="E40" r:id="rId2" location=":~:text=In%20full%2Dyear%202021%2C%20Clarksons,is%20around%20%2430%2C000%20per%20day. zuletzt geprüft am 15.12.2022" xr:uid="{56C96019-A3D3-46BE-A8A4-AABF719B84DF}"/>
-    <hyperlink ref="E38" r:id="rId3" location=":~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" display="https://lloydslist.maritimeintelligence.informa.com/LL1141976/Odfjell-says-chemical-tanker-rates-at-highest-since-2007#:~:text=Odfjell%20says%20chemical%20tanker%20market%20remains%20challenging&amp;text=TCE%20per%20day%20came%20in,at%20%2422%2C095%2C%20the%20company%20added. zuletzt geprüft am 15.12.2022" xr:uid="{7BE54115-5FC6-4DD9-A46D-94D61CADAC4A}"/>
-    <hyperlink ref="E39" r:id="rId4" location=":~:text=LNG%20shipping%20rates%20'shooting%20for%20the%20stars'%20at%20%24500%2C000%20per%20day  zuletzt geprüft am 15.12.2022" xr:uid="{D43FADDF-AD1C-43D6-A4B3-B26A3A636EBD}"/>
-    <hyperlink ref="C42" r:id="rId5" xr:uid="{77646C58-65A7-44BC-90AB-A20D7EC7683E}"/>
+    <hyperlink ref="C39" r:id="rId1" xr:uid="{77646C58-65A7-44BC-90AB-A20D7EC7683E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21831451-8AFD-2242-90C2-49C48CD5C077}">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>61</v>
+      <c r="A1" s="32" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <f>24*15+4</f>
         <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <f>B6*B5</f>
         <v>3640</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
-        <v>71</v>
+      <c r="A11" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>71.099999999999994</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B15">
         <v>5.2</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>682.8</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2690,10 +2766,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA457E3-0315-E74D-BF3E-7E7A6A01568D}">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2702,7 +2779,7 @@
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
@@ -2711,39 +2788,39 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -2774,12 +2851,12 @@
         <v>720000</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
@@ -2810,12 +2887,12 @@
         <v>630000</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -2847,18 +2924,18 @@
         <v>3296969.6969696968</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B5" s="18">
         <v>36</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
@@ -2879,22 +2956,22 @@
         <v>0</v>
       </c>
       <c r="J5" s="18">
-        <f>(B5/Allgemein!$B$12)*1000</f>
+        <f>B5/Allgemein!$B$12*1000</f>
         <v>1090.9090909090908</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="18">
         <v>37</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -2919,12 +2996,12 @@
         <v>1222.1212121212125</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2938,13 +3015,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" s="18">
         <v>1355</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D8" s="18">
         <f>B8*Allgemein!$B$2</f>
@@ -2971,18 +3048,18 @@
         <v>2291308.8692835532</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B9" s="18">
         <v>1016</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D9" s="18">
         <f>B9*Allgemein!$B$2</f>
@@ -3009,32 +3086,77 @@
         <v>1135336.8482718221</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="B10" s="30">
+        <f>65000000/efficiency!I5</f>
+        <v>406.25</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="18">
+        <f>B10*Allgemein!$B$2</f>
+        <v>442.81250000000006</v>
+      </c>
+      <c r="I10" s="18">
+        <f>D10/(Allgemein!$B$16*Allgemein!$B$15/1000)</f>
+        <v>124.71624194493265</v>
+      </c>
+      <c r="J10" s="18">
+        <f>I10*Allgemein!$B$7</f>
+        <v>453967.12067955482</v>
+      </c>
+      <c r="K10" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="J11" s="18">
         <v>235000</v>
       </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="36">
+        <v>66666666</v>
+      </c>
+      <c r="J12" s="36">
+        <f>E12/Chile!B18</f>
+        <v>1213.4979686043803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="39">
+        <v>808000</v>
+      </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="18"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3042,75 +3164,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428944FC-EF93-D147-9510-9BB668504AEF}">
-  <dimension ref="A1:M10"/>
+  <sheetPr codeName="Tabelle4"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="29.33203125" customWidth="1"/>
+    <col min="3" max="4" width="29.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="18">
         <v>15</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
@@ -3143,18 +3266,18 @@
         <v>95.226003047232098</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="18">
         <v>20</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D3" s="18">
         <v>0</v>
@@ -3187,12 +3310,12 @@
         <v>120.83131947800869</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -3230,18 +3353,18 @@
         <v>6.0606060606060606</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B5" s="18">
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
@@ -3272,41 +3395,41 @@
         <v>21.818181818181817</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
       </c>
-      <c r="E6" s="43">
-        <v>0</v>
-      </c>
-      <c r="F6" s="43">
-        <v>0</v>
-      </c>
-      <c r="G6" s="43">
-        <v>0</v>
-      </c>
-      <c r="H6" s="43">
-        <v>0</v>
-      </c>
-      <c r="I6" s="43">
-        <v>0</v>
-      </c>
-      <c r="J6" s="43">
-        <v>0</v>
-      </c>
-      <c r="K6" s="43">
+      <c r="E6" s="33">
+        <v>0</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0</v>
+      </c>
+      <c r="I6" s="33">
+        <v>0</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0</v>
+      </c>
+      <c r="K6" s="33">
         <v>0</v>
       </c>
       <c r="L6" s="18">
@@ -3314,18 +3437,18 @@
         <v>24.442424242424249</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B7" s="18">
         <v>24.14</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D7" s="18">
         <f>24300000/B7</f>
@@ -3360,18 +3483,18 @@
         <v>0.11107804278831422</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B8" s="18">
         <v>24.14</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D8" s="18">
         <f>19300000/B8</f>
@@ -3406,17 +3529,26 @@
         <v>5.8299648826375096E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="B9" s="18">
+        <v>24.14</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="18">
+        <v>512882</v>
+      </c>
+      <c r="E9" s="18">
+        <f>D9*Allgemein!$B$2</f>
+        <v>559041.38</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -3425,16 +3557,55 @@
       <c r="K9" s="18"/>
       <c r="L9" s="18">
         <f>E9/(35*1000*1000)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="34"/>
+        <v>1.5972610857142858E-2</v>
+      </c>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="M10" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="B10" s="43">
+        <v>0.03</v>
+      </c>
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="43">
+        <v>0.03</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11" s="38">
+        <f>capital_cost!$J$5*B5*0.01</f>
+        <v>21.818181818181817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="18">
+        <f>8966666/Gesamt!G7</f>
+        <v>448333.3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="37">
+        <f>E12/Chile!B17</f>
+        <v>8.160773313723205E-3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3443,10 +3614,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE4D1B0-F1F9-1E40-B5E2-84D75BDB73F9}">
-  <dimension ref="A1:N14"/>
+  <sheetPr codeName="Tabelle5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3464,30 +3636,30 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -3504,14 +3676,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="29">
         <f>B2/Allgemein!$B$12</f>
         <v>0.30303030303030304</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" s="18">
         <v>11376000</v>
@@ -3526,29 +3698,29 @@
         <f>E3/D3</f>
         <v>1567478.4175642089</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="29">
         <f>1-F3/C3</f>
         <v>0.86221181280202108</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I3" s="18">
         <v>160000</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="L3" s="18"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C4" s="18">
         <v>109248000</v>
@@ -3563,26 +3735,26 @@
         <f>E4/D4</f>
         <v>355025.55923777958</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="29">
         <f>1-F4/C4</f>
         <v>0.99675027863908006</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I4" s="18">
         <v>160000</v>
       </c>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="K4" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18">
@@ -3594,44 +3766,15 @@
         <v>160000</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="K5" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C8">
-        <v>3.7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E14">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3641,60 +3784,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161CAFB3-6641-4214-A1BC-4CB4769BA3D9}">
+  <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>113</v>
+        <v>121</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
-        <v>114</v>
+      <c r="B4" s="23" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
-        <v>115</v>
+      <c r="B5" s="23" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3702,31 +3848,31 @@
         <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D10">
         <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F10">
         <v>8000</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3735,7 +3881,7 @@
         <v>14848000000</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3744,19 +3890,19 @@
         <v>14848000</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E12">
         <v>189000</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G12">
         <v>136000</v>
       </c>
       <c r="H12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3765,25 +3911,25 @@
         <v>49640000</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E13">
         <f>365*E12</f>
         <v>68985000</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G13">
         <f>G12*365</f>
         <v>49640000</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <f>B13/3</f>
         <v>16546666.666666666</v>
       </c>
@@ -3797,7 +3943,7 @@
         <v>54937600</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3806,23 +3952,23 @@
         <v>54937.599999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B21">
         <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3837,29 +3983,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB688AA-69C9-F548-BB05-A24A4E882F1A}">
+  <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="144.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="144.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3867,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3875,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3883,7 +4030,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3891,7 +4038,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3899,7 +4046,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3907,7 +4054,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3915,24 +4062,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="21"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="21"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="21"/>
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
@@ -3994,32 +4157,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF4E21F-9521-427B-9B87-75B05CEB0313}">
+  <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4033,7 +4196,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4041,17 +4204,17 @@
         <f>28/34</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4">
         <f>6/34</f>
         <v>0.17647058823529413</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4067,20 +4230,20 @@
         <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4089,12 +4252,12 @@
         <v>5881.7451000000001</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4103,7 +4266,7 @@
         <v>255.10204081632654</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4339,15 +4502,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9FCD3D-383B-A843-92EA-5F7A38A13D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B996079-8E7E-A14D-BEBA-1B87DE65D13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34960" yWindow="-6300" windowWidth="29740" windowHeight="17260" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2001,10 +2001,7 @@
       <c r="E13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="25">
-        <f>marginal_cost!L6</f>
-        <v>24.442424242424249</v>
-      </c>
+      <c r="F13" s="25"/>
       <c r="G13" s="12">
         <v>20</v>
       </c>
@@ -2036,10 +2033,7 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="25">
-        <f>marginal_cost!L5</f>
-        <v>21.818181818181817</v>
-      </c>
+      <c r="F14" s="25"/>
       <c r="G14" s="12">
         <v>25</v>
       </c>
@@ -2071,9 +2065,7 @@
       <c r="E15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="25">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="F15" s="25"/>
       <c r="G15" s="12">
         <v>20</v>
       </c>
@@ -2106,9 +2098,7 @@
       <c r="E16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="25">
-        <v>1.673</v>
-      </c>
+      <c r="F16" s="25"/>
       <c r="G16" s="12">
         <v>30</v>
       </c>
@@ -3167,8 +3157,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B996079-8E7E-A14D-BEBA-1B87DE65D13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2D95F0-EE43-B543-9893-FA8BAF42B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34960" yWindow="-6300" windowWidth="29740" windowHeight="17260" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="-34960" yWindow="-6300" windowWidth="29740" windowHeight="17260" activeTab="3" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -1591,7 +1591,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="F8" s="25">
         <f>marginal_cost!L2</f>
-        <v>95.226003047232098</v>
+        <v>2.88563645597673</v>
       </c>
       <c r="G8" s="12">
         <v>10</v>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F9" s="25">
         <f>marginal_cost!L3</f>
-        <v>120.83131947800869</v>
+        <v>3.6615551356972333</v>
       </c>
       <c r="G9" s="12">
         <v>10</v>
@@ -3157,8 +3157,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3252,8 +3252,8 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <f>E2/J2*1000</f>
-        <v>95.226003047232098</v>
+        <f>E2/J2*1000/Allgemein!$B$12</f>
+        <v>2.88563645597673</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -3296,8 +3296,8 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f>E3/J3*1000</f>
-        <v>120.83131947800869</v>
+        <f>E3/J3*1000/Allgemein!$B$12</f>
+        <v>3.6615551356972333</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2D95F0-EE43-B543-9893-FA8BAF42B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2343B3-29A9-0945-9C74-92811E86F96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34960" yWindow="-6300" windowWidth="29740" windowHeight="17260" activeTab="3" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17260" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="182">
   <si>
     <t>Inputs</t>
   </si>
@@ -605,6 +605,27 @@
   </si>
   <si>
     <t>Charles Johnston, Muhammad Haider Ali Khan, Rose Amal, Rahman Daiyan, Iain MacGill, Shipping the sunshine: An open-source model for costing renewable hydrogen transport from Australia, International Journal of Hydrogen Energy, Volume 47, Issue 47, 2022, Pages 20362-20377, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2022.04.156.</t>
+  </si>
+  <si>
+    <t>Stromspeicher</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Land-Based Wind - Class 5, 2025, Advanced Scenario</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Utility-Scale PV - Class 5, 2025, Advanced Scenario</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Utility-Scale Battery Storage - 4 Hr, 2025, Advanced Scenario</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[14</t>
   </si>
 </sst>
 </file>
@@ -614,8 +635,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -889,7 +910,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -982,8 +1003,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -992,6 +1013,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,8 +1025,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1591,8 +1615,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="162" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1606,18 +1630,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -1721,19 +1745,24 @@
         <v>23</v>
       </c>
       <c r="F5" s="25">
-        <v>38.299999999999997</v>
+        <f>Allgemein!$B$2*24.883</f>
+        <v>27.12247</v>
       </c>
       <c r="G5" s="13">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" s="25">
-        <v>1333000</v>
+        <f>Allgemein!$B$2*922225</f>
+        <v>1005225.2500000001</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,19 +1782,24 @@
         <v>23</v>
       </c>
       <c r="F6" s="25">
+        <f>Allgemein!$B$2*23.215</f>
+        <v>25.304350000000003</v>
+      </c>
+      <c r="G6" s="12">
         <v>30</v>
       </c>
-      <c r="G6" s="12">
-        <v>20</v>
-      </c>
       <c r="H6" s="25">
-        <v>1462000</v>
+        <f>Allgemein!$B$2*1081000</f>
+        <v>1178290</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1823,7 +1857,7 @@
       </c>
       <c r="F8" s="25">
         <f>marginal_cost!L2</f>
-        <v>2.88563645597673</v>
+        <v>95.226003047232098</v>
       </c>
       <c r="G8" s="12">
         <v>10</v>
@@ -1861,7 +1895,7 @@
       </c>
       <c r="F9" s="25">
         <f>marginal_cost!L3</f>
-        <v>3.6615551356972333</v>
+        <v>120.83131947800869</v>
       </c>
       <c r="G9" s="12">
         <v>10</v>
@@ -1987,7 +2021,7 @@
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>39</v>
@@ -2001,21 +2035,25 @@
       <c r="E13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
       <c r="G13" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H13" s="19">
-        <f>capital_cost!J6</f>
-        <v>1222.1212121212125</v>
-      </c>
-      <c r="I13" s="47" t="s">
+        <f>Allgemein!$B$2*1005.201</f>
+        <v>1095.6690900000001</v>
+      </c>
+      <c r="I13" s="44" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="28">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="K13" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -2033,7 +2071,9 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
       <c r="G14" s="12">
         <v>25</v>
       </c>
@@ -2041,7 +2081,7 @@
         <f>capital_cost!J5</f>
         <v>1090.9090909090908</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="44" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="28">
@@ -2065,14 +2105,16 @@
       <c r="E15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
       <c r="G15" s="12">
         <v>20</v>
       </c>
       <c r="H15" s="19">
         <v>255</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="44" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="28">
@@ -2098,14 +2140,16 @@
       <c r="E16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
       <c r="G16" s="12">
         <v>30</v>
       </c>
       <c r="H16" s="19">
         <v>239</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="44" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="28">
@@ -2134,11 +2178,15 @@
       <c r="F17" s="25">
         <v>3.9</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
       <c r="J17" s="13" t="s">
         <v>24</v>
       </c>
@@ -2485,79 +2533,79 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
@@ -3157,8 +3205,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3252,8 +3300,8 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <f>E2/J2*1000/Allgemein!$B$12</f>
-        <v>2.88563645597673</v>
+        <f>E2/J2*1000</f>
+        <v>95.226003047232098</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -3296,8 +3344,8 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f>E3/J3*1000/Allgemein!$B$12</f>
-        <v>3.6615551356972333</v>
+        <f>E3/J3*1000</f>
+        <v>120.83131947800869</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
@@ -3977,7 +4025,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4087,16 +4135,29 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="21"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="21"/>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
@@ -4146,9 +4207,14 @@
       <c r="B28" s="21"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{8920627B-9616-9542-9721-F5D1E78C6EF8}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{2B446E6B-C680-204B-A2EE-DC131DF06DD3}"/>
+    <hyperlink ref="B16" r:id="rId3" display="National Renewable Energy Laboratory (NREL): Utility-Scale Battery Storage - Class 5, 2025, Advanced Scenario" xr:uid="{EF559752-695D-E74B-A6F7-F180E9992931}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4443,15 +4509,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
@@ -4460,6 +4517,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4482,26 +4548,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE2343B3-29A9-0945-9C74-92811E86F96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28A9CF27-02DA-DE4E-904A-52343C208145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17260" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17260" activeTab="3" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -1615,8 +1615,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="162" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F8" s="25">
         <f>marginal_cost!L2</f>
-        <v>95.226003047232098</v>
+        <v>2.88563645597673</v>
       </c>
       <c r="G8" s="12">
         <v>10</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="F9" s="25">
         <f>marginal_cost!L3</f>
-        <v>120.83131947800869</v>
+        <v>3.6615551356972333</v>
       </c>
       <c r="G9" s="12">
         <v>10</v>
@@ -3205,8 +3205,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3300,8 +3300,8 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <f>E2/J2*1000</f>
-        <v>95.226003047232098</v>
+        <f>E2/J2*1000/Allgemein!$B$12</f>
+        <v>2.88563645597673</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
@@ -3344,8 +3344,8 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f>E3/J3*1000</f>
-        <v>120.83131947800869</v>
+        <f>E3/J3*1000/Allgemein!$B$12</f>
+        <v>3.6615551356972333</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28A9CF27-02DA-DE4E-904A-52343C208145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED5AAE-E8CE-0744-A5B7-CBED64ECBF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17260" activeTab="3" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17260" activeTab="4" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -3205,8 +3205,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3655,8 +3655,8 @@
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3715,8 +3715,8 @@
         <v>0</v>
       </c>
       <c r="G2" s="29">
-        <f>B2/Allgemein!$B$12</f>
-        <v>0.30303030303030304</v>
+        <f>Allgemein!$B$12/(B2+Allgemein!$B$12)</f>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED5AAE-E8CE-0744-A5B7-CBED64ECBF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C84DAD-11D5-7C49-9530-15192F11C2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17260" activeTab="4" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17260" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -1615,8 +1615,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1943,7 +1943,8 @@
         <v>3296969.6969696968</v>
       </c>
       <c r="I10" s="28">
-        <v>1</v>
+        <f>efficiency!$G$2</f>
+        <v>0.76744186046511631</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>24</v>
@@ -3655,7 +3656,7 @@
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C84DAD-11D5-7C49-9530-15192F11C2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6388C5-3CAE-2845-97E1-7B962F126085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="17260" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17260" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -1016,6 +1016,9 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,9 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1616,7 +1616,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1630,18 +1630,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -2086,8 +2086,8 @@
         <v>24</v>
       </c>
       <c r="J14" s="28">
-        <f>0.002*24</f>
-        <v>4.8000000000000001E-2</v>
+        <f>0.002</f>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2534,79 +2534,79 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
@@ -4140,7 +4140,7 @@
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="45" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4148,7 +4148,7 @@
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="45" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4510,6 +4510,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
@@ -4518,15 +4527,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4549,6 +4549,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -4563,12 +4571,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6388C5-3CAE-2845-97E1-7B962F126085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62BB381D-1AB1-5844-AD38-D49AEDA076E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17260" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="-33340" yWindow="-4680" windowWidth="28800" windowHeight="8420" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -157,9 +157,15 @@
     <t>n.v.</t>
   </si>
   <si>
+    <t>[13]</t>
+  </si>
+  <si>
     <t>Windkraft (Chile)</t>
   </si>
   <si>
+    <t>[12]</t>
+  </si>
+  <si>
     <t>Entsalzung</t>
   </si>
   <si>
@@ -196,177 +202,189 @@
     <t>[10]</t>
   </si>
   <si>
+    <t>Stromspeicher</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>[14</t>
+  </si>
+  <si>
+    <t>LH2 Speicher</t>
+  </si>
+  <si>
+    <t>NH3 Speicher</t>
+  </si>
+  <si>
+    <t>LOHC Speicher</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>LH2 Schiff</t>
+  </si>
+  <si>
+    <t>Kosten überprüfen</t>
+  </si>
+  <si>
+    <t>NH3 Schiff</t>
+  </si>
+  <si>
+    <t>was das für wyldes bild</t>
+  </si>
+  <si>
+    <t>LOHC Schiff</t>
+  </si>
+  <si>
+    <t>Regasifizierung</t>
+  </si>
+  <si>
+    <t>NH3 Cracker</t>
+  </si>
+  <si>
+    <t>[10] [8]</t>
+  </si>
+  <si>
+    <t>Dehydrierung</t>
+  </si>
+  <si>
+    <t>€/MWh H2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>€/MW H2</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Stoffliche Verluste!</t>
+  </si>
+  <si>
+    <t>LOHC (Material kauf in $)</t>
+  </si>
+  <si>
+    <t>Wert on Top</t>
+  </si>
+  <si>
+    <t>Transportation BOG</t>
+  </si>
+  <si>
+    <t>%/day</t>
+  </si>
+  <si>
+    <t>LOHC (aus der Tankstelle) €/kWh</t>
+  </si>
+  <si>
+    <t>https://gdch.app/article/energietraeger-wie-teuer-fortbewegung-ist-4116971</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>LH2 €/kg</t>
+  </si>
+  <si>
+    <t>Währung</t>
+  </si>
+  <si>
+    <t>Umrechnung</t>
+  </si>
+  <si>
+    <t>€/$</t>
+  </si>
+  <si>
+    <t>Transportspezifisch</t>
+  </si>
+  <si>
+    <t>Fahrten pro Jahr</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Transportzeit pro Fahrt</t>
+  </si>
+  <si>
+    <t>h/n</t>
+  </si>
+  <si>
+    <t>Transportzeit pro Jahr</t>
+  </si>
+  <si>
+    <t>h/a</t>
+  </si>
+  <si>
+    <t>Stoffspezifisch</t>
+  </si>
+  <si>
+    <t>Gravimetrische Energiedichte Wasserstoff</t>
+  </si>
+  <si>
+    <t>kWh/kg oder MWh/t</t>
+  </si>
+  <si>
+    <t>Volumetrische Energiedichte Wasserstoff (l)</t>
+  </si>
+  <si>
+    <t>Dichte Wasserstoff</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>Gravimetrische Energiedichte Ammoniak</t>
+  </si>
+  <si>
+    <t>Dichte Ammoniak</t>
+  </si>
+  <si>
+    <t>spezifische Investitionskosten</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>Invest [€/m3]</t>
+  </si>
+  <si>
+    <t>CAPEX [€]</t>
+  </si>
+  <si>
+    <t>Betriebsstunden [h/a]</t>
+  </si>
+  <si>
+    <t>Leistung [kg/d]</t>
+  </si>
+  <si>
+    <t>Anlagenkapazität [kg/a]</t>
+  </si>
+  <si>
+    <t>capital_cost [€/MWh]</t>
+  </si>
+  <si>
+    <t>capital_cost [€/MW]</t>
+  </si>
+  <si>
+    <t>Quelle</t>
+  </si>
+  <si>
+    <t>€/kg</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
     <t>GH2 Speicher</t>
   </si>
   <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>LH2 Speicher</t>
-  </si>
-  <si>
-    <t>NH3 Speicher</t>
-  </si>
-  <si>
-    <t>LOHC Speicher</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>[7]</t>
-  </si>
-  <si>
-    <t>LH2 Schiff</t>
-  </si>
-  <si>
-    <t>Kosten überprüfen</t>
-  </si>
-  <si>
-    <t>NH3 Schiff</t>
-  </si>
-  <si>
-    <t>LOHC Schiff</t>
-  </si>
-  <si>
-    <t>Regasifizierung</t>
-  </si>
-  <si>
-    <t>NH3 Cracker</t>
-  </si>
-  <si>
-    <t>[10] [8]</t>
-  </si>
-  <si>
-    <t>Dehydrierung</t>
-  </si>
-  <si>
-    <t>Wert on Top</t>
-  </si>
-  <si>
-    <t>€/MWh H2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>€/MW H2</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Stoffliche Verluste!</t>
-  </si>
-  <si>
-    <t>Transportation BOG</t>
-  </si>
-  <si>
-    <t>%/day</t>
-  </si>
-  <si>
-    <t>Quelle</t>
-  </si>
-  <si>
-    <t>LOHC (aus der Tankstelle) €/kWh</t>
-  </si>
-  <si>
-    <t>https://gdch.app/article/energietraeger-wie-teuer-fortbewegung-ist-4116971</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>LH2 €/kg</t>
-  </si>
-  <si>
-    <t>Währung</t>
-  </si>
-  <si>
-    <t>Umrechnung</t>
-  </si>
-  <si>
-    <t>€/$</t>
-  </si>
-  <si>
-    <t>Transportspezifisch</t>
-  </si>
-  <si>
-    <t>Fahrten pro Jahr</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Transportzeit pro Fahrt</t>
-  </si>
-  <si>
-    <t>h/n</t>
-  </si>
-  <si>
-    <t>Transportzeit pro Jahr</t>
-  </si>
-  <si>
-    <t>h/a</t>
-  </si>
-  <si>
-    <t>Stoffspezifisch</t>
-  </si>
-  <si>
-    <t>Gravimetrische Energiedichte Wasserstoff</t>
-  </si>
-  <si>
-    <t>kWh/kg oder MWh/t</t>
-  </si>
-  <si>
-    <t>Volumetrische Energiedichte Wasserstoff (l)</t>
-  </si>
-  <si>
-    <t>Dichte Wasserstoff</t>
-  </si>
-  <si>
-    <t>kg/m3</t>
-  </si>
-  <si>
-    <t>Gravimetrische Energiedichte Ammoniak</t>
-  </si>
-  <si>
-    <t>Dichte Ammoniak</t>
-  </si>
-  <si>
-    <t>spezifische Investitionskosten</t>
-  </si>
-  <si>
-    <t>Einheit</t>
-  </si>
-  <si>
-    <t>Invest [€/m3]</t>
-  </si>
-  <si>
-    <t>CAPEX [€]</t>
-  </si>
-  <si>
-    <t>Betriebsstunden [h/a]</t>
-  </si>
-  <si>
-    <t>Leistung [kg/d]</t>
-  </si>
-  <si>
-    <t>Anlagenkapazität [kg/a]</t>
-  </si>
-  <si>
-    <t>capital_cost [€/MWh]</t>
-  </si>
-  <si>
-    <t>capital_cost [€/MW]</t>
-  </si>
-  <si>
-    <t>€/kg</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
     <t>$/kg</t>
   </si>
   <si>
@@ -379,6 +397,15 @@
     <t>[6]</t>
   </si>
   <si>
+    <t>$/m4</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>NH3 Erzeugung</t>
+  </si>
+  <si>
     <t>spezifische Parameter</t>
   </si>
   <si>
@@ -412,6 +439,9 @@
     <t>Fahrten/a</t>
   </si>
   <si>
+    <t>invest*a</t>
+  </si>
+  <si>
     <t>3,7 kWh/m3</t>
   </si>
   <si>
@@ -550,6 +580,18 @@
     <t>Study on the Import of Liquid Renewable Energy: technology Cost Assessment  https://www.gie.eu/wp-content/uploads/filr/2598/DNV-GL_Study-GLE-Technologies-and-costs-analysis-on-imports-of-liquid-renewable-energy.pdf</t>
   </si>
   <si>
+    <t>Charles Johnston, Muhammad Haider Ali Khan, Rose Amal, Rahman Daiyan, Iain MacGill, Shipping the sunshine: An open-source model for costing renewable hydrogen transport from Australia, International Journal of Hydrogen Energy, Volume 47, Issue 47, 2022, Pages 20362-20377, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2022.04.156.</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Land-Based Wind - Class 5, 2025, Advanced Scenario</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Utility-Scale PV - Class 5, 2025, Advanced Scenario</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Utility-Scale Battery Storage - 4 Hr, 2025, Advanced Scenario</t>
+  </si>
+  <si>
     <t>N2</t>
   </si>
   <si>
@@ -584,48 +626,6 @@
   </si>
   <si>
     <t>Euro/MwH2</t>
-  </si>
-  <si>
-    <t>NH3 Erzeugung</t>
-  </si>
-  <si>
-    <t>was das für wyldes bild</t>
-  </si>
-  <si>
-    <t>$/m4</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>LOHC (Material kauf in $)</t>
-  </si>
-  <si>
-    <t>invest*a</t>
-  </si>
-  <si>
-    <t>Charles Johnston, Muhammad Haider Ali Khan, Rose Amal, Rahman Daiyan, Iain MacGill, Shipping the sunshine: An open-source model for costing renewable hydrogen transport from Australia, International Journal of Hydrogen Energy, Volume 47, Issue 47, 2022, Pages 20362-20377, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2022.04.156.</t>
-  </si>
-  <si>
-    <t>Stromspeicher</t>
-  </si>
-  <si>
-    <t>National Renewable Energy Laboratory (NREL): Land-Based Wind - Class 5, 2025, Advanced Scenario</t>
-  </si>
-  <si>
-    <t>National Renewable Energy Laboratory (NREL): Utility-Scale PV - Class 5, 2025, Advanced Scenario</t>
-  </si>
-  <si>
-    <t>National Renewable Energy Laboratory (NREL): Utility-Scale Battery Storage - 4 Hr, 2025, Advanced Scenario</t>
-  </si>
-  <si>
-    <t>[13]</t>
-  </si>
-  <si>
-    <t>[12]</t>
-  </si>
-  <si>
-    <t>[14</t>
   </si>
 </sst>
 </file>
@@ -1615,8 +1615,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1762,12 +1762,12 @@
         <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1799,15 +1799,15 @@
         <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>180</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>23</v>
@@ -1816,7 +1816,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="25">
         <f>marginal_cost!L12</f>
@@ -1836,15 +1836,15 @@
         <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>23</v>
@@ -1853,11 +1853,11 @@
         <v>23</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="25">
         <f>marginal_cost!L2</f>
-        <v>2.88563645597673</v>
+        <v>95.226003047232098</v>
       </c>
       <c r="G8" s="12">
         <v>10</v>
@@ -1874,15 +1874,15 @@
         <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>23</v>
@@ -1891,11 +1891,11 @@
         <v>23</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="25">
         <f>marginal_cost!L3</f>
-        <v>3.6615551356972333</v>
+        <v>120.83131947800869</v>
       </c>
       <c r="G9" s="12">
         <v>10</v>
@@ -1912,15 +1912,15 @@
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>23</v>
@@ -1929,11 +1929,10 @@
         <v>23</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="25">
-        <f>marginal_cost!L4</f>
-        <v>6.0606060606060606</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
         <v>20</v>
@@ -1943,22 +1942,21 @@
         <v>3296969.6969696968</v>
       </c>
       <c r="I10" s="28">
-        <f>efficiency!$G$2</f>
-        <v>0.76744186046511631</v>
+        <v>1</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>23</v>
@@ -1967,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="25">
         <v>0</v>
@@ -1987,10 +1985,10 @@
     </row>
     <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>23</v>
@@ -1999,7 +1997,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="25">
         <v>0</v>
@@ -2017,15 +2015,15 @@
         <v>24</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>23</v>
@@ -2034,7 +2032,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="25">
         <v>0</v>
@@ -2053,15 +2051,15 @@
         <v>0</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>23</v>
@@ -2070,7 +2068,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="25">
         <v>0</v>
@@ -2092,10 +2090,10 @@
     </row>
     <row r="15" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>23</v>
@@ -2104,7 +2102,7 @@
         <v>23</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="25">
         <v>0</v>
@@ -2122,15 +2120,15 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>23</v>
@@ -2139,7 +2137,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" s="25">
         <v>0</v>
@@ -2157,15 +2155,15 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>23</v>
@@ -2174,33 +2172,27 @@
         <v>23</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" s="25">
         <v>3.9</v>
       </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>23</v>
@@ -2209,7 +2201,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="25">
         <f>marginal_cost!L7</f>
@@ -2230,15 +2222,15 @@
         <v>24</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>23</v>
@@ -2247,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F19" s="25">
         <f>marginal_cost!L8</f>
@@ -2268,18 +2260,18 @@
         <v>24</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>23</v>
@@ -2288,7 +2280,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F20" s="25">
         <f>marginal_cost!L9</f>
@@ -2310,10 +2302,10 @@
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>23</v>
@@ -2322,7 +2314,7 @@
         <v>23</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="25">
         <v>0</v>
@@ -2342,10 +2334,10 @@
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>23</v>
@@ -2354,7 +2346,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F22" s="25">
         <v>0</v>
@@ -2373,16 +2365,16 @@
         <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M22"/>
     </row>
     <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>23</v>
@@ -2391,7 +2383,7 @@
         <v>23</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F23" s="25">
         <v>0</v>
@@ -2409,42 +2401,42 @@
         <v>24</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="I27" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3"/>
       <c r="E28" s="13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>24</v>
@@ -2467,10 +2459,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C31" s="16">
         <v>0.17</v>
@@ -2524,13 +2516,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1">
         <v>0.27</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2610,12 +2602,12 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2688,114 +2680,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <f>24*15+4</f>
         <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <f>B6*B5</f>
         <v>3640</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>71.099999999999994</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>5.2</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>682.8</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2827,39 +2819,39 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -2890,12 +2882,12 @@
         <v>720000</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
@@ -2926,12 +2918,12 @@
         <v>630000</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -2963,18 +2955,18 @@
         <v>3296969.6969696968</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="18">
         <v>36</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
@@ -2999,18 +2991,18 @@
         <v>1090.9090909090908</v>
       </c>
       <c r="K5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B6" s="18">
         <v>37</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -3035,12 +3027,12 @@
         <v>1222.1212121212125</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -3054,13 +3046,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="18">
         <v>1355</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D8" s="18">
         <f>B8*Allgemein!$B$2</f>
@@ -3087,18 +3079,18 @@
         <v>2291308.8692835532</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" s="18">
         <v>1016</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D9" s="18">
         <f>B9*Allgemein!$B$2</f>
@@ -3125,19 +3117,19 @@
         <v>1135336.8482718221</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B10" s="30">
         <f>65000000/efficiency!I5</f>
         <v>406.25</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="D10" s="18">
         <f>B10*Allgemein!$B$2</f>
@@ -3152,23 +3144,23 @@
         <v>453967.12067955482</v>
       </c>
       <c r="K10" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J11" s="18">
         <v>235000</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="36">
         <v>66666666</v>
@@ -3180,7 +3172,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="J13" s="39">
         <v>808000</v>
@@ -3206,8 +3198,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3228,51 +3220,51 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="18">
         <v>15</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
@@ -3301,22 +3293,22 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <f>E2/J2*1000/Allgemein!$B$12</f>
-        <v>2.88563645597673</v>
+        <f>E2/J2*1000</f>
+        <v>95.226003047232098</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="18">
         <v>20</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D3" s="18">
         <v>0</v>
@@ -3345,16 +3337,16 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f>E3/J3*1000/Allgemein!$B$12</f>
-        <v>3.6615551356972333</v>
+        <f>E3/J3*1000</f>
+        <v>120.83131947800869</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -3369,7 +3361,7 @@
         <v>2000000</v>
       </c>
       <c r="F4" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="18">
         <v>8000</v>
@@ -3392,18 +3384,18 @@
         <v>6.0606060606060606</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="18">
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
@@ -3434,18 +3426,18 @@
         <v>21.818181818181817</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -3476,18 +3468,18 @@
         <v>24.442424242424249</v>
       </c>
       <c r="M6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" s="18">
         <v>24.14</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D7" s="18">
         <f>24300000/B7</f>
@@ -3522,18 +3514,18 @@
         <v>0.11107804278831422</v>
       </c>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B8" s="18">
         <v>24.14</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D8" s="18">
         <f>19300000/B8</f>
@@ -3568,18 +3560,18 @@
         <v>5.8299648826375096E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B9" s="18">
         <v>24.14</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D9" s="18">
         <v>512882</v>
@@ -3602,25 +3594,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B10" s="43">
         <v>0.03</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B11" s="43">
         <v>0.03</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="L11" s="38">
         <f>capital_cost!$J$5*B5*0.01</f>
@@ -3629,21 +3621,21 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="18">
         <f>8966666/Gesamt!G7</f>
         <v>448333.3</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L12" s="37">
         <f>E12/Chile!B17</f>
         <v>8.160773313723205E-3</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3657,7 +3649,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3675,33 +3667,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <f>marginal_cost!$F$4</f>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3716,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="29">
-        <f>Allgemein!$B$12/(B2+Allgemein!$B$12)</f>
-        <v>0.76744186046511631</v>
+        <f>Allgemein!$B$12/(Allgemein!$B$12+B2)</f>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" s="18">
         <v>11376000</v>
@@ -3742,16 +3735,16 @@
         <v>0.86221181280202108</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I3" s="18">
         <v>160000</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="29"/>
@@ -3759,7 +3752,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" s="18">
         <v>109248000</v>
@@ -3779,21 +3772,21 @@
         <v>0.99675027863908006</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I4" s="18">
         <v>160000</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18">
@@ -3805,15 +3798,15 @@
         <v>160000</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3837,49 +3830,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3887,31 +3880,31 @@
         <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D10">
         <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F10">
         <v>8000</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3920,7 +3913,7 @@
         <v>14848000000</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3929,19 +3922,19 @@
         <v>14848000</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E12">
         <v>189000</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G12">
         <v>136000</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3950,21 +3943,21 @@
         <v>49640000</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E13">
         <f>365*E12</f>
         <v>68985000</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G13">
         <f>G12*365</f>
         <v>49640000</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3982,7 +3975,7 @@
         <v>54937600</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3991,23 +3984,23 @@
         <v>54937.599999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B21">
         <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4037,15 +4030,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4053,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4061,7 +4054,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4069,7 +4062,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4077,7 +4070,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4085,7 +4078,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4093,7 +4086,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4101,7 +4094,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4109,7 +4102,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4117,7 +4110,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4125,7 +4118,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -4133,7 +4126,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4141,7 +4134,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4149,7 +4142,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4157,7 +4150,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4233,13 +4226,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4253,7 +4246,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4266,12 +4259,12 @@
         <v>0.17647058823529413</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4287,20 +4280,20 @@
         <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4309,12 +4302,12 @@
         <v>5881.7451000000001</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4323,7 +4316,7 @@
         <v>255.10204081632654</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4333,6 +4326,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aca6c290d7270e062501f87f2390e508">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3e4e919cbdb82cbbd1a44b9c8ca9704" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -4509,27 +4522,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4546,29 +4564,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62BB381D-1AB1-5844-AD38-D49AEDA076E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F463737-EDDB-3B4C-86FD-DC8096A295CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33340" yWindow="-4680" windowWidth="28800" windowHeight="8420" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="-37040" yWindow="-6100" windowWidth="33320" windowHeight="16960" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -1616,7 +1616,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F8" s="25">
         <f>marginal_cost!L2</f>
-        <v>95.226003047232098</v>
+        <v>2.88563645597673</v>
       </c>
       <c r="G8" s="12">
         <v>10</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="F9" s="25">
         <f>marginal_cost!L3</f>
-        <v>120.83131947800869</v>
+        <v>3.6615551356972333</v>
       </c>
       <c r="G9" s="12">
         <v>10</v>
@@ -1942,7 +1942,8 @@
         <v>3296969.6969696968</v>
       </c>
       <c r="I10" s="28">
-        <v>1</v>
+        <f>efficiency!$G$3</f>
+        <v>0.86221181280202108</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>24</v>
@@ -3198,8 +3199,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3293,8 +3294,8 @@
         <v>0</v>
       </c>
       <c r="L2" s="18">
-        <f>E2/J2*1000</f>
-        <v>95.226003047232098</v>
+        <f>E2/(J2/1000*33)</f>
+        <v>2.88563645597673</v>
       </c>
       <c r="M2" t="s">
         <v>33</v>
@@ -3337,8 +3338,8 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f>E3/J3*1000</f>
-        <v>120.83131947800869</v>
+        <f t="shared" ref="L3:L4" si="0">E3/(J3/1000*33)</f>
+        <v>3.6615551356972333</v>
       </c>
       <c r="M3" t="s">
         <v>33</v>
@@ -3380,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="18">
-        <f>E4/(J4*Allgemein!$B$12)*1000</f>
+        <f>E4/(J4/1000*33)</f>
         <v>6.0606060606060606</v>
       </c>
       <c r="M4" t="s">
@@ -4533,16 +4534,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F463737-EDDB-3B4C-86FD-DC8096A295CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC129A9-6CC7-1D47-8405-B50B6824D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37040" yWindow="-6100" windowWidth="33320" windowHeight="16960" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
@@ -1616,7 +1616,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2085,8 +2085,8 @@
         <v>24</v>
       </c>
       <c r="J14" s="28">
-        <f>0.002</f>
-        <v>2E-3</v>
+        <f>0.002/24</f>
+        <v>8.3333333333333331E-5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="18">
-        <f t="shared" ref="L3:L4" si="0">E3/(J3/1000*33)</f>
+        <f t="shared" ref="L3" si="0">E3/(J3/1000*33)</f>
         <v>3.6615551356972333</v>
       </c>
       <c r="M3" t="s">
@@ -4336,17 +4336,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aca6c290d7270e062501f87f2390e508">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3e4e919cbdb82cbbd1a44b9c8ca9704" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -4523,6 +4512,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
   <ds:schemaRefs>
@@ -4532,23 +4532,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4565,4 +4548,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC129A9-6CC7-1D47-8405-B50B6824D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30C9173-174B-194F-9EC4-B62A5E618621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37040" yWindow="-6100" windowWidth="33320" windowHeight="16960" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
@@ -1616,7 +1616,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1942,8 +1942,8 @@
         <v>3296969.6969696968</v>
       </c>
       <c r="I10" s="28">
-        <f>efficiency!$G$3</f>
-        <v>0.86221181280202108</v>
+        <f>efficiency!$G$2</f>
+        <v>0.76744186046511631</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>24</v>
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3694,8 +3694,7 @@
         <v>35</v>
       </c>
       <c r="B2">
-        <f>marginal_cost!$F$4</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3711,7 +3710,7 @@
       </c>
       <c r="G2" s="29">
         <f>Allgemein!$B$12/(Allgemein!$B$12+B2)</f>
-        <v>0.84615384615384615</v>
+        <v>0.76744186046511631</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30C9173-174B-194F-9EC4-B62A5E618621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDFAF56-F91E-5842-B2B1-34E3B7DDA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37040" yWindow="-6100" windowWidth="33320" windowHeight="16960" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>

--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDFAF56-F91E-5842-B2B1-34E3B7DDA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D72F1E-6621-8A4F-AEA9-92715CD669D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37040" yWindow="-6100" windowWidth="33320" windowHeight="16960" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="-35180" yWindow="-6940" windowWidth="28800" windowHeight="15840" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,10 @@
     <author>tc={0C704E41-3D06-4D88-89DC-39DBA7A2C449}</author>
     <author>tc={B944F9CC-5851-4327-8D98-091D21D67D31}</author>
     <author>tc={2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}</author>
+    <author>tc={B983BE6B-EB39-438A-8969-C1C7DA7104FF}</author>
   </authors>
   <commentList>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{0C704E41-3D06-4D88-89DC-39DBA7A2C449}">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{0C704E41-3D06-4D88-89DC-39DBA7A2C449}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -58,7 +59,7 @@
     Muss noch aktualisiert werden</t>
       </text>
     </comment>
-    <comment ref="I12" authorId="1" shapeId="0" xr:uid="{B944F9CC-5851-4327-8D98-091D21D67D31}">
+    <comment ref="I11" authorId="1" shapeId="0" xr:uid="{B944F9CC-5851-4327-8D98-091D21D67D31}">
       <text>
         <t xml:space="preserve">[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -67,7 +68,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="I23" authorId="2" shapeId="0" xr:uid="{2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}">
+    <comment ref="I22" authorId="2" shapeId="0" xr:uid="{2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -75,12 +76,20 @@
     Muss noch aktualisiert werden</t>
       </text>
     </comment>
+    <comment ref="H27" authorId="3" shapeId="0" xr:uid="{B983BE6B-EB39-438A-8969-C1C7DA7104FF}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Kapitalkosten hinzurechnen?</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="168">
   <si>
     <t>Inputs</t>
   </si>
@@ -208,9 +217,6 @@
     <t>Store</t>
   </si>
   <si>
-    <t>[14</t>
-  </si>
-  <si>
     <t>LH2 Speicher</t>
   </si>
   <si>
@@ -229,15 +235,9 @@
     <t>LH2 Schiff</t>
   </si>
   <si>
-    <t>Kosten überprüfen</t>
-  </si>
-  <si>
     <t>NH3 Schiff</t>
   </si>
   <si>
-    <t>was das für wyldes bild</t>
-  </si>
-  <si>
     <t>LOHC Schiff</t>
   </si>
   <si>
@@ -253,18 +253,6 @@
     <t>Dehydrierung</t>
   </si>
   <si>
-    <t>€/MWh H2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>€/MW H2</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Stoffliche Verluste!</t>
   </si>
   <si>
@@ -280,18 +268,6 @@
     <t>%/day</t>
   </si>
   <si>
-    <t>LOHC (aus der Tankstelle) €/kWh</t>
-  </si>
-  <si>
-    <t>https://gdch.app/article/energietraeger-wie-teuer-fortbewegung-ist-4116971</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>LH2 €/kg</t>
-  </si>
-  <si>
     <t>Währung</t>
   </si>
   <si>
@@ -385,9 +361,6 @@
     <t>GH2 Speicher</t>
   </si>
   <si>
-    <t>$/kg</t>
-  </si>
-  <si>
     <t>[5]</t>
   </si>
   <si>
@@ -397,9 +370,6 @@
     <t>[6]</t>
   </si>
   <si>
-    <t>$/m4</t>
-  </si>
-  <si>
     <t>[11]</t>
   </si>
   <si>
@@ -466,9 +436,6 @@
     <t>max</t>
   </si>
   <si>
-    <t>Meerwasserentsalzung</t>
-  </si>
-  <si>
     <t>Verfahren:</t>
   </si>
   <si>
@@ -532,12 +499,6 @@
     <t>MW/ a</t>
   </si>
   <si>
-    <t>AEL</t>
-  </si>
-  <si>
-    <t>H2/h</t>
-  </si>
-  <si>
     <t>He</t>
   </si>
   <si>
@@ -626,16 +587,21 @@
   </si>
   <si>
     <t>Euro/MwH2</t>
+  </si>
+  <si>
+    <t>Nebenrechnung zur Meerwasserentsalzung</t>
+  </si>
+  <si>
+    <t>[14]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
@@ -910,7 +876,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -971,9 +937,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1003,7 +966,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1025,8 +987,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1036,9 +1001,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1119,6 +1081,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1132,157 +1097,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>261471</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>37353</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476373</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>2802382</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E741A582-4149-CB6E-2F48-4B8A6B82C11A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="261471" y="8456706"/>
-          <a:ext cx="5283472" cy="3206915"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>256068</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>444555</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83672</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 2" descr="Elon Musk: Der Milliardär schläft bei Freunden, weil er ...">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E38745-8C6E-C768-B4DA-6F763CE19E48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:biLevel thresh="75000"/>
-          <a:alphaModFix/>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:artisticPhotocopy trans="37000" detail="4"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20034450" y="100853"/>
-          <a:ext cx="3422542" cy="4123654"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 44424"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="1130300">
-            <a:srgbClr val="F40000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:glow>
-          <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="20000"/>
-            </a:prstClr>
-          </a:outerShdw>
-          <a:reflection blurRad="228600" stA="70000" endPos="69000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="perspectiveRelaxed" fov="3600000">
-            <a:rot lat="19800000" lon="1800000" rev="20400000"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d contourW="6350" prstMaterial="matte">
-          <a:bevelT w="101600" h="101600"/>
-          <a:bevelB prst="relaxedInset"/>
-          <a:contourClr>
-            <a:srgbClr val="969696"/>
-          </a:contourClr>
-        </a:sp3d>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Mathis Stange (mstange)" id="{5898AE89-8C31-4315-8551-1A557E33296F}" userId="Mathis Stange (mstange)" providerId="None"/>
@@ -1293,7 +1107,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}" name="Tabelle1" displayName="Tabelle1" ref="A2:B28" totalsRowShown="0">
   <autoFilter ref="A2:B28" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{9C8ABFA1-DCBA-9944-8549-EEC7F214E37A}" name="Quelle "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1597,15 +1411,18 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I11" dT="2023-01-21T10:54:16.97" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{0C704E41-3D06-4D88-89DC-39DBA7A2C449}">
+  <threadedComment ref="I10" dT="2023-01-21T10:54:16.97" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{0C704E41-3D06-4D88-89DC-39DBA7A2C449}">
     <text>Muss noch aktualisiert werden</text>
   </threadedComment>
-  <threadedComment ref="I12" dT="2023-01-21T10:53:47.83" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{B944F9CC-5851-4327-8D98-091D21D67D31}">
+  <threadedComment ref="I11" dT="2023-01-21T10:53:47.83" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{B944F9CC-5851-4327-8D98-091D21D67D31}">
     <text xml:space="preserve">Muss noch aktualisiert werden
 </text>
   </threadedComment>
-  <threadedComment ref="I23" dT="2023-01-21T10:55:43.33" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}">
+  <threadedComment ref="I22" dT="2023-01-21T10:55:43.33" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}">
     <text>Muss noch aktualisiert werden</text>
+  </threadedComment>
+  <threadedComment ref="H27" dT="2023-01-23T14:57:37.93" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{B983BE6B-EB39-438A-8969-C1C7DA7104FF}">
+    <text>Kapitalkosten hinzurechnen?</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1613,35 +1430,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14DACE-E658-6948-9904-3793876CEF37}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="20.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -1670,33 +1489,33 @@
       <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="35"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="46" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1744,14 +1563,14 @@
       <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <f>Allgemein!$B$2*24.883</f>
         <v>27.12247</v>
       </c>
       <c r="G5" s="13">
         <v>30</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <f>Allgemein!$B$2*922225</f>
         <v>1005225.2500000001</v>
       </c>
@@ -1781,14 +1600,14 @@
       <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <f>Allgemein!$B$2*23.215</f>
         <v>25.304350000000003</v>
       </c>
       <c r="G6" s="12">
         <v>30</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <f>Allgemein!$B$2*1081000</f>
         <v>1178290</v>
       </c>
@@ -1804,7 +1623,7 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -1818,30 +1637,31 @@
       <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="25">
-        <f>marginal_cost!L12</f>
-        <v>8.160773313723205E-3</v>
+      <c r="F7" s="24">
+        <f>marginal_cost!L2</f>
+        <v>2.88563645597673</v>
       </c>
       <c r="G7" s="12">
-        <v>20</v>
-      </c>
-      <c r="H7" s="25">
-        <f>capital_cost!J12</f>
-        <v>1213.4979686043803</v>
-      </c>
-      <c r="I7" s="28">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="H7" s="19">
+        <f>capital_cost!J2</f>
+        <v>720000</v>
+      </c>
+      <c r="I7" s="27">
+        <f>Allgemein!$B$12/marginal_cost!F2</f>
+        <v>0.59891107078039929</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -1855,20 +1675,20 @@
       <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="25">
-        <f>marginal_cost!L2</f>
-        <v>2.88563645597673</v>
+      <c r="F8" s="24">
+        <f>marginal_cost!L3</f>
+        <v>3.6615551356972333</v>
       </c>
       <c r="G8" s="12">
         <v>10</v>
       </c>
       <c r="H8" s="19">
-        <f>capital_cost!J2</f>
-        <v>720000</v>
-      </c>
-      <c r="I8" s="28">
-        <f>Allgemein!$B$12/marginal_cost!F2</f>
-        <v>0.59891107078039929</v>
+        <f>capital_cost!J3</f>
+        <v>630000</v>
+      </c>
+      <c r="I8" s="27">
+        <f>Allgemein!$B$12/marginal_cost!F3</f>
+        <v>0.61797752808988771</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>24</v>
@@ -1877,9 +1697,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -1893,31 +1713,30 @@
       <c r="E9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="25">
-        <f>marginal_cost!L3</f>
-        <v>3.6615551356972333</v>
+      <c r="F9" s="24">
+        <v>0</v>
       </c>
       <c r="G9" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H9" s="19">
-        <f>capital_cost!J3</f>
-        <v>630000</v>
-      </c>
-      <c r="I9" s="28">
-        <f>Allgemein!$B$12/marginal_cost!F3</f>
-        <v>0.61797752808988771</v>
+        <f>capital_cost!J4</f>
+        <v>3296969.6969696968</v>
+      </c>
+      <c r="I9" s="27">
+        <f>efficiency!$G$2</f>
+        <v>0.76744186046511631</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -1931,30 +1750,25 @@
       <c r="E10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>0</v>
       </c>
       <c r="G10" s="12">
         <v>20</v>
       </c>
-      <c r="H10" s="19">
-        <f>capital_cost!J4</f>
-        <v>3296969.6969696968</v>
-      </c>
-      <c r="I10" s="28">
-        <f>efficiency!$G$2</f>
-        <v>0.76744186046511631</v>
+      <c r="H10" s="24">
+        <v>1212000</v>
+      </c>
+      <c r="I10" s="27">
+        <v>0.92</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
@@ -1968,28 +1782,31 @@
       <c r="E11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>0</v>
       </c>
       <c r="G11" s="12">
         <v>20</v>
       </c>
-      <c r="H11" s="25">
-        <v>1212000</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0.92</v>
+      <c r="H11" s="24">
+        <v>79500</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0.7</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>23</v>
@@ -1997,31 +1814,32 @@
       <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>0</v>
       </c>
       <c r="G12" s="12">
-        <v>20</v>
-      </c>
-      <c r="H12" s="25">
-        <v>79500</v>
-      </c>
-      <c r="I12" s="28">
-        <v>0.7</v>
-      </c>
-      <c r="J12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="19">
+        <f>Allgemein!$B$2*1005.201</f>
+        <v>1095.6690900000001</v>
+      </c>
+      <c r="I12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>39</v>
+      <c r="J12" s="27">
+        <v>0</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -2035,27 +1853,28 @@
       <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>0</v>
       </c>
       <c r="G13" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H13" s="19">
-        <f>Allgemein!$B$2*1005.201</f>
-        <v>1095.6690900000001</v>
-      </c>
-      <c r="I13" s="44" t="s">
+        <f>capital_cost!J5</f>
+        <v>1090.9090909090908</v>
+      </c>
+      <c r="I13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="28">
-        <v>0</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="J13" s="27">
+        <f>0.002/24</f>
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>43</v>
       </c>
@@ -2071,25 +1890,26 @@
       <c r="E14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>0</v>
       </c>
       <c r="G14" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H14" s="19">
-        <f>capital_cost!J5</f>
-        <v>1090.9090909090908</v>
-      </c>
-      <c r="I14" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="I14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="28">
-        <f>0.002/24</f>
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="27">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>44</v>
       </c>
@@ -2105,31 +1925,31 @@
       <c r="E15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>0</v>
       </c>
       <c r="G15" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H15" s="19">
-        <v>255</v>
-      </c>
-      <c r="I15" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="I15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="28">
-        <v>4.0000000000000002E-4</v>
+      <c r="J15" s="27">
+        <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>23</v>
@@ -2140,28 +1960,28 @@
       <c r="E16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="25">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>30</v>
-      </c>
-      <c r="H16" s="19">
-        <v>239</v>
-      </c>
-      <c r="I16" s="44" t="s">
+      <c r="F16" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="G16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="28">
-        <v>0</v>
+      <c r="H16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="42">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -2175,17 +1995,26 @@
       <c r="E17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="25">
-        <v>3.9</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="F17" s="24">
+        <f>marginal_cost!L7</f>
+        <v>0.11107804278831422</v>
+      </c>
+      <c r="G17" s="13">
+        <v>20</v>
+      </c>
+      <c r="H17" s="30">
+        <f>capital_cost!J7</f>
+        <v>2291308.8692835532</v>
+      </c>
+      <c r="I17" s="27">
+        <f>efficiency!G3</f>
+        <v>0.86221181280202108</v>
+      </c>
       <c r="J17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>47</v>
+      <c r="K17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2204,31 +2033,31 @@
       <c r="E18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="25">
-        <f>marginal_cost!L7</f>
-        <v>0.11107804278831422</v>
+      <c r="F18" s="24">
+        <f>marginal_cost!L8</f>
+        <v>5.8299648826375096E-2</v>
       </c>
       <c r="G18" s="13">
         <v>20</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="30">
         <f>capital_cost!J8</f>
-        <v>2291308.8692835532</v>
-      </c>
-      <c r="I18" s="28">
-        <f>efficiency!G3</f>
-        <v>0.86221181280202108</v>
+        <v>1135336.8482718221</v>
+      </c>
+      <c r="I18" s="27">
+        <f>efficiency!G4</f>
+        <v>0.99675027863908006</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>49</v>
+      <c r="K18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
@@ -2242,34 +2071,30 @@
       <c r="E19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="25">
-        <f>marginal_cost!L8</f>
-        <v>5.8299648826375096E-2</v>
+      <c r="F19" s="24">
+        <f>marginal_cost!L9</f>
+        <v>1.5972610857142858E-2</v>
       </c>
       <c r="G19" s="13">
         <v>20</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="38">
         <f>capital_cost!J9</f>
-        <v>1135336.8482718221</v>
-      </c>
-      <c r="I19" s="28">
-        <f>efficiency!G4</f>
-        <v>0.99675027863908006</v>
+        <v>494824.16154071479</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -2283,27 +2108,25 @@
       <c r="E20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="25">
-        <f>marginal_cost!L9</f>
-        <v>1.5972610857142858E-2</v>
+      <c r="F20" s="24">
+        <v>0</v>
       </c>
       <c r="G20" s="13">
         <v>20</v>
       </c>
-      <c r="H20" s="40">
-        <f>capital_cost!J10</f>
-        <v>453967.12067955482</v>
-      </c>
-      <c r="I20" s="28">
-        <v>1</v>
+      <c r="H20" s="24">
+        <v>409500</v>
+      </c>
+      <c r="I20" s="27">
+        <v>0.997</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>53</v>
+      <c r="A21" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
@@ -2317,25 +2140,30 @@
       <c r="E21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25">
+      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
         <v>20</v>
       </c>
-      <c r="H21" s="25">
-        <v>409500</v>
-      </c>
-      <c r="I21" s="28">
-        <v>0.997</v>
+      <c r="H21" s="24">
+        <f>capital_cost!J10*(1+marginal_cost!B10*G21)</f>
+        <v>376000</v>
+      </c>
+      <c r="I21" s="27">
+        <v>0.86</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="K21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21"/>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>54</v>
+      <c r="A22" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>29</v>
@@ -2349,317 +2177,244 @@
       <c r="E22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
         <v>20</v>
       </c>
-      <c r="H22" s="25">
-        <f>capital_cost!J11*(1+marginal_cost!B10*G22)</f>
-        <v>376000</v>
-      </c>
-      <c r="I22" s="28">
-        <v>0.86</v>
+      <c r="H22" s="24">
+        <v>204000</v>
+      </c>
+      <c r="I22" s="27">
+        <v>0.67</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="I26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="B27" s="3"/>
+      <c r="E27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0</v>
-      </c>
-      <c r="G23" s="25">
-        <v>20</v>
-      </c>
-      <c r="H23" s="25">
-        <v>204000</v>
-      </c>
-      <c r="I23" s="28">
-        <v>0.67</v>
-      </c>
-      <c r="J23" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F26" s="1" t="s">
+      <c r="G27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="24">
+        <v>46360000</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="B30" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="I27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="E28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="25">
-        <v>46360000</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="16">
+      <c r="C30" s="16">
         <v>0.17</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D30" s="16">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E30" s="16">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="17">
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
         <v>0.2</v>
       </c>
     </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33"/>
-      <c r="B33"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
       <c r="C33"/>
       <c r="D33"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="C38" s="26"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="A59" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E43:G57"/>
   </mergeCells>
-  <conditionalFormatting sqref="C13:D20 F28:J28 G7:G16 C5:J12 F13:J23">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="n.v.">
+  <conditionalFormatting sqref="C12:D19 F27:J27 F12:J22 G7:G15 C5:J11">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="n.v.">
       <formula>NOT(ISERROR(SEARCH("n.v.",C5)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
+    <cfRule type="containsBlanks" dxfId="7" priority="10">
       <formula>LEN(TRIM(C5))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:J28 E21:J23 C5:J20">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Simulation">
+  <conditionalFormatting sqref="E27:J27 E20:J22 C5:J19">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Simulation">
       <formula>NOT(ISERROR(SEARCH("Simulation",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:J28 F5:J23">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+  <conditionalFormatting sqref="F27:J27 F5:J22">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(F5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:D23">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="n.v.">
-      <formula>NOT(ISERROR(SEARCH("n.v.",C21)))</formula>
+  <conditionalFormatting sqref="C20:D22">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="n.v.">
+      <formula>NOT(ISERROR(SEARCH("n.v.",C20)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
-      <formula>LEN(TRIM(C21))=0</formula>
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(C20))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",C21)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:D23">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Simulation">
-      <formula>NOT(ISERROR(SEARCH("Simulation",C21)))</formula>
+  <conditionalFormatting sqref="C20:D22">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Simulation">
+      <formula>NOT(ISERROR(SEARCH("Simulation",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1" xr:uid="{77646C58-65A7-44BC-90AB-A20D7EC7683E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2680,115 +2435,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>70</v>
+      <c r="A1" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <f>24*15+4</f>
         <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <f>B6*B5</f>
         <v>3640</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>80</v>
+      <c r="A11" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>71.099999999999994</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>5.2</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>682.8</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2799,10 +2554,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA457E3-0315-E74D-BF3E-7E7A6A01568D}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2820,34 +2575,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2961,13 +2716,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="18">
         <v>36</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
@@ -2992,72 +2747,74 @@
         <v>1090.9090909090908</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="18">
-        <v>37</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
-        <f>B6*Allgemein!$B$2/Allgemein!$B$12*1000</f>
-        <v>1222.1212121212125</v>
-      </c>
-      <c r="K6" t="s">
-        <v>102</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1355</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="18">
+        <f>B7*Allgemein!$B$2</f>
+        <v>1476.95</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <f>D7/(Allgemein!$B$14*Allgemein!$B$12/1000)</f>
+        <v>629.48045859438275</v>
+      </c>
+      <c r="J7" s="18">
+        <f>I7*Allgemein!$B$7</f>
+        <v>2291308.8692835532</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="18">
-        <v>1355</v>
+        <v>1016</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8" s="18">
         <f>B8*Allgemein!$B$2</f>
-        <v>1476.95</v>
+        <v>1107.44</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
@@ -3072,120 +2829,70 @@
         <v>0</v>
       </c>
       <c r="I8" s="18">
-        <f>D8/(Allgemein!$B$14*Allgemein!$B$12/1000)</f>
-        <v>629.48045859438275</v>
+        <f>D8/(Allgemein!$B$16*Allgemein!$B$15/1000)</f>
+        <v>311.90572754720387</v>
       </c>
       <c r="J8" s="18">
         <f>I8*Allgemein!$B$7</f>
-        <v>2291308.8692835532</v>
+        <v>1135336.8482718221</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="18">
-        <v>1016</v>
+        <f>65000000/efficiency!I5</f>
+        <v>406.25</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D9" s="18">
         <f>B9*Allgemein!$B$2</f>
-        <v>1107.44</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
+        <v>442.81250000000006</v>
       </c>
       <c r="I9" s="18">
-        <f>D9/(Allgemein!$B$16*Allgemein!$B$15/1000)</f>
-        <v>311.90572754720387</v>
+        <f>D9/(Allgemein!$B$16*Allgemein!$B$15/1000)*Allgemein!$B$2</f>
+        <v>135.9407037199766</v>
       </c>
       <c r="J9" s="18">
         <f>I9*Allgemein!$B$7</f>
-        <v>1135336.8482718221</v>
+        <v>494824.16154071479</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="30">
-        <f>65000000/efficiency!I5</f>
-        <v>406.25</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="18">
-        <f>B10*Allgemein!$B$2</f>
-        <v>442.81250000000006</v>
-      </c>
-      <c r="I10" s="18">
-        <f>D10/(Allgemein!$B$16*Allgemein!$B$15/1000)</f>
-        <v>124.71624194493265</v>
+        <v>51</v>
       </c>
       <c r="J10" s="18">
-        <f>I10*Allgemein!$B$7</f>
-        <v>453967.12067955482</v>
+        <v>235000</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="18">
-        <v>235000</v>
-      </c>
-      <c r="K11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="36">
-        <v>66666666</v>
-      </c>
-      <c r="J12" s="36">
-        <f>E12/Chile!B18</f>
-        <v>1213.4979686043803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="39">
+        <v>94</v>
+      </c>
+      <c r="J11" s="37">
         <v>808000</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="18"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="18"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -3199,8 +2906,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3221,40 +2928,40 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -3265,7 +2972,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
@@ -3309,7 +3016,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D3" s="18">
         <v>0</v>
@@ -3390,13 +3097,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="18">
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
@@ -3427,60 +3134,60 @@
         <v>21.818181818181817</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
       </c>
-      <c r="E6" s="33">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33">
-        <v>0</v>
-      </c>
-      <c r="G6" s="33">
-        <v>0</v>
-      </c>
-      <c r="H6" s="33">
-        <v>0</v>
-      </c>
-      <c r="I6" s="33">
-        <v>0</v>
-      </c>
-      <c r="J6" s="33">
-        <v>0</v>
-      </c>
-      <c r="K6" s="33">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <f>capital_cost!$J$6*B6*0.01</f>
-        <v>24.442424242424249</v>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18" t="e">
+        <f>capital_cost!#REF!*B6*0.01</f>
+        <v>#REF!</v>
       </c>
       <c r="M6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="18">
         <v>24.14</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D7" s="18">
         <f>24300000/B7</f>
@@ -3515,18 +3222,18 @@
         <v>0.11107804278831422</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="18">
         <v>24.14</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D8" s="18">
         <f>19300000/B8</f>
@@ -3561,18 +3268,18 @@
         <v>5.8299648826375096E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="18">
         <v>24.14</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D9" s="18">
         <v>512882</v>
@@ -3591,31 +3298,31 @@
         <f>E9/(35*1000*1000)</f>
         <v>1.5972610857142858E-2</v>
       </c>
-      <c r="M9" s="27"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="43">
+        <v>51</v>
+      </c>
+      <c r="B10" s="41">
         <v>0.03</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="27"/>
+        <v>106</v>
+      </c>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="43">
+        <v>50</v>
+      </c>
+      <c r="B11" s="41">
         <v>0.03</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="38">
+        <v>106</v>
+      </c>
+      <c r="L11" s="36">
         <f>capital_cost!$J$5*B5*0.01</f>
         <v>21.818181818181817</v>
       </c>
@@ -3624,16 +3331,16 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="18">
-        <f>8966666/Gesamt!G7</f>
-        <v>448333.3</v>
+      <c r="E12" s="18" t="e">
+        <f>8966666/Gesamt!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L12" s="37">
+        <v>107</v>
+      </c>
+      <c r="L12" s="35" t="e">
         <f>E12/Chile!B17</f>
-        <v>8.160773313723205E-3</v>
+        <v>#REF!</v>
       </c>
       <c r="M12" t="s">
         <v>31</v>
@@ -3650,7 +3357,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3668,25 +3375,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3708,14 +3415,17 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <f>Allgemein!$B$12/(Allgemein!$B$12+B2)</f>
         <v>0.76744186046511631</v>
       </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="18">
         <v>11376000</v>
@@ -3730,29 +3440,29 @@
         <f>E3/D3</f>
         <v>1567478.4175642089</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <f>1-F3/C3</f>
         <v>0.86221181280202108</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I3" s="18">
         <v>160000</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L3" s="18"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="18">
         <v>109248000</v>
@@ -3767,26 +3477,26 @@
         <f>E4/D4</f>
         <v>355025.55923777958</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <f>1-F4/C4</f>
         <v>0.99675027863908006</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I4" s="18">
         <v>160000</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18">
@@ -3798,10 +3508,10 @@
         <v>160000</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -3819,7 +3529,7 @@
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3830,49 +3540,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>132</v>
+        <v>117</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
-        <v>133</v>
+      <c r="B4" s="22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
-        <v>134</v>
+      <c r="B5" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3880,31 +3590,31 @@
         <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F10">
         <v>8000</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3913,7 +3623,7 @@
         <v>14848000000</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3922,19 +3632,19 @@
         <v>14848000</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>189000</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G12">
         <v>136000</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3943,25 +3653,25 @@
         <v>49640000</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E13">
         <f>365*E12</f>
         <v>68985000</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G13">
         <f>G12*365</f>
         <v>49640000</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <f>B13/3</f>
         <v>16546666.666666666</v>
       </c>
@@ -3969,38 +3679,27 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17">
         <f>B12*D15</f>
         <v>54937600</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>B17/1000</f>
         <v>54937.599999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21">
-        <v>222</v>
-      </c>
-      <c r="C21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +3718,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4030,15 +3729,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4046,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4054,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4062,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4070,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4078,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4086,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -4094,7 +3793,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4102,7 +3801,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4110,7 +3809,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -4118,7 +3817,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -4126,31 +3825,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>167</v>
+      <c r="B14" s="43" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>168</v>
+      <c r="B15" s="43" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>169</v>
+      <c r="B16" s="43" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4226,13 +3925,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4246,7 +3945,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4259,12 +3958,12 @@
         <v>0.17647058823529413</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4280,20 +3979,20 @@
         <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4302,12 +4001,12 @@
         <v>5881.7451000000001</v>
       </c>
       <c r="F11" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4316,7 +4015,7 @@
         <v>255.10204081632654</v>
       </c>
       <c r="F13" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4326,6 +4025,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4334,7 +4044,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aca6c290d7270e062501f87f2390e508">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3e4e919cbdb82cbbd1a44b9c8ca9704" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -4511,18 +4221,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4530,7 +4246,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4547,21 +4263,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D72F1E-6621-8A4F-AEA9-92715CD669D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B35D7-4F7A-C745-B4B1-6DE93719068A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35180" yWindow="-6940" windowWidth="28800" windowHeight="15840" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -966,7 +966,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -981,17 +981,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1001,6 +1001,9 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1081,9 +1084,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1107,7 +1107,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}" name="Tabelle1" displayName="Tabelle1" ref="A2:B28" totalsRowShown="0">
   <autoFilter ref="A2:B28" xr:uid="{145B724C-0FDC-7349-8996-BFF3CB3D20E7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{E95D9A84-43BE-8541-B693-84FC36DE6FD1}" name="Nr." dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9C8ABFA1-DCBA-9944-8549-EEC7F214E37A}" name="Quelle "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1449,18 +1449,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -1494,28 +1494,28 @@
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="44" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2294,79 +2294,79 @@
       <c r="C38" s="26"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
@@ -2376,39 +2376,39 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:D19 F27:J27 F12:J22 G7:G15 C5:J11">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="n.v.">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="n.v.">
       <formula>NOT(ISERROR(SEARCH("n.v.",C5)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="7" priority="10">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(C5))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:J27 E20:J22 C5:J19">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Simulation">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Simulation">
       <formula>NOT(ISERROR(SEARCH("Simulation",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:J27 F5:J22">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(F5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:D22">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="n.v.">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="n.v.">
       <formula>NOT(ISERROR(SEARCH("n.v.",C20)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(C20))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="x">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="x">
       <formula>NOT(ISERROR(SEARCH("x",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:D22">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Simulation">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Simulation">
       <formula>NOT(ISERROR(SEARCH("Simulation",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4025,26 +4025,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aca6c290d7270e062501f87f2390e508">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3e4e919cbdb82cbbd1a44b9c8ca9704" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -4221,32 +4201,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4263,4 +4238,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDFAF56-F91E-5842-B2B1-34E3B7DDA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B15001-855B-2042-889B-4977367B89C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37040" yWindow="-6100" windowWidth="33320" windowHeight="16960" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27360" windowHeight="15200" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="efficiency" sheetId="8" r:id="rId5"/>
     <sheet name="Chile" sheetId="2" r:id="rId6"/>
     <sheet name="Quellen" sheetId="6" r:id="rId7"/>
-    <sheet name="xAmmoniak" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,45 +41,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={0C704E41-3D06-4D88-89DC-39DBA7A2C449}</author>
-    <author>tc={B944F9CC-5851-4327-8D98-091D21D67D31}</author>
-    <author>tc={2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}</author>
-  </authors>
-  <commentList>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{0C704E41-3D06-4D88-89DC-39DBA7A2C449}">
-      <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Muss noch aktualisiert werden</t>
-      </text>
-    </comment>
-    <comment ref="I12" authorId="1" shapeId="0" xr:uid="{B944F9CC-5851-4327-8D98-091D21D67D31}">
-      <text>
-        <t xml:space="preserve">[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Muss noch aktualisiert werden
-</t>
-      </text>
-    </comment>
-    <comment ref="I23" authorId="2" shapeId="0" xr:uid="{2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}">
-      <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Muss noch aktualisiert werden</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="153">
   <si>
     <t>Inputs</t>
   </si>
@@ -157,486 +119,398 @@
     <t>n.v.</t>
   </si>
   <si>
+    <t>Windkraft (Chile)</t>
+  </si>
+  <si>
+    <t>Entsalzung</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>PEM Elektrolyse</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>AEL Elektrolyse</t>
+  </si>
+  <si>
+    <t>Verflüssigung</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Haber-Bosch</t>
+  </si>
+  <si>
+    <t>Hydrierung</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>GH2 Speicher</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>LH2 Speicher</t>
+  </si>
+  <si>
+    <t>NH3 Speicher</t>
+  </si>
+  <si>
+    <t>LOHC Speicher</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>LH2 Schiff</t>
+  </si>
+  <si>
+    <t>NH3 Schiff</t>
+  </si>
+  <si>
+    <t>LOHC Schiff</t>
+  </si>
+  <si>
+    <t>Regasifizierung</t>
+  </si>
+  <si>
+    <t>NH3 Cracker</t>
+  </si>
+  <si>
+    <t>[10] [8]</t>
+  </si>
+  <si>
+    <t>Dehydrierung</t>
+  </si>
+  <si>
+    <t>Quelle</t>
+  </si>
+  <si>
+    <t>Währung</t>
+  </si>
+  <si>
+    <t>Umrechnung</t>
+  </si>
+  <si>
+    <t>€/$</t>
+  </si>
+  <si>
+    <t>Transportspezifisch</t>
+  </si>
+  <si>
+    <t>Fahrten pro Jahr</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Transportzeit pro Fahrt</t>
+  </si>
+  <si>
+    <t>h/n</t>
+  </si>
+  <si>
+    <t>Transportzeit pro Jahr</t>
+  </si>
+  <si>
+    <t>h/a</t>
+  </si>
+  <si>
+    <t>Stoffspezifisch</t>
+  </si>
+  <si>
+    <t>Gravimetrische Energiedichte Wasserstoff</t>
+  </si>
+  <si>
+    <t>kWh/kg oder MWh/t</t>
+  </si>
+  <si>
+    <t>Volumetrische Energiedichte Wasserstoff (l)</t>
+  </si>
+  <si>
+    <t>Dichte Wasserstoff</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>Gravimetrische Energiedichte Ammoniak</t>
+  </si>
+  <si>
+    <t>Dichte Ammoniak</t>
+  </si>
+  <si>
+    <t>spezifische Investitionskosten</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>Invest [€/m3]</t>
+  </si>
+  <si>
+    <t>CAPEX [€]</t>
+  </si>
+  <si>
+    <t>Betriebsstunden [h/a]</t>
+  </si>
+  <si>
+    <t>Leistung [kg/d]</t>
+  </si>
+  <si>
+    <t>Anlagenkapazität [kg/a]</t>
+  </si>
+  <si>
+    <t>capital_cost [€/MWh]</t>
+  </si>
+  <si>
+    <t>capital_cost [€/MW]</t>
+  </si>
+  <si>
+    <t>€/kg</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>$/m3</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>spezifische Parameter</t>
+  </si>
+  <si>
+    <t>OPEX [$/a]</t>
+  </si>
+  <si>
+    <t>OPEX [€/a]</t>
+  </si>
+  <si>
+    <t>spezifischer Strombedarf [kWh/kg]</t>
+  </si>
+  <si>
+    <t>Leistung [kg/h]</t>
+  </si>
+  <si>
+    <t>Transportkapazität [MWh/a]</t>
+  </si>
+  <si>
+    <t>marginal_cost [€/MWh]</t>
+  </si>
+  <si>
+    <t>€/kW</t>
+  </si>
+  <si>
+    <t>%/invest*a</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>Fahrten/a</t>
+  </si>
+  <si>
+    <t>3,7 kWh/m3</t>
+  </si>
+  <si>
+    <t>spez Strombedarf [kWh/kg]</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>trips/year</t>
+  </si>
+  <si>
+    <t>boiloff/year</t>
+  </si>
+  <si>
+    <t>boiloff/trip</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Verfahren:</t>
+  </si>
+  <si>
+    <t>Umkehrosmose</t>
+  </si>
+  <si>
+    <t>Quellen:</t>
+  </si>
+  <si>
+    <t>https://www.advisian.com/en/global-perspectives/the-cost-of-desalination#</t>
+  </si>
+  <si>
+    <t>https://watereuse.org/wp-content/uploads/2015/10/WateReuse_Desal_Cost_White_Paper.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tga-fachplaner.de/energietechnik/energietraeger-wasserstoff-wie-viel-wasser-wird-dafuer-benoetigt#:~:text=Um%201%20kg%20Wasserstoff%20durch,9%20kg%20Wasser*)%20erforderlich.</t>
+  </si>
+  <si>
+    <t>Nimmt man den Mittelwert der rund 16 000 in weltweit 177 Ländern in Betrieb befindlichen Entsalzungsanlagen, entsteht 1 l Süßwasser aus 2,5 l Rohwasser (Daten aus: The state of desalination and brine production: A global outlook). Würde man aus diesen Anlagen Wasser zur Wasserstoffgewinnung per Wasserelektrolyse einsetzen, läge der technische Wasserbedarf bei fast 22,5 kg Rohwasser pro 1 kg Wasserstoff</t>
+  </si>
+  <si>
+    <t>PEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 kg Wasser = </t>
+  </si>
+  <si>
+    <t>1 m3</t>
+  </si>
+  <si>
+    <t>l/h</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>kg H2</t>
+  </si>
+  <si>
+    <t>Liter pro Jahr</t>
+  </si>
+  <si>
+    <t>m3 pro Jahr</t>
+  </si>
+  <si>
+    <t>m3/d</t>
+  </si>
+  <si>
+    <t>m3/a</t>
+  </si>
+  <si>
+    <t>kwh/ m3</t>
+  </si>
+  <si>
+    <t>MW/ a</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quellenverzeichnis </t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle </t>
+  </si>
+  <si>
+    <t>Zhenyang Zhang, Cong Miao, Zhijiu, Jianli Gan (2022): Liquid Hydrogen Production, Transportation and Economic Analysis. In: Frontiers in Business, Economics and Management (5 (2)).</t>
+  </si>
+  <si>
+    <t>Marius Holst, Stefan Aschbrenner, Tom Smolinka, Christopher Voglstätter, Gunter Grimm (2022): Cost Forecast for Low-Temperature Electrolysis. Technology Driven Bottom-Up Prognosis for PEM and Alkaline Water Electrolysis Systems. Fraunhofer Institute for Solar Energy Systems ISE.</t>
+  </si>
+  <si>
+    <t>Y. Wang, J. Kowal, M. Leuthold, D. U. Sauer (2014): Economic Analysis of Storage Systems for Renewable Energy Generated Hydrogen. In: Current Topics in Electrochemistry (Vol. 18).</t>
+  </si>
+  <si>
+    <t>J. Hoelzen, M. Flohr, D. Silberhorn, J. Mangold, A. Bensmann, R. Hanke-Rauschenbach: H2-powered aviation at airports - Design and economics of LH2 refueling systems. In: Energy Conversion and Management 2022 (14).</t>
+  </si>
+  <si>
+    <t>Bulk Storage of Hydrogen 4 D. D. Papadias and R. K. Ahluwalia 5 Argonne National Laboratory 6 9700 South Cass Avenue, Lemont, IL 60439</t>
+  </si>
+  <si>
+    <t>Mohammed Al-Breiki, Yusuf Bicer: Comparative cost assessment of sustainable energy carriers produced from natural gas accounting for boil-off gas and social cost of carbon. In: Energy Reports (2020)</t>
+  </si>
+  <si>
+    <t>Jaro Jens, Anthony Wang, Kees van der Leun, Daan Peters, Maud Buseman (2021): Extending the European Hydrogen Backbone</t>
+  </si>
+  <si>
+    <t>AMMONIA ENERGY ASSOCIATION: [https://www.ammoniaenergy.org/articles/round-trip-efficiency-of-ammonia-as-a-renewable-energy-transportation-media/#:~:text=In%20this%20study%2C%20%E2%80%9Cthe%20net,to%201.13%20MWh%2Fton%20ammonia.]</t>
+  </si>
+  <si>
+    <t>The Cost of Desalination: [https://www.advisian.com/en/global-perspectives/the-cost-of-desalination]</t>
+  </si>
+  <si>
+    <t>Study on the Import of Liquid Renewable Energy: technology Cost Assessment  https://www.gie.eu/wp-content/uploads/filr/2598/DNV-GL_Study-GLE-Technologies-and-costs-analysis-on-imports-of-liquid-renewable-energy.pdf</t>
+  </si>
+  <si>
+    <t>NH3 Erzeugung</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>invest*a</t>
+  </si>
+  <si>
+    <t>Charles Johnston, Muhammad Haider Ali Khan, Rose Amal, Rahman Daiyan, Iain MacGill, Shipping the sunshine: An open-source model for costing renewable hydrogen transport from Australia, International Journal of Hydrogen Energy, Volume 47, Issue 47, 2022, Pages 20362-20377, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2022.04.156.</t>
+  </si>
+  <si>
+    <t>Stromspeicher</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Land-Based Wind - Class 5, 2025, Advanced Scenario</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Utility-Scale PV - Class 5, 2025, Advanced Scenario</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Utility-Scale Battery Storage - 4 Hr, 2025, Advanced Scenario</t>
+  </si>
+  <si>
     <t>[13]</t>
   </si>
   <si>
-    <t>Windkraft (Chile)</t>
-  </si>
-  <si>
     <t>[12]</t>
   </si>
   <si>
-    <t>Entsalzung</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>PEM Elektrolyse</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>AEL Elektrolyse</t>
-  </si>
-  <si>
-    <t>Verflüssigung</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>Haber-Bosch</t>
-  </si>
-  <si>
-    <t>Hydrierung</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>Stromspeicher</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>[14</t>
-  </si>
-  <si>
-    <t>LH2 Speicher</t>
-  </si>
-  <si>
-    <t>NH3 Speicher</t>
-  </si>
-  <si>
-    <t>LOHC Speicher</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>[7]</t>
-  </si>
-  <si>
-    <t>LH2 Schiff</t>
-  </si>
-  <si>
-    <t>Kosten überprüfen</t>
-  </si>
-  <si>
-    <t>NH3 Schiff</t>
-  </si>
-  <si>
-    <t>was das für wyldes bild</t>
-  </si>
-  <si>
-    <t>LOHC Schiff</t>
-  </si>
-  <si>
-    <t>Regasifizierung</t>
-  </si>
-  <si>
-    <t>NH3 Cracker</t>
-  </si>
-  <si>
-    <t>[10] [8]</t>
-  </si>
-  <si>
-    <t>Dehydrierung</t>
-  </si>
-  <si>
-    <t>€/MWh H2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>€/MW H2</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Stoffliche Verluste!</t>
-  </si>
-  <si>
-    <t>LOHC (Material kauf in $)</t>
-  </si>
-  <si>
-    <t>Wert on Top</t>
-  </si>
-  <si>
-    <t>Transportation BOG</t>
-  </si>
-  <si>
-    <t>%/day</t>
-  </si>
-  <si>
-    <t>LOHC (aus der Tankstelle) €/kWh</t>
-  </si>
-  <si>
-    <t>https://gdch.app/article/energietraeger-wie-teuer-fortbewegung-ist-4116971</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>LH2 €/kg</t>
-  </si>
-  <si>
-    <t>Währung</t>
-  </si>
-  <si>
-    <t>Umrechnung</t>
-  </si>
-  <si>
-    <t>€/$</t>
-  </si>
-  <si>
-    <t>Transportspezifisch</t>
-  </si>
-  <si>
-    <t>Fahrten pro Jahr</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Transportzeit pro Fahrt</t>
-  </si>
-  <si>
-    <t>h/n</t>
-  </si>
-  <si>
-    <t>Transportzeit pro Jahr</t>
-  </si>
-  <si>
-    <t>h/a</t>
-  </si>
-  <si>
-    <t>Stoffspezifisch</t>
-  </si>
-  <si>
-    <t>Gravimetrische Energiedichte Wasserstoff</t>
-  </si>
-  <si>
-    <t>kWh/kg oder MWh/t</t>
-  </si>
-  <si>
-    <t>Volumetrische Energiedichte Wasserstoff (l)</t>
-  </si>
-  <si>
-    <t>Dichte Wasserstoff</t>
-  </si>
-  <si>
-    <t>kg/m3</t>
-  </si>
-  <si>
-    <t>Gravimetrische Energiedichte Ammoniak</t>
-  </si>
-  <si>
-    <t>Dichte Ammoniak</t>
-  </si>
-  <si>
-    <t>spezifische Investitionskosten</t>
-  </si>
-  <si>
-    <t>Einheit</t>
-  </si>
-  <si>
-    <t>Invest [€/m3]</t>
-  </si>
-  <si>
-    <t>CAPEX [€]</t>
-  </si>
-  <si>
-    <t>Betriebsstunden [h/a]</t>
-  </si>
-  <si>
-    <t>Leistung [kg/d]</t>
-  </si>
-  <si>
-    <t>Anlagenkapazität [kg/a]</t>
-  </si>
-  <si>
-    <t>capital_cost [€/MWh]</t>
-  </si>
-  <si>
-    <t>capital_cost [€/MW]</t>
-  </si>
-  <si>
-    <t>Quelle</t>
-  </si>
-  <si>
-    <t>€/kg</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>GH2 Speicher</t>
-  </si>
-  <si>
-    <t>$/kg</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>$/m3</t>
-  </si>
-  <si>
-    <t>[6]</t>
-  </si>
-  <si>
-    <t>$/m4</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>NH3 Erzeugung</t>
-  </si>
-  <si>
-    <t>spezifische Parameter</t>
-  </si>
-  <si>
-    <t>OPEX [$/a]</t>
-  </si>
-  <si>
-    <t>OPEX [€/a]</t>
-  </si>
-  <si>
-    <t>spezifischer Strombedarf [kWh/kg]</t>
-  </si>
-  <si>
-    <t>Leistung [kg/h]</t>
-  </si>
-  <si>
-    <t>Transportkapazität [MWh/a]</t>
-  </si>
-  <si>
-    <t>marginal_cost [€/MWh]</t>
-  </si>
-  <si>
-    <t>€/kW</t>
-  </si>
-  <si>
-    <t>%/invest*a</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>Fahrten/a</t>
-  </si>
-  <si>
-    <t>invest*a</t>
-  </si>
-  <si>
-    <t>3,7 kWh/m3</t>
-  </si>
-  <si>
-    <t>spez Strombedarf [kWh/kg]</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>trips/year</t>
-  </si>
-  <si>
-    <t>boiloff/year</t>
-  </si>
-  <si>
-    <t>boiloff/trip</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>Meerwasserentsalzung</t>
-  </si>
-  <si>
-    <t>Verfahren:</t>
-  </si>
-  <si>
-    <t>Umkehrosmose</t>
-  </si>
-  <si>
-    <t>Quellen:</t>
-  </si>
-  <si>
-    <t>https://www.advisian.com/en/global-perspectives/the-cost-of-desalination#</t>
-  </si>
-  <si>
-    <t>https://watereuse.org/wp-content/uploads/2015/10/WateReuse_Desal_Cost_White_Paper.pdf</t>
-  </si>
-  <si>
-    <t>https://www.tga-fachplaner.de/energietechnik/energietraeger-wasserstoff-wie-viel-wasser-wird-dafuer-benoetigt#:~:text=Um%201%20kg%20Wasserstoff%20durch,9%20kg%20Wasser*)%20erforderlich.</t>
-  </si>
-  <si>
-    <t>Nimmt man den Mittelwert der rund 16 000 in weltweit 177 Ländern in Betrieb befindlichen Entsalzungsanlagen, entsteht 1 l Süßwasser aus 2,5 l Rohwasser (Daten aus: The state of desalination and brine production: A global outlook). Würde man aus diesen Anlagen Wasser zur Wasserstoffgewinnung per Wasserelektrolyse einsetzen, läge der technische Wasserbedarf bei fast 22,5 kg Rohwasser pro 1 kg Wasserstoff</t>
-  </si>
-  <si>
-    <t>PEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 kg Wasser = </t>
-  </si>
-  <si>
-    <t>1 m3</t>
-  </si>
-  <si>
-    <t>l/h</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>kg H2</t>
-  </si>
-  <si>
-    <t>Liter pro Jahr</t>
-  </si>
-  <si>
-    <t>m3 pro Jahr</t>
-  </si>
-  <si>
-    <t>m3/d</t>
-  </si>
-  <si>
-    <t>m3/a</t>
-  </si>
-  <si>
-    <t>kwh/ m3</t>
-  </si>
-  <si>
-    <t>MW/ a</t>
-  </si>
-  <si>
-    <t>AEL</t>
-  </si>
-  <si>
-    <t>H2/h</t>
-  </si>
-  <si>
-    <t>He</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quellenverzeichnis </t>
-  </si>
-  <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quelle </t>
-  </si>
-  <si>
-    <t>Zhenyang Zhang, Cong Miao, Zhijiu, Jianli Gan (2022): Liquid Hydrogen Production, Transportation and Economic Analysis. In: Frontiers in Business, Economics and Management (5 (2)).</t>
-  </si>
-  <si>
-    <t>Marius Holst, Stefan Aschbrenner, Tom Smolinka, Christopher Voglstätter, Gunter Grimm (2022): Cost Forecast for Low-Temperature Electrolysis. Technology Driven Bottom-Up Prognosis for PEM and Alkaline Water Electrolysis Systems. Fraunhofer Institute for Solar Energy Systems ISE.</t>
-  </si>
-  <si>
-    <t>Y. Wang, J. Kowal, M. Leuthold, D. U. Sauer (2014): Economic Analysis of Storage Systems for Renewable Energy Generated Hydrogen. In: Current Topics in Electrochemistry (Vol. 18).</t>
-  </si>
-  <si>
-    <t>J. Hoelzen, M. Flohr, D. Silberhorn, J. Mangold, A. Bensmann, R. Hanke-Rauschenbach: H2-powered aviation at airports - Design and economics of LH2 refueling systems. In: Energy Conversion and Management 2022 (14).</t>
-  </si>
-  <si>
-    <t>Bulk Storage of Hydrogen 4 D. D. Papadias and R. K. Ahluwalia 5 Argonne National Laboratory 6 9700 South Cass Avenue, Lemont, IL 60439</t>
-  </si>
-  <si>
-    <t>Mohammed Al-Breiki, Yusuf Bicer: Comparative cost assessment of sustainable energy carriers produced from natural gas accounting for boil-off gas and social cost of carbon. In: Energy Reports (2020)</t>
-  </si>
-  <si>
-    <t>Jaro Jens, Anthony Wang, Kees van der Leun, Daan Peters, Maud Buseman (2021): Extending the European Hydrogen Backbone</t>
-  </si>
-  <si>
-    <t>AMMONIA ENERGY ASSOCIATION: [https://www.ammoniaenergy.org/articles/round-trip-efficiency-of-ammonia-as-a-renewable-energy-transportation-media/#:~:text=In%20this%20study%2C%20%E2%80%9Cthe%20net,to%201.13%20MWh%2Fton%20ammonia.]</t>
-  </si>
-  <si>
-    <t>The Cost of Desalination: [https://www.advisian.com/en/global-perspectives/the-cost-of-desalination]</t>
-  </si>
-  <si>
-    <t>Study on the Import of Liquid Renewable Energy: technology Cost Assessment  https://www.gie.eu/wp-content/uploads/filr/2598/DNV-GL_Study-GLE-Technologies-and-costs-analysis-on-imports-of-liquid-renewable-energy.pdf</t>
-  </si>
-  <si>
-    <t>Charles Johnston, Muhammad Haider Ali Khan, Rose Amal, Rahman Daiyan, Iain MacGill, Shipping the sunshine: An open-source model for costing renewable hydrogen transport from Australia, International Journal of Hydrogen Energy, Volume 47, Issue 47, 2022, Pages 20362-20377, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2022.04.156.</t>
-  </si>
-  <si>
-    <t>National Renewable Energy Laboratory (NREL): Land-Based Wind - Class 5, 2025, Advanced Scenario</t>
-  </si>
-  <si>
-    <t>National Renewable Energy Laboratory (NREL): Utility-Scale PV - Class 5, 2025, Advanced Scenario</t>
-  </si>
-  <si>
-    <t>National Renewable Energy Laboratory (NREL): Utility-Scale Battery Storage - 4 Hr, 2025, Advanced Scenario</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>3H2</t>
-  </si>
-  <si>
-    <t>2NH3</t>
-  </si>
-  <si>
-    <t>g/mol</t>
-  </si>
-  <si>
-    <t>% Massenanteil</t>
-  </si>
-  <si>
-    <t>durch 2</t>
-  </si>
-  <si>
-    <t>1t NH3 gleich 1500Euro</t>
-  </si>
-  <si>
-    <t>176,47 kg H2 gleich 1500Euro</t>
-  </si>
-  <si>
-    <t>176,47*33,33</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>1500Euro/5,88MWh</t>
-  </si>
-  <si>
-    <t>Euro/MwH2</t>
+    <t>Nebenrechnung zur Meerwasserentsalzung</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>LOHC Trägermedium</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -744,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,24 +627,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFADACAC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -858,51 +720,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD2D2DF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD2D2DF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD2D2DF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD2D2DF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD2D2DF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD2D2DF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD2D2DF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD2D2DF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -910,7 +727,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -951,18 +768,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -970,9 +775,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1004,10 +806,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1019,14 +820,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1130,163 +940,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>261471</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>37353</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476373</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>2802382</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E741A582-4149-CB6E-2F48-4B8A6B82C11A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="261471" y="8456706"/>
-          <a:ext cx="5283472" cy="3206915"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>256068</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>444555</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83672</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 2" descr="Elon Musk: Der Milliardär schläft bei Freunden, weil er ...">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E38745-8C6E-C768-B4DA-6F763CE19E48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:biLevel thresh="75000"/>
-          <a:alphaModFix/>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:artisticPhotocopy trans="37000" detail="4"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20034450" y="100853"/>
-          <a:ext cx="3422542" cy="4123654"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 44424"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="1130300">
-            <a:srgbClr val="F40000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:glow>
-          <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="20000"/>
-            </a:prstClr>
-          </a:outerShdw>
-          <a:reflection blurRad="228600" stA="70000" endPos="69000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="perspectiveRelaxed" fov="3600000">
-            <a:rot lat="19800000" lon="1800000" rev="20400000"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d contourW="6350" prstMaterial="matte">
-          <a:bevelT w="101600" h="101600"/>
-          <a:bevelB prst="relaxedInset"/>
-          <a:contourClr>
-            <a:srgbClr val="969696"/>
-          </a:contourClr>
-        </a:sp3d>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Mathis Stange (mstange)" id="{5898AE89-8C31-4315-8551-1A557E33296F}" userId="Mathis Stange (mstange)" providerId="None"/>
-</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1595,53 +1248,40 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I11" dT="2023-01-21T10:54:16.97" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{0C704E41-3D06-4D88-89DC-39DBA7A2C449}">
-    <text>Muss noch aktualisiert werden</text>
-  </threadedComment>
-  <threadedComment ref="I12" dT="2023-01-21T10:53:47.83" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{B944F9CC-5851-4327-8D98-091D21D67D31}">
-    <text xml:space="preserve">Muss noch aktualisiert werden
-</text>
-  </threadedComment>
-  <threadedComment ref="I23" dT="2023-01-21T10:55:43.33" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}">
-    <text>Muss noch aktualisiert werden</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14DACE-E658-6948-9904-3793876CEF37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14DACE-E658-6948-9904-3793876CEF37}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="9" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="20.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -1670,33 +1310,33 @@
       <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="35"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="40" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1744,14 +1384,14 @@
       <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="20">
         <f>Allgemein!$B$2*24.883</f>
         <v>27.12247</v>
       </c>
       <c r="G5" s="13">
         <v>30</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="20">
         <f>Allgemein!$B$2*922225</f>
         <v>1005225.2500000001</v>
       </c>
@@ -1762,12 +1402,12 @@
         <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1781,14 +1421,14 @@
       <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="20">
         <f>Allgemein!$B$2*23.215</f>
         <v>25.304350000000003</v>
       </c>
       <c r="G6" s="12">
         <v>30</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="20">
         <f>Allgemein!$B$2*1081000</f>
         <v>1178290</v>
       </c>
@@ -1799,15 +1439,15 @@
         <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>23</v>
@@ -1816,21 +1456,22 @@
         <v>23</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="25">
-        <f>marginal_cost!L12</f>
-        <v>8.160773313723205E-3</v>
+        <v>28</v>
+      </c>
+      <c r="F7" s="20">
+        <f>marginal_cost!L2</f>
+        <v>2.88563645597673</v>
       </c>
       <c r="G7" s="12">
-        <v>20</v>
-      </c>
-      <c r="H7" s="25">
-        <f>capital_cost!J12</f>
-        <v>1213.4979686043803</v>
-      </c>
-      <c r="I7" s="28">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="H7" s="15">
+        <f>capital_cost!J2</f>
+        <v>720000</v>
+      </c>
+      <c r="I7" s="23">
+        <f>Allgemein!$B$12/marginal_cost!F2</f>
+        <v>0.59891107078039929</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>24</v>
@@ -1844,7 +1485,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>23</v>
@@ -1853,36 +1494,36 @@
         <v>23</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="25">
-        <f>marginal_cost!L2</f>
-        <v>2.88563645597673</v>
+        <v>28</v>
+      </c>
+      <c r="F8" s="20">
+        <f>marginal_cost!L3</f>
+        <v>3.6615551356972333</v>
       </c>
       <c r="G8" s="12">
         <v>10</v>
       </c>
-      <c r="H8" s="19">
-        <f>capital_cost!J2</f>
-        <v>720000</v>
-      </c>
-      <c r="I8" s="28">
-        <f>Allgemein!$B$12/marginal_cost!F2</f>
-        <v>0.59891107078039929</v>
+      <c r="H8" s="15">
+        <f>capital_cost!J3</f>
+        <v>630000</v>
+      </c>
+      <c r="I8" s="23">
+        <f>Allgemein!$B$12/marginal_cost!F3</f>
+        <v>0.61797752808988771</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>23</v>
@@ -1891,36 +1532,35 @@
         <v>23</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="25">
-        <f>marginal_cost!L3</f>
-        <v>3.6615551356972333</v>
+        <v>28</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
       </c>
       <c r="G9" s="12">
-        <v>10</v>
-      </c>
-      <c r="H9" s="19">
-        <f>capital_cost!J3</f>
-        <v>630000</v>
-      </c>
-      <c r="I9" s="28">
-        <f>Allgemein!$B$12/marginal_cost!F3</f>
-        <v>0.61797752808988771</v>
+        <v>20</v>
+      </c>
+      <c r="H9" s="15">
+        <f>capital_cost!J4</f>
+        <v>3296969.6969696968</v>
+      </c>
+      <c r="I9" s="23">
+        <f>efficiency!$G$2</f>
+        <v>0.76744186046511631</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>23</v>
@@ -1929,35 +1569,30 @@
         <v>23</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="25">
+        <v>28</v>
+      </c>
+      <c r="F10" s="20">
         <v>0</v>
       </c>
       <c r="G10" s="12">
         <v>20</v>
       </c>
-      <c r="H10" s="19">
-        <f>capital_cost!J4</f>
-        <v>3296969.6969696968</v>
-      </c>
-      <c r="I10" s="28">
-        <f>efficiency!$G$2</f>
-        <v>0.76744186046511631</v>
+      <c r="H10" s="20">
+        <v>1212000</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0.92</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>23</v>
@@ -1966,30 +1601,33 @@
         <v>23</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="25">
+        <v>28</v>
+      </c>
+      <c r="F11" s="20">
         <v>0</v>
       </c>
       <c r="G11" s="12">
         <v>20</v>
       </c>
-      <c r="H11" s="25">
-        <v>1212000</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0.92</v>
+      <c r="H11" s="20">
+        <v>79500</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.7</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>23</v>
@@ -1997,26 +1635,27 @@
       <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
         <v>30</v>
       </c>
-      <c r="F12" s="25">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>20</v>
-      </c>
-      <c r="H12" s="25">
-        <v>79500</v>
-      </c>
-      <c r="I12" s="28">
-        <v>0.7</v>
-      </c>
-      <c r="J12" s="13" t="s">
+      <c r="H12" s="15">
+        <f>Allgemein!$B$2*1005.201</f>
+        <v>1095.6690900000001</v>
+      </c>
+      <c r="I12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>39</v>
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
@@ -2024,7 +1663,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>23</v>
@@ -2033,34 +1672,35 @@
         <v>23</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="25">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20">
         <v>0</v>
       </c>
       <c r="G13" s="12">
-        <v>30</v>
-      </c>
-      <c r="H13" s="19">
-        <f>Allgemein!$B$2*1005.201</f>
-        <v>1095.6690900000001</v>
-      </c>
-      <c r="I13" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="15">
+        <f>capital_cost!J5</f>
+        <v>1090.9090909090908</v>
+      </c>
+      <c r="I13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="28">
-        <v>0</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="J13" s="23">
+        <f>0.002/24</f>
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>23</v>
@@ -2069,32 +1709,33 @@
         <v>23</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="25">
+        <v>28</v>
+      </c>
+      <c r="F14" s="20">
         <v>0</v>
       </c>
       <c r="G14" s="12">
-        <v>25</v>
-      </c>
-      <c r="H14" s="19">
-        <f>capital_cost!J5</f>
-        <v>1090.9090909090908</v>
-      </c>
-      <c r="I14" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="15">
+        <v>255</v>
+      </c>
+      <c r="I14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="28">
-        <f>0.002/24</f>
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="23">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>23</v>
@@ -2103,33 +1744,33 @@
         <v>23</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
         <v>30</v>
       </c>
-      <c r="F15" s="25">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>20</v>
-      </c>
-      <c r="H15" s="19">
-        <v>255</v>
-      </c>
-      <c r="I15" s="44" t="s">
+      <c r="H15" s="15">
+        <v>239</v>
+      </c>
+      <c r="I15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="28">
-        <v>4.0000000000000002E-4</v>
+      <c r="J15" s="23">
+        <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>23</v>
@@ -2138,33 +1779,33 @@
         <v>23</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>30</v>
-      </c>
-      <c r="H16" s="19">
-        <v>239</v>
-      </c>
-      <c r="I16" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="20">
+        <v>3.9</v>
+      </c>
+      <c r="G16" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="28">
-        <v>0</v>
+      <c r="H16" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="38">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>23</v>
@@ -2173,27 +1814,36 @@
         <v>23</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="25">
-        <v>3.9</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="F17" s="20">
+        <f>marginal_cost!L7</f>
+        <v>0.11107804278831422</v>
+      </c>
+      <c r="G17" s="13">
+        <v>20</v>
+      </c>
+      <c r="H17" s="26">
+        <f>capital_cost!J7</f>
+        <v>2291308.8692835532</v>
+      </c>
+      <c r="I17" s="23">
+        <f>efficiency!G3</f>
+        <v>0.86221181280202108</v>
+      </c>
       <c r="J17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>47</v>
+      <c r="K17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>23</v>
@@ -2202,36 +1852,36 @@
         <v>23</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="25">
-        <f>marginal_cost!L7</f>
-        <v>0.11107804278831422</v>
+        <v>28</v>
+      </c>
+      <c r="F18" s="20">
+        <f>marginal_cost!L8</f>
+        <v>5.8299648826375096E-2</v>
       </c>
       <c r="G18" s="13">
         <v>20</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="26">
         <f>capital_cost!J8</f>
-        <v>2291308.8692835532</v>
-      </c>
-      <c r="I18" s="28">
-        <f>efficiency!G3</f>
-        <v>0.86221181280202108</v>
+        <v>1135336.8482718221</v>
+      </c>
+      <c r="I18" s="23">
+        <f>efficiency!G4</f>
+        <v>0.99675027863908006</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>49</v>
+      <c r="K18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>23</v>
@@ -2240,39 +1890,35 @@
         <v>23</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="25">
-        <f>marginal_cost!L8</f>
-        <v>5.8299648826375096E-2</v>
+        <v>28</v>
+      </c>
+      <c r="F19" s="20">
+        <f>marginal_cost!L9</f>
+        <v>1.5972610857142858E-2</v>
       </c>
       <c r="G19" s="13">
         <v>20</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="34">
         <f>capital_cost!J9</f>
-        <v>1135336.8482718221</v>
-      </c>
-      <c r="I19" s="28">
-        <f>efficiency!G4</f>
-        <v>0.99675027863908006</v>
+        <v>494824.16154071479</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>23</v>
@@ -2281,32 +1927,30 @@
         <v>23</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="25">
-        <f>marginal_cost!L9</f>
-        <v>1.5972610857142858E-2</v>
+        <v>28</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0</v>
       </c>
       <c r="G20" s="13">
         <v>20</v>
       </c>
-      <c r="H20" s="40">
-        <f>capital_cost!J10</f>
-        <v>453967.12067955482</v>
-      </c>
-      <c r="I20" s="28">
-        <v>1</v>
+      <c r="H20" s="20">
+        <v>409500</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0.997</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>53</v>
+      <c r="A21" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>23</v>
@@ -2315,30 +1959,35 @@
         <v>23</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25">
+        <v>28</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
         <v>20</v>
       </c>
-      <c r="H21" s="25">
-        <v>409500</v>
-      </c>
-      <c r="I21" s="28">
-        <v>0.997</v>
+      <c r="H21" s="20">
+        <f>capital_cost!J10*(1+marginal_cost!B10*G21)</f>
+        <v>376000</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0.86</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="K21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21"/>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>54</v>
+      <c r="A22" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>23</v>
@@ -2347,276 +1996,172 @@
         <v>23</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
+        <v>28</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
         <v>20</v>
       </c>
-      <c r="H22" s="25">
-        <f>capital_cost!J11*(1+marginal_cost!B10*G22)</f>
-        <v>376000</v>
-      </c>
-      <c r="I22" s="28">
-        <v>0.86</v>
+      <c r="H22" s="20">
+        <v>204000</v>
+      </c>
+      <c r="I22" s="23">
+        <v>0.67</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0</v>
-      </c>
-      <c r="G23" s="25">
-        <v>20</v>
-      </c>
-      <c r="H23" s="25">
-        <v>204000</v>
-      </c>
-      <c r="I23" s="28">
-        <v>0.67</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="I27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="E28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="25">
-        <v>46360000</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="16">
-        <v>0.17</v>
-      </c>
-      <c r="D31" s="16">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E31" s="16">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0.2</v>
-      </c>
+      <c r="A26" s="19"/>
+    </row>
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="B27" s="40"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33"/>
-      <c r="B33"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
       <c r="C33"/>
       <c r="D33"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="C38" s="22"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="A59" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E43:G57"/>
   </mergeCells>
-  <conditionalFormatting sqref="C13:D20 F28:J28 G7:G16 C5:J12 F13:J23">
+  <conditionalFormatting sqref="C12:D19 F12:J22 G7:G15 C5:J11">
     <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="n.v.">
       <formula>NOT(ISERROR(SEARCH("n.v.",C5)))</formula>
     </cfRule>
@@ -2627,39 +2172,34 @@
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:J28 E21:J23 C5:J20">
+  <conditionalFormatting sqref="E27 E20:J22 C5:J19">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Simulation">
       <formula>NOT(ISERROR(SEARCH("Simulation",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:J28 F5:J23">
+  <conditionalFormatting sqref="F5:J22">
     <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(F5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:D23">
+  <conditionalFormatting sqref="C20:D22">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="n.v.">
-      <formula>NOT(ISERROR(SEARCH("n.v.",C21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("n.v.",C20)))</formula>
     </cfRule>
     <cfRule type="containsBlanks" dxfId="3" priority="3">
-      <formula>LEN(TRIM(C21))=0</formula>
+      <formula>LEN(TRIM(C20))=0</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="x">
-      <formula>NOT(ISERROR(SEARCH("x",C21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("x",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:D23">
+  <conditionalFormatting sqref="C20:D22">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Simulation">
-      <formula>NOT(ISERROR(SEARCH("Simulation",C21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Simulation",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1" xr:uid="{77646C58-65A7-44BC-90AB-A20D7EC7683E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2668,7 +2208,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -2680,115 +2220,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>70</v>
+      <c r="A1" s="27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <f>24*15+4</f>
         <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <f>B6*B5</f>
         <v>3640</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>80</v>
+      <c r="A11" s="27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>71.099999999999994</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>5.2</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>682.8</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2799,15 +2339,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA457E3-0315-E74D-BF3E-7E7A6A01568D}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -2820,372 +2360,335 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="18">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
+        <v>30</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <f>720*1000</f>
         <v>720000</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="18">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <f>630*1000</f>
         <v>630000</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
         <v>136000000</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>8000</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <v>30000</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <f>(F4/24)*G4</f>
         <v>10000000</v>
       </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
         <f>E4/(H4*Allgemein!$B$12/F4)*1000</f>
         <v>3296969.6969696968</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="18">
+        <v>40</v>
+      </c>
+      <c r="B5" s="14">
         <v>36</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
+      <c r="C5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
         <f>B5/Allgemein!$B$12*1000</f>
         <v>1090.9090909090908</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="18">
-        <v>37</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
-        <f>B6*Allgemein!$B$2/Allgemein!$B$12*1000</f>
-        <v>1222.1212121212125</v>
-      </c>
-      <c r="K6" t="s">
-        <v>102</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1355</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="14">
+        <f>B7*Allgemein!$B$2</f>
+        <v>1476.95</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <f>D7/(Allgemein!$B$14*Allgemein!$B$12/1000)</f>
+        <v>629.48045859438275</v>
+      </c>
+      <c r="J7" s="14">
+        <f>I7*Allgemein!$B$7</f>
+        <v>2291308.8692835532</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="18">
-        <v>1355</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="18">
+        <v>46</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1016</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="14">
         <f>B8*Allgemein!$B$2</f>
-        <v>1476.95</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <f>D8/(Allgemein!$B$14*Allgemein!$B$12/1000)</f>
-        <v>629.48045859438275</v>
-      </c>
-      <c r="J8" s="18">
+        <v>1107.44</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <f>D8/(Allgemein!$B$16*Allgemein!$B$15/1000)</f>
+        <v>311.90572754720387</v>
+      </c>
+      <c r="J8" s="14">
         <f>I8*Allgemein!$B$7</f>
-        <v>2291308.8692835532</v>
+        <v>1135336.8482718221</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="18">
-        <v>1016</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="18">
+        <v>47</v>
+      </c>
+      <c r="B9" s="14">
+        <f>65000000/efficiency!I5</f>
+        <v>406.25</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="14">
         <f>B9*Allgemein!$B$2</f>
-        <v>1107.44</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18">
-        <f>D9/(Allgemein!$B$16*Allgemein!$B$15/1000)</f>
-        <v>311.90572754720387</v>
-      </c>
-      <c r="J9" s="18">
+        <v>442.81250000000006</v>
+      </c>
+      <c r="I9" s="14">
+        <f>D9/(Allgemein!$B$16*Allgemein!$B$15/1000)*Allgemein!$B$2</f>
+        <v>135.9407037199766</v>
+      </c>
+      <c r="J9" s="14">
         <f>I9*Allgemein!$B$7</f>
-        <v>1135336.8482718221</v>
+        <v>494824.16154071479</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="30">
-        <f>65000000/efficiency!I5</f>
-        <v>406.25</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="18">
-        <f>B10*Allgemein!$B$2</f>
-        <v>442.81250000000006</v>
-      </c>
-      <c r="I10" s="18">
-        <f>D10/(Allgemein!$B$16*Allgemein!$B$15/1000)</f>
-        <v>124.71624194493265</v>
-      </c>
-      <c r="J10" s="18">
-        <f>I10*Allgemein!$B$7</f>
-        <v>453967.12067955482</v>
+        <v>49</v>
+      </c>
+      <c r="J10" s="14">
+        <v>235000</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="18">
-        <v>235000</v>
-      </c>
-      <c r="K11" t="s">
-        <v>39</v>
+        <v>139</v>
+      </c>
+      <c r="J11" s="33">
+        <v>808000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="36">
-        <v>66666666</v>
-      </c>
-      <c r="J12" s="36">
-        <f>E12/Chile!B18</f>
-        <v>1213.4979686043803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="39">
-        <v>808000</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="18"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+        <v>151</v>
+      </c>
+      <c r="B12" s="14">
+        <v>46360000</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="14"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -3199,8 +2702,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3221,422 +2724,422 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>112</v>
-      </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="18">
+        <v>30</v>
+      </c>
+      <c r="B2" s="14">
         <v>15</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="C2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
         <f>B2*100000</f>
         <v>1500000</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="14">
         <v>55.1</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="14">
         <v>8000</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="14">
         <v>1969</v>
       </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <f>G2*H2</f>
         <v>15752000</v>
       </c>
-      <c r="K2" s="18">
-        <v>0</v>
-      </c>
-      <c r="L2" s="18">
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
         <f>E2/(J2/1000*33)</f>
         <v>2.88563645597673</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="18">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="C3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
         <f>B3*100000</f>
         <v>2000000</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <v>53.4</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="14">
         <v>8000</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <v>2069</v>
       </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <f>G3*H3</f>
         <v>16552000</v>
       </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <f t="shared" ref="L3" si="0">E3/(J3/1000*33)</f>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <f>E3/(J3/1000*33)</f>
         <v>3.6615551356972333</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
         <v>2000000</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>6</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <v>8000</v>
       </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
         <v>30000</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="14">
         <f>(G4/24)*I4</f>
         <v>10000000</v>
       </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
         <f>E4/(J4/1000*33)</f>
         <v>6.0606060606060606</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="18">
+        <v>40</v>
+      </c>
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
+      <c r="C5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
         <f>capital_cost!$J$5*B5*0.01</f>
         <v>21.818181818181817</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="18">
+        <v>38</v>
+      </c>
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="33">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33">
-        <v>0</v>
-      </c>
-      <c r="G6" s="33">
-        <v>0</v>
-      </c>
-      <c r="H6" s="33">
-        <v>0</v>
-      </c>
-      <c r="I6" s="33">
-        <v>0</v>
-      </c>
-      <c r="J6" s="33">
-        <v>0</v>
-      </c>
-      <c r="K6" s="33">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <f>capital_cost!$J$6*B6*0.01</f>
-        <v>24.442424242424249</v>
+      <c r="C6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14" t="e">
+        <f>capital_cost!#REF!*B6*0.01</f>
+        <v>#REF!</v>
       </c>
       <c r="M6" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="18">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14">
         <v>24.14</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="14">
         <f>24300000/B7</f>
         <v>1006628.0033140016</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <f>D7*Allgemein!$B$2</f>
         <v>1097224.5236122617</v>
       </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <f>efficiency!C3*efficiency!D3</f>
         <v>274616640</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="14">
         <f>J7*Allgemein!$B$12/1000</f>
         <v>9062349.1199999992</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="14">
         <f>D7/K7</f>
         <v>0.11107804278831422</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="18">
+        <v>46</v>
+      </c>
+      <c r="B8" s="14">
         <v>24.14</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="14">
         <f>19300000/B8</f>
         <v>799502.89975144982</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="14">
         <f>D8*Allgemein!$B$2</f>
         <v>871458.16072908032</v>
       </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
         <f>efficiency!C4*efficiency!D4</f>
         <v>2637246720</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="14">
         <f>J8*Allgemein!$B$15/1000</f>
         <v>13713682.944</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="14">
         <f>D8/K8</f>
         <v>5.8299648826375096E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="18">
+        <v>47</v>
+      </c>
+      <c r="B9" s="14">
         <v>24.14</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="14">
         <v>512882</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <f>D9*Allgemein!$B$2</f>
         <v>559041.38</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14">
         <f>E9/(35*1000*1000)</f>
         <v>1.5972610857142858E-2</v>
       </c>
-      <c r="M9" s="27"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="43">
+        <v>49</v>
+      </c>
+      <c r="B10" s="37">
         <v>0.03</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="27"/>
+        <v>141</v>
+      </c>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="43">
+        <v>48</v>
+      </c>
+      <c r="B11" s="37">
         <v>0.03</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="38">
+        <v>141</v>
+      </c>
+      <c r="L11" s="32">
         <f>capital_cost!$J$5*B5*0.01</f>
         <v>21.818181818181817</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="18">
-        <f>8966666/Gesamt!G7</f>
-        <v>448333.3</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="14" t="e">
+        <f>8966666/Gesamt!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
-      </c>
-      <c r="L12" s="37">
+        <v>96</v>
+      </c>
+      <c r="L12" s="31" t="e">
         <f>E12/Chile!B17</f>
-        <v>8.160773313723205E-3</v>
+        <v>#REF!</v>
       </c>
       <c r="M12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3650,7 +3153,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3668,30 +3171,30 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -3708,105 +3211,108 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="24">
         <f>Allgemein!$B$12/(Allgemein!$B$12+B2)</f>
         <v>0.76744186046511631</v>
       </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="18">
+        <v>45</v>
+      </c>
+      <c r="C3" s="14">
         <v>11376000</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>24.14</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>37838929</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <f>E3/D3</f>
         <v>1567478.4175642089</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="24">
         <f>1-F3/C3</f>
         <v>0.86221181280202108</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="18">
+        <v>84</v>
+      </c>
+      <c r="I3" s="14">
         <v>160000</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
+        <v>103</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="18">
+        <v>46</v>
+      </c>
+      <c r="C4" s="14">
         <v>109248000</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>24.14</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>8570317</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <f>E4/D4</f>
         <v>355025.55923777958</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="24">
         <f>1-F4/C4</f>
         <v>0.99675027863908006</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="18">
+        <v>84</v>
+      </c>
+      <c r="I4" s="14">
         <v>160000</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18">
+        <v>47</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14">
         <v>24.14</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="I5" s="18">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="I5" s="14">
         <v>160000</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3819,8 +3325,8 @@
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3830,49 +3336,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
-        <v>133</v>
+      <c r="B4" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
-        <v>134</v>
+      <c r="B5" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3880,31 +3386,31 @@
         <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D10">
         <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F10">
         <v>8000</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3913,7 +3419,7 @@
         <v>14848000000</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3922,19 +3428,19 @@
         <v>14848000</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E12">
         <v>189000</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="G12">
         <v>136000</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3943,25 +3449,25 @@
         <v>49640000</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <f>365*E12</f>
         <v>68985000</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="G13">
         <f>G12*365</f>
         <v>49640000</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="26">
+      <c r="B15" s="21">
         <f>B13/3</f>
         <v>16546666.666666666</v>
       </c>
@@ -3969,38 +3475,27 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17">
         <f>B12*D15</f>
         <v>54937600</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>B17/1000</f>
         <v>54937.599999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21">
-        <v>222</v>
-      </c>
-      <c r="C21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +3514,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4029,48 +3524,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>153</v>
+      <c r="A1" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>156</v>
+      <c r="B3" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>157</v>
+      <c r="B4" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>158</v>
+      <c r="B5" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>159</v>
+      <c r="B6" s="17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4078,23 +3573,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>161</v>
+      <c r="B8" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>162</v>
+      <c r="B9" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4102,7 +3597,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4110,95 +3605,95 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>165</v>
+      <c r="B12" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>166</v>
+      <c r="B13" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>167</v>
+      <c r="B14" s="39" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>168</v>
+      <c r="B15" s="39" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>169</v>
+      <c r="B16" s="39" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4213,119 +3708,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF4E21F-9521-427B-9B87-75B05CEB0313}">
-  <sheetPr codeName="Tabelle8"/>
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f>28/34</f>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="B4">
-        <f>6/34</f>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="D4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f>1000*A4</f>
-        <v>823.52941176470586</v>
-      </c>
-      <c r="B6">
-        <f>1000*B4</f>
-        <v>176.47058823529412</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E11">
-        <f>176.47*33.33</f>
-        <v>5881.7451000000001</v>
-      </c>
-      <c r="F11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E13">
-        <f>1500/5.88</f>
-        <v>255.10204081632654</v>
-      </c>
-      <c r="F13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4334,7 +3728,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aca6c290d7270e062501f87f2390e508">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3e4e919cbdb82cbbd1a44b9c8ca9704" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -4511,18 +3905,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4530,7 +3930,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4547,21 +3947,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Inputs_Modell.xlsx
+++ b/data/Inputs_Modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christof/Documents/GitHub/DWE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B35D7-4F7A-C745-B4B1-6DE93719068A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8604F647-09C2-4648-B36C-06222763B219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35180" yWindow="-6940" windowWidth="28800" windowHeight="15840" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{013C1B7E-065E-3842-9CFC-4557F64B0F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,8 @@
     <sheet name="capital_cost" sheetId="5" r:id="rId3"/>
     <sheet name="marginal_cost" sheetId="7" r:id="rId4"/>
     <sheet name="efficiency" sheetId="8" r:id="rId5"/>
-    <sheet name="Chile" sheetId="2" r:id="rId6"/>
+    <sheet name="Chile" sheetId="2" state="hidden" r:id="rId6"/>
     <sheet name="Quellen" sheetId="6" r:id="rId7"/>
-    <sheet name="xAmmoniak" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,54 +41,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={0C704E41-3D06-4D88-89DC-39DBA7A2C449}</author>
-    <author>tc={B944F9CC-5851-4327-8D98-091D21D67D31}</author>
-    <author>tc={2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}</author>
-    <author>tc={B983BE6B-EB39-438A-8969-C1C7DA7104FF}</author>
-  </authors>
-  <commentList>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{0C704E41-3D06-4D88-89DC-39DBA7A2C449}">
-      <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Muss noch aktualisiert werden</t>
-      </text>
-    </comment>
-    <comment ref="I11" authorId="1" shapeId="0" xr:uid="{B944F9CC-5851-4327-8D98-091D21D67D31}">
-      <text>
-        <t xml:space="preserve">[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Muss noch aktualisiert werden
-</t>
-      </text>
-    </comment>
-    <comment ref="I22" authorId="2" shapeId="0" xr:uid="{2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}">
-      <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Muss noch aktualisiert werden</t>
-      </text>
-    </comment>
-    <comment ref="H27" authorId="3" shapeId="0" xr:uid="{B983BE6B-EB39-438A-8969-C1C7DA7104FF}">
-      <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
-    Kapitalkosten hinzurechnen?</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="150">
   <si>
     <t>Inputs</t>
   </si>
@@ -166,427 +119,373 @@
     <t>n.v.</t>
   </si>
   <si>
+    <t>Windkraft (Chile)</t>
+  </si>
+  <si>
+    <t>Entsalzung</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>PEM Elektrolyse</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>AEL Elektrolyse</t>
+  </si>
+  <si>
+    <t>Verflüssigung</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Haber-Bosch</t>
+  </si>
+  <si>
+    <t>Hydrierung</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>GH2 Speicher</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>LH2 Speicher</t>
+  </si>
+  <si>
+    <t>NH3 Speicher</t>
+  </si>
+  <si>
+    <t>LOHC Speicher</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>LH2 Schiff</t>
+  </si>
+  <si>
+    <t>NH3 Schiff</t>
+  </si>
+  <si>
+    <t>LOHC Schiff</t>
+  </si>
+  <si>
+    <t>Regasifizierung</t>
+  </si>
+  <si>
+    <t>NH3 Cracker</t>
+  </si>
+  <si>
+    <t>[10] [8]</t>
+  </si>
+  <si>
+    <t>Dehydrierung</t>
+  </si>
+  <si>
+    <t>Quelle</t>
+  </si>
+  <si>
+    <t>Währung</t>
+  </si>
+  <si>
+    <t>Umrechnung</t>
+  </si>
+  <si>
+    <t>€/$</t>
+  </si>
+  <si>
+    <t>Transportspezifisch</t>
+  </si>
+  <si>
+    <t>Fahrten pro Jahr</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Transportzeit pro Fahrt</t>
+  </si>
+  <si>
+    <t>h/n</t>
+  </si>
+  <si>
+    <t>Transportzeit pro Jahr</t>
+  </si>
+  <si>
+    <t>h/a</t>
+  </si>
+  <si>
+    <t>Stoffspezifisch</t>
+  </si>
+  <si>
+    <t>Gravimetrische Energiedichte Wasserstoff</t>
+  </si>
+  <si>
+    <t>kWh/kg oder MWh/t</t>
+  </si>
+  <si>
+    <t>Volumetrische Energiedichte Wasserstoff (l)</t>
+  </si>
+  <si>
+    <t>Dichte Wasserstoff</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>Gravimetrische Energiedichte Ammoniak</t>
+  </si>
+  <si>
+    <t>Dichte Ammoniak</t>
+  </si>
+  <si>
+    <t>spezifische Investitionskosten</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>Invest [€/m3]</t>
+  </si>
+  <si>
+    <t>CAPEX [€]</t>
+  </si>
+  <si>
+    <t>Betriebsstunden [h/a]</t>
+  </si>
+  <si>
+    <t>Leistung [kg/d]</t>
+  </si>
+  <si>
+    <t>Anlagenkapazität [kg/a]</t>
+  </si>
+  <si>
+    <t>capital_cost [€/MWh]</t>
+  </si>
+  <si>
+    <t>capital_cost [€/MW]</t>
+  </si>
+  <si>
+    <t>€/kg</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>$/m3</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>spezifische Parameter</t>
+  </si>
+  <si>
+    <t>OPEX [$/a]</t>
+  </si>
+  <si>
+    <t>OPEX [€/a]</t>
+  </si>
+  <si>
+    <t>spezifischer Strombedarf [kWh/kg]</t>
+  </si>
+  <si>
+    <t>Leistung [kg/h]</t>
+  </si>
+  <si>
+    <t>Transportkapazität [MWh/a]</t>
+  </si>
+  <si>
+    <t>marginal_cost [€/MWh]</t>
+  </si>
+  <si>
+    <t>€/kW</t>
+  </si>
+  <si>
+    <t>%/invest*a</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>Fahrten/a</t>
+  </si>
+  <si>
+    <t>3,7 kWh/m3</t>
+  </si>
+  <si>
+    <t>spez Strombedarf [kWh/kg]</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>trips/year</t>
+  </si>
+  <si>
+    <t>boiloff/year</t>
+  </si>
+  <si>
+    <t>boiloff/trip</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Verfahren:</t>
+  </si>
+  <si>
+    <t>Umkehrosmose</t>
+  </si>
+  <si>
+    <t>Quellen:</t>
+  </si>
+  <si>
+    <t>https://www.advisian.com/en/global-perspectives/the-cost-of-desalination#</t>
+  </si>
+  <si>
+    <t>https://watereuse.org/wp-content/uploads/2015/10/WateReuse_Desal_Cost_White_Paper.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tga-fachplaner.de/energietechnik/energietraeger-wasserstoff-wie-viel-wasser-wird-dafuer-benoetigt#:~:text=Um%201%20kg%20Wasserstoff%20durch,9%20kg%20Wasser*)%20erforderlich.</t>
+  </si>
+  <si>
+    <t>Nimmt man den Mittelwert der rund 16 000 in weltweit 177 Ländern in Betrieb befindlichen Entsalzungsanlagen, entsteht 1 l Süßwasser aus 2,5 l Rohwasser (Daten aus: The state of desalination and brine production: A global outlook). Würde man aus diesen Anlagen Wasser zur Wasserstoffgewinnung per Wasserelektrolyse einsetzen, läge der technische Wasserbedarf bei fast 22,5 kg Rohwasser pro 1 kg Wasserstoff</t>
+  </si>
+  <si>
+    <t>PEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 kg Wasser = </t>
+  </si>
+  <si>
+    <t>1 m3</t>
+  </si>
+  <si>
+    <t>l/h</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>kg H2</t>
+  </si>
+  <si>
+    <t>Liter pro Jahr</t>
+  </si>
+  <si>
+    <t>m3 pro Jahr</t>
+  </si>
+  <si>
+    <t>m3/d</t>
+  </si>
+  <si>
+    <t>m3/a</t>
+  </si>
+  <si>
+    <t>kwh/ m3</t>
+  </si>
+  <si>
+    <t>MW/ a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quellenverzeichnis </t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle </t>
+  </si>
+  <si>
+    <t>Zhenyang Zhang, Cong Miao, Zhijiu, Jianli Gan (2022): Liquid Hydrogen Production, Transportation and Economic Analysis. In: Frontiers in Business, Economics and Management (5 (2)).</t>
+  </si>
+  <si>
+    <t>Marius Holst, Stefan Aschbrenner, Tom Smolinka, Christopher Voglstätter, Gunter Grimm (2022): Cost Forecast for Low-Temperature Electrolysis. Technology Driven Bottom-Up Prognosis for PEM and Alkaline Water Electrolysis Systems. Fraunhofer Institute for Solar Energy Systems ISE.</t>
+  </si>
+  <si>
+    <t>Y. Wang, J. Kowal, M. Leuthold, D. U. Sauer (2014): Economic Analysis of Storage Systems for Renewable Energy Generated Hydrogen. In: Current Topics in Electrochemistry (Vol. 18).</t>
+  </si>
+  <si>
+    <t>J. Hoelzen, M. Flohr, D. Silberhorn, J. Mangold, A. Bensmann, R. Hanke-Rauschenbach: H2-powered aviation at airports - Design and economics of LH2 refueling systems. In: Energy Conversion and Management 2022 (14).</t>
+  </si>
+  <si>
+    <t>Bulk Storage of Hydrogen 4 D. D. Papadias and R. K. Ahluwalia 5 Argonne National Laboratory 6 9700 South Cass Avenue, Lemont, IL 60439</t>
+  </si>
+  <si>
+    <t>Mohammed Al-Breiki, Yusuf Bicer: Comparative cost assessment of sustainable energy carriers produced from natural gas accounting for boil-off gas and social cost of carbon. In: Energy Reports (2020)</t>
+  </si>
+  <si>
+    <t>Jaro Jens, Anthony Wang, Kees van der Leun, Daan Peters, Maud Buseman (2021): Extending the European Hydrogen Backbone</t>
+  </si>
+  <si>
+    <t>AMMONIA ENERGY ASSOCIATION: [https://www.ammoniaenergy.org/articles/round-trip-efficiency-of-ammonia-as-a-renewable-energy-transportation-media/#:~:text=In%20this%20study%2C%20%E2%80%9Cthe%20net,to%201.13%20MWh%2Fton%20ammonia.]</t>
+  </si>
+  <si>
+    <t>The Cost of Desalination: [https://www.advisian.com/en/global-perspectives/the-cost-of-desalination]</t>
+  </si>
+  <si>
+    <t>Study on the Import of Liquid Renewable Energy: technology Cost Assessment  https://www.gie.eu/wp-content/uploads/filr/2598/DNV-GL_Study-GLE-Technologies-and-costs-analysis-on-imports-of-liquid-renewable-energy.pdf</t>
+  </si>
+  <si>
+    <t>NH3 Erzeugung</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>invest*a</t>
+  </si>
+  <si>
+    <t>Charles Johnston, Muhammad Haider Ali Khan, Rose Amal, Rahman Daiyan, Iain MacGill, Shipping the sunshine: An open-source model for costing renewable hydrogen transport from Australia, International Journal of Hydrogen Energy, Volume 47, Issue 47, 2022, Pages 20362-20377, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2022.04.156.</t>
+  </si>
+  <si>
+    <t>Stromspeicher</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Land-Based Wind - Class 5, 2025, Advanced Scenario</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Utility-Scale PV - Class 5, 2025, Advanced Scenario</t>
+  </si>
+  <si>
+    <t>National Renewable Energy Laboratory (NREL): Utility-Scale Battery Storage - 4 Hr, 2025, Advanced Scenario</t>
+  </si>
+  <si>
     <t>[13]</t>
   </si>
   <si>
-    <t>Windkraft (Chile)</t>
-  </si>
-  <si>
     <t>[12]</t>
-  </si>
-  <si>
-    <t>Entsalzung</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>PEM Elektrolyse</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>AEL Elektrolyse</t>
-  </si>
-  <si>
-    <t>Verflüssigung</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>Haber-Bosch</t>
-  </si>
-  <si>
-    <t>Hydrierung</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>Stromspeicher</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>LH2 Speicher</t>
-  </si>
-  <si>
-    <t>NH3 Speicher</t>
-  </si>
-  <si>
-    <t>LOHC Speicher</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>[7]</t>
-  </si>
-  <si>
-    <t>LH2 Schiff</t>
-  </si>
-  <si>
-    <t>NH3 Schiff</t>
-  </si>
-  <si>
-    <t>LOHC Schiff</t>
-  </si>
-  <si>
-    <t>Regasifizierung</t>
-  </si>
-  <si>
-    <t>NH3 Cracker</t>
-  </si>
-  <si>
-    <t>[10] [8]</t>
-  </si>
-  <si>
-    <t>Dehydrierung</t>
-  </si>
-  <si>
-    <t>Stoffliche Verluste!</t>
-  </si>
-  <si>
-    <t>LOHC (Material kauf in $)</t>
-  </si>
-  <si>
-    <t>Wert on Top</t>
-  </si>
-  <si>
-    <t>Transportation BOG</t>
-  </si>
-  <si>
-    <t>%/day</t>
-  </si>
-  <si>
-    <t>Währung</t>
-  </si>
-  <si>
-    <t>Umrechnung</t>
-  </si>
-  <si>
-    <t>€/$</t>
-  </si>
-  <si>
-    <t>Transportspezifisch</t>
-  </si>
-  <si>
-    <t>Fahrten pro Jahr</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Transportzeit pro Fahrt</t>
-  </si>
-  <si>
-    <t>h/n</t>
-  </si>
-  <si>
-    <t>Transportzeit pro Jahr</t>
-  </si>
-  <si>
-    <t>h/a</t>
-  </si>
-  <si>
-    <t>Stoffspezifisch</t>
-  </si>
-  <si>
-    <t>Gravimetrische Energiedichte Wasserstoff</t>
-  </si>
-  <si>
-    <t>kWh/kg oder MWh/t</t>
-  </si>
-  <si>
-    <t>Volumetrische Energiedichte Wasserstoff (l)</t>
-  </si>
-  <si>
-    <t>Dichte Wasserstoff</t>
-  </si>
-  <si>
-    <t>kg/m3</t>
-  </si>
-  <si>
-    <t>Gravimetrische Energiedichte Ammoniak</t>
-  </si>
-  <si>
-    <t>Dichte Ammoniak</t>
-  </si>
-  <si>
-    <t>spezifische Investitionskosten</t>
-  </si>
-  <si>
-    <t>Einheit</t>
-  </si>
-  <si>
-    <t>Invest [€/m3]</t>
-  </si>
-  <si>
-    <t>CAPEX [€]</t>
-  </si>
-  <si>
-    <t>Betriebsstunden [h/a]</t>
-  </si>
-  <si>
-    <t>Leistung [kg/d]</t>
-  </si>
-  <si>
-    <t>Anlagenkapazität [kg/a]</t>
-  </si>
-  <si>
-    <t>capital_cost [€/MWh]</t>
-  </si>
-  <si>
-    <t>capital_cost [€/MW]</t>
-  </si>
-  <si>
-    <t>Quelle</t>
-  </si>
-  <si>
-    <t>€/kg</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>GH2 Speicher</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>$/m3</t>
-  </si>
-  <si>
-    <t>[6]</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>NH3 Erzeugung</t>
-  </si>
-  <si>
-    <t>spezifische Parameter</t>
-  </si>
-  <si>
-    <t>OPEX [$/a]</t>
-  </si>
-  <si>
-    <t>OPEX [€/a]</t>
-  </si>
-  <si>
-    <t>spezifischer Strombedarf [kWh/kg]</t>
-  </si>
-  <si>
-    <t>Leistung [kg/h]</t>
-  </si>
-  <si>
-    <t>Transportkapazität [MWh/a]</t>
-  </si>
-  <si>
-    <t>marginal_cost [€/MWh]</t>
-  </si>
-  <si>
-    <t>€/kW</t>
-  </si>
-  <si>
-    <t>%/invest*a</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>Fahrten/a</t>
-  </si>
-  <si>
-    <t>invest*a</t>
-  </si>
-  <si>
-    <t>3,7 kWh/m3</t>
-  </si>
-  <si>
-    <t>spez Strombedarf [kWh/kg]</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>trips/year</t>
-  </si>
-  <si>
-    <t>boiloff/year</t>
-  </si>
-  <si>
-    <t>boiloff/trip</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>Verfahren:</t>
-  </si>
-  <si>
-    <t>Umkehrosmose</t>
-  </si>
-  <si>
-    <t>Quellen:</t>
-  </si>
-  <si>
-    <t>https://www.advisian.com/en/global-perspectives/the-cost-of-desalination#</t>
-  </si>
-  <si>
-    <t>https://watereuse.org/wp-content/uploads/2015/10/WateReuse_Desal_Cost_White_Paper.pdf</t>
-  </si>
-  <si>
-    <t>https://www.tga-fachplaner.de/energietechnik/energietraeger-wasserstoff-wie-viel-wasser-wird-dafuer-benoetigt#:~:text=Um%201%20kg%20Wasserstoff%20durch,9%20kg%20Wasser*)%20erforderlich.</t>
-  </si>
-  <si>
-    <t>Nimmt man den Mittelwert der rund 16 000 in weltweit 177 Ländern in Betrieb befindlichen Entsalzungsanlagen, entsteht 1 l Süßwasser aus 2,5 l Rohwasser (Daten aus: The state of desalination and brine production: A global outlook). Würde man aus diesen Anlagen Wasser zur Wasserstoffgewinnung per Wasserelektrolyse einsetzen, läge der technische Wasserbedarf bei fast 22,5 kg Rohwasser pro 1 kg Wasserstoff</t>
-  </si>
-  <si>
-    <t>PEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 kg Wasser = </t>
-  </si>
-  <si>
-    <t>1 m3</t>
-  </si>
-  <si>
-    <t>l/h</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>kg H2</t>
-  </si>
-  <si>
-    <t>Liter pro Jahr</t>
-  </si>
-  <si>
-    <t>m3 pro Jahr</t>
-  </si>
-  <si>
-    <t>m3/d</t>
-  </si>
-  <si>
-    <t>m3/a</t>
-  </si>
-  <si>
-    <t>kwh/ m3</t>
-  </si>
-  <si>
-    <t>MW/ a</t>
-  </si>
-  <si>
-    <t>He</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quellenverzeichnis </t>
-  </si>
-  <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quelle </t>
-  </si>
-  <si>
-    <t>Zhenyang Zhang, Cong Miao, Zhijiu, Jianli Gan (2022): Liquid Hydrogen Production, Transportation and Economic Analysis. In: Frontiers in Business, Economics and Management (5 (2)).</t>
-  </si>
-  <si>
-    <t>Marius Holst, Stefan Aschbrenner, Tom Smolinka, Christopher Voglstätter, Gunter Grimm (2022): Cost Forecast for Low-Temperature Electrolysis. Technology Driven Bottom-Up Prognosis for PEM and Alkaline Water Electrolysis Systems. Fraunhofer Institute for Solar Energy Systems ISE.</t>
-  </si>
-  <si>
-    <t>Y. Wang, J. Kowal, M. Leuthold, D. U. Sauer (2014): Economic Analysis of Storage Systems for Renewable Energy Generated Hydrogen. In: Current Topics in Electrochemistry (Vol. 18).</t>
-  </si>
-  <si>
-    <t>J. Hoelzen, M. Flohr, D. Silberhorn, J. Mangold, A. Bensmann, R. Hanke-Rauschenbach: H2-powered aviation at airports - Design and economics of LH2 refueling systems. In: Energy Conversion and Management 2022 (14).</t>
-  </si>
-  <si>
-    <t>Bulk Storage of Hydrogen 4 D. D. Papadias and R. K. Ahluwalia 5 Argonne National Laboratory 6 9700 South Cass Avenue, Lemont, IL 60439</t>
-  </si>
-  <si>
-    <t>Mohammed Al-Breiki, Yusuf Bicer: Comparative cost assessment of sustainable energy carriers produced from natural gas accounting for boil-off gas and social cost of carbon. In: Energy Reports (2020)</t>
-  </si>
-  <si>
-    <t>Jaro Jens, Anthony Wang, Kees van der Leun, Daan Peters, Maud Buseman (2021): Extending the European Hydrogen Backbone</t>
-  </si>
-  <si>
-    <t>AMMONIA ENERGY ASSOCIATION: [https://www.ammoniaenergy.org/articles/round-trip-efficiency-of-ammonia-as-a-renewable-energy-transportation-media/#:~:text=In%20this%20study%2C%20%E2%80%9Cthe%20net,to%201.13%20MWh%2Fton%20ammonia.]</t>
-  </si>
-  <si>
-    <t>The Cost of Desalination: [https://www.advisian.com/en/global-perspectives/the-cost-of-desalination]</t>
-  </si>
-  <si>
-    <t>Study on the Import of Liquid Renewable Energy: technology Cost Assessment  https://www.gie.eu/wp-content/uploads/filr/2598/DNV-GL_Study-GLE-Technologies-and-costs-analysis-on-imports-of-liquid-renewable-energy.pdf</t>
-  </si>
-  <si>
-    <t>Charles Johnston, Muhammad Haider Ali Khan, Rose Amal, Rahman Daiyan, Iain MacGill, Shipping the sunshine: An open-source model for costing renewable hydrogen transport from Australia, International Journal of Hydrogen Energy, Volume 47, Issue 47, 2022, Pages 20362-20377, ISSN 0360-3199, https://doi.org/10.1016/j.ijhydene.2022.04.156.</t>
-  </si>
-  <si>
-    <t>National Renewable Energy Laboratory (NREL): Land-Based Wind - Class 5, 2025, Advanced Scenario</t>
-  </si>
-  <si>
-    <t>National Renewable Energy Laboratory (NREL): Utility-Scale PV - Class 5, 2025, Advanced Scenario</t>
-  </si>
-  <si>
-    <t>National Renewable Energy Laboratory (NREL): Utility-Scale Battery Storage - 4 Hr, 2025, Advanced Scenario</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>3H2</t>
-  </si>
-  <si>
-    <t>2NH3</t>
-  </si>
-  <si>
-    <t>g/mol</t>
-  </si>
-  <si>
-    <t>% Massenanteil</t>
-  </si>
-  <si>
-    <t>durch 2</t>
-  </si>
-  <si>
-    <t>1t NH3 gleich 1500Euro</t>
-  </si>
-  <si>
-    <t>176,47 kg H2 gleich 1500Euro</t>
-  </si>
-  <si>
-    <t>176,47*33,33</t>
-  </si>
-  <si>
-    <t>kWh</t>
-  </si>
-  <si>
-    <t>1500Euro/5,88MWh</t>
-  </si>
-  <si>
-    <t>Euro/MwH2</t>
   </si>
   <si>
     <t>Nebenrechnung zur Meerwasserentsalzung</t>
@@ -710,7 +609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,24 +618,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFADACAC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -824,51 +711,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD2D2DF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD2D2DF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD2D2DF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD2D2DF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD2D2DF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD2D2DF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD2D2DF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD2D2DF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -876,7 +718,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -916,18 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -969,7 +799,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -986,6 +816,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1095,12 +931,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Mathis Stange (mstange)" id="{5898AE89-8C31-4315-8551-1A557E33296F}" userId="Mathis Stange (mstange)" providerId="None"/>
-</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1409,31 +1239,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I10" dT="2023-01-21T10:54:16.97" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{0C704E41-3D06-4D88-89DC-39DBA7A2C449}">
-    <text>Muss noch aktualisiert werden</text>
-  </threadedComment>
-  <threadedComment ref="I11" dT="2023-01-21T10:53:47.83" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{B944F9CC-5851-4327-8D98-091D21D67D31}">
-    <text xml:space="preserve">Muss noch aktualisiert werden
-</text>
-  </threadedComment>
-  <threadedComment ref="I22" dT="2023-01-21T10:55:43.33" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{2A4F1DCE-4A9E-4D4C-B48E-E85164B9C277}">
-    <text>Muss noch aktualisiert werden</text>
-  </threadedComment>
-  <threadedComment ref="H27" dT="2023-01-23T14:57:37.93" personId="{5898AE89-8C31-4315-8551-1A557E33296F}" id="{B983BE6B-EB39-438A-8969-C1C7DA7104FF}">
-    <text>Kapitalkosten hinzurechnen?</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14DACE-E658-6948-9904-3793876CEF37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE14DACE-E658-6948-9904-3793876CEF37}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,7 +1253,7 @@
     <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="20.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
@@ -1449,18 +1261,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -1489,33 +1301,33 @@
       <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="34"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="40" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1563,14 +1375,14 @@
       <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <f>Allgemein!$B$2*24.883</f>
         <v>27.12247</v>
       </c>
       <c r="G5" s="13">
         <v>30</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="20">
         <f>Allgemein!$B$2*922225</f>
         <v>1005225.2500000001</v>
       </c>
@@ -1581,12 +1393,12 @@
         <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1600,14 +1412,14 @@
       <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="20">
         <f>Allgemein!$B$2*23.215</f>
         <v>25.304350000000003</v>
       </c>
       <c r="G6" s="12">
         <v>30</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="20">
         <f>Allgemein!$B$2*1081000</f>
         <v>1178290</v>
       </c>
@@ -1618,15 +1430,15 @@
         <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>23</v>
@@ -1635,20 +1447,20 @@
         <v>23</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="24">
+        <v>28</v>
+      </c>
+      <c r="F7" s="20">
         <f>marginal_cost!L2</f>
         <v>2.88563645597673</v>
       </c>
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="15">
         <f>capital_cost!J2</f>
         <v>720000</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="23">
         <f>Allgemein!$B$12/marginal_cost!F2</f>
         <v>0.59891107078039929</v>
       </c>
@@ -1656,15 +1468,15 @@
         <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>23</v>
@@ -1673,20 +1485,20 @@
         <v>23</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="24">
+        <v>28</v>
+      </c>
+      <c r="F8" s="20">
         <f>marginal_cost!L3</f>
         <v>3.6615551356972333</v>
       </c>
       <c r="G8" s="12">
         <v>10</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="15">
         <f>capital_cost!J3</f>
         <v>630000</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="23">
         <f>Allgemein!$B$12/marginal_cost!F3</f>
         <v>0.61797752808988771</v>
       </c>
@@ -1694,15 +1506,15 @@
         <v>24</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>23</v>
@@ -1711,19 +1523,19 @@
         <v>23</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="24">
+        <v>28</v>
+      </c>
+      <c r="F9" s="20">
         <v>0</v>
       </c>
       <c r="G9" s="12">
         <v>20</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="15">
         <f>capital_cost!J4</f>
         <v>3296969.6969696968</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="23">
         <f>efficiency!$G$2</f>
         <v>0.76744186046511631</v>
       </c>
@@ -1731,15 +1543,15 @@
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>23</v>
@@ -1748,18 +1560,18 @@
         <v>23</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="24">
+        <v>28</v>
+      </c>
+      <c r="F10" s="20">
         <v>0</v>
       </c>
       <c r="G10" s="12">
         <v>20</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="20">
         <v>1212000</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="23">
         <v>0.92</v>
       </c>
       <c r="J10" s="13" t="s">
@@ -1768,10 +1580,10 @@
     </row>
     <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>23</v>
@@ -1780,33 +1592,33 @@
         <v>23</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="24">
+        <v>28</v>
+      </c>
+      <c r="F11" s="20">
         <v>0</v>
       </c>
       <c r="G11" s="12">
         <v>20</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="20">
         <v>79500</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="23">
         <v>0.7</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>23</v>
@@ -1815,34 +1627,34 @@
         <v>23</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="24">
+        <v>28</v>
+      </c>
+      <c r="F12" s="20">
         <v>0</v>
       </c>
       <c r="G12" s="12">
         <v>30</v>
       </c>
-      <c r="H12" s="19">
-        <f>Allgemein!$B$2*1005.201</f>
-        <v>1095.6690900000001</v>
-      </c>
-      <c r="I12" s="42" t="s">
+      <c r="H12" s="15">
+        <f>Allgemein!$B$2*1005.201*1000</f>
+        <v>1095669.0900000001</v>
+      </c>
+      <c r="I12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="27">
-        <v>0</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>167</v>
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>23</v>
@@ -1851,35 +1663,35 @@
         <v>23</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="24">
+        <v>28</v>
+      </c>
+      <c r="F13" s="20">
         <v>0</v>
       </c>
       <c r="G13" s="12">
         <v>25</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="15">
         <f>capital_cost!J5</f>
         <v>1090.9090909090908</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="23">
         <f>0.002/24</f>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>23</v>
@@ -1888,33 +1700,33 @@
         <v>23</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="24">
+        <v>28</v>
+      </c>
+      <c r="F14" s="20">
         <v>0</v>
       </c>
       <c r="G14" s="12">
         <v>20</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="15">
         <v>255</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="23">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>23</v>
@@ -1923,33 +1735,33 @@
         <v>23</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="24">
+        <v>28</v>
+      </c>
+      <c r="F15" s="20">
         <v>0</v>
       </c>
       <c r="G15" s="12">
         <v>30</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="15">
         <v>239</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="23">
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>23</v>
@@ -1958,33 +1770,33 @@
         <v>23</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="24">
+        <v>28</v>
+      </c>
+      <c r="F16" s="20">
         <v>3.9</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="38">
         <v>0.99299999999999999</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>23</v>
@@ -1993,20 +1805,20 @@
         <v>23</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="24">
+        <v>28</v>
+      </c>
+      <c r="F17" s="20">
         <f>marginal_cost!L7</f>
         <v>0.11107804278831422</v>
       </c>
       <c r="G17" s="13">
         <v>20</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="26">
         <f>capital_cost!J7</f>
         <v>2291308.8692835532</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="23">
         <f>efficiency!G3</f>
         <v>0.86221181280202108</v>
       </c>
@@ -2014,15 +1826,15 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>23</v>
@@ -2031,20 +1843,20 @@
         <v>23</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="24">
+        <v>28</v>
+      </c>
+      <c r="F18" s="20">
         <f>marginal_cost!L8</f>
         <v>5.8299648826375096E-2</v>
       </c>
       <c r="G18" s="13">
         <v>20</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="26">
         <f>capital_cost!J8</f>
         <v>1135336.8482718221</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="23">
         <f>efficiency!G4</f>
         <v>0.99675027863908006</v>
       </c>
@@ -2052,15 +1864,15 @@
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>23</v>
@@ -2069,35 +1881,35 @@
         <v>23</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="24">
+        <v>28</v>
+      </c>
+      <c r="F19" s="20">
         <f>marginal_cost!L9</f>
         <v>1.5972610857142858E-2</v>
       </c>
       <c r="G19" s="13">
         <v>20</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="34">
         <f>capital_cost!J9</f>
         <v>494824.16154071479</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="23">
         <v>1</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>23</v>
@@ -2106,18 +1918,18 @@
         <v>23</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="24">
+        <v>28</v>
+      </c>
+      <c r="F20" s="20">
         <v>0</v>
       </c>
       <c r="G20" s="13">
         <v>20</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="20">
         <v>409500</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="23">
         <v>0.997</v>
       </c>
       <c r="J20" s="13" t="s">
@@ -2125,11 +1937,11 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
-        <v>51</v>
+      <c r="A21" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>23</v>
@@ -2138,35 +1950,35 @@
         <v>23</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="24">
+        <v>28</v>
+      </c>
+      <c r="F21" s="20">
         <v>0</v>
       </c>
       <c r="G21" s="13">
         <v>20</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="20">
         <f>capital_cost!J10*(1+marginal_cost!B10*G21)</f>
         <v>376000</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="23">
         <v>0.86</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M21"/>
     </row>
     <row r="22" spans="1:13" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>23</v>
@@ -2175,85 +1987,50 @@
         <v>23</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="24">
+        <v>28</v>
+      </c>
+      <c r="F22" s="20">
         <v>0</v>
       </c>
       <c r="G22" s="13">
         <v>20</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="20">
         <v>204000</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="23">
         <v>0.67</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="I26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A26" s="19"/>
     </row>
     <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="E27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="24">
-        <v>46360000</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B27" s="40"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="16">
-        <v>0.17</v>
-      </c>
-      <c r="D30" s="16">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E30" s="16">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0.2</v>
-      </c>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32"/>
@@ -2262,120 +2039,120 @@
       <c r="D32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
       <c r="C33"/>
       <c r="D33"/>
-      <c r="E33" s="26"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34" s="26"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="26"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" s="26"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="C38" s="26"/>
+      <c r="A38" s="19"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
+      <c r="A59" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C12:D19 F27:J27 F12:J22 G7:G15 C5:J11">
+  <conditionalFormatting sqref="C12:D19 F12:J22 G7:G15 C5:J11">
     <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="n.v.">
       <formula>NOT(ISERROR(SEARCH("n.v.",C5)))</formula>
     </cfRule>
@@ -2386,12 +2163,12 @@
       <formula>NOT(ISERROR(SEARCH("x",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:J27 E20:J22 C5:J19">
+  <conditionalFormatting sqref="E27 E20:J22 C5:J19">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Simulation">
       <formula>NOT(ISERROR(SEARCH("Simulation",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:J27 F5:J22">
+  <conditionalFormatting sqref="F5:J22">
     <cfRule type="notContainsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(F5))&gt;0</formula>
     </cfRule>
@@ -2414,7 +2191,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2423,8 +2199,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A27" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2435,115 +2211,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>59</v>
+      <c r="A1" s="27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>1.0900000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="A4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <f>24*15+4</f>
         <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <f>B6*B5</f>
         <v>3640</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
-        <v>69</v>
+      <c r="A11" s="27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>71.099999999999994</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>5.2</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>682.8</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2556,13 +2332,13 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -2575,324 +2351,332 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" t="s">
-        <v>85</v>
-      </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="18">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
+        <v>30</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <f>720*1000</f>
         <v>720000</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="18">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <f>630*1000</f>
         <v>630000</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
         <v>136000000</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>8000</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <v>30000</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <f>(F4/24)*G4</f>
         <v>10000000</v>
       </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
         <f>E4/(H4*Allgemein!$B$12/F4)*1000</f>
         <v>3296969.6969696968</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="18">
+        <v>40</v>
+      </c>
+      <c r="B5" s="14">
         <v>36</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
+      <c r="C5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
         <f>B5/Allgemein!$B$12*1000</f>
         <v>1090.9090909090908</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="18">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14">
         <v>1355</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="14">
         <f>B7*Allgemein!$B$2</f>
         <v>1476.95</v>
       </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
         <f>D7/(Allgemein!$B$14*Allgemein!$B$12/1000)</f>
         <v>629.48045859438275</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="14">
         <f>I7*Allgemein!$B$7</f>
         <v>2291308.8692835532</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="18">
+        <v>46</v>
+      </c>
+      <c r="B8" s="14">
         <v>1016</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="14">
         <f>B8*Allgemein!$B$2</f>
         <v>1107.44</v>
       </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
         <f>D8/(Allgemein!$B$16*Allgemein!$B$15/1000)</f>
         <v>311.90572754720387</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="14">
         <f>I8*Allgemein!$B$7</f>
         <v>1135336.8482718221</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="18">
+        <v>47</v>
+      </c>
+      <c r="B9" s="14">
         <f>65000000/efficiency!I5</f>
         <v>406.25</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="14">
         <f>B9*Allgemein!$B$2</f>
         <v>442.81250000000006</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="14">
         <f>D9/(Allgemein!$B$16*Allgemein!$B$15/1000)*Allgemein!$B$2</f>
         <v>135.9407037199766</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="14">
         <f>I9*Allgemein!$B$7</f>
         <v>494824.16154071479</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="18">
+        <v>49</v>
+      </c>
+      <c r="J10" s="14">
         <v>235000</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="37">
+        <v>138</v>
+      </c>
+      <c r="J11" s="33">
         <v>808000</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="25"/>
+      <c r="C13" s="14"/>
+    </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D24" s="18"/>
-      <c r="E24" s="29"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -2907,7 +2691,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2928,422 +2712,419 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="18">
+        <v>30</v>
+      </c>
+      <c r="B2" s="14">
         <v>15</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="C2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
         <f>B2*100000</f>
         <v>1500000</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="14">
         <v>55.1</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="14">
         <v>8000</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="14">
         <v>1969</v>
       </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <f>G2*H2</f>
         <v>15752000</v>
       </c>
-      <c r="K2" s="18">
-        <v>0</v>
-      </c>
-      <c r="L2" s="18">
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
         <f>E2/(J2/1000*33)</f>
         <v>2.88563645597673</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="18">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14">
         <v>20</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="C3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
         <f>B3*100000</f>
         <v>2000000</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <v>53.4</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="14">
         <v>8000</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <v>2069</v>
       </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18">
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <f>G3*H3</f>
         <v>16552000</v>
       </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <f t="shared" ref="L3" si="0">E3/(J3/1000*33)</f>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <f>E3/(J3/1000*33)</f>
         <v>3.6615551356972333</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
         <v>2000000</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>6</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <v>8000</v>
       </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
         <v>30000</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="14">
         <f>(G4/24)*I4</f>
         <v>10000000</v>
       </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18">
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
         <f>E4/(J4/1000*33)</f>
         <v>6.0606060606060606</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="18">
+        <v>40</v>
+      </c>
+      <c r="B5" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
+      <c r="C5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
         <f>capital_cost!$J$5*B5*0.01</f>
         <v>21.818181818181817</v>
       </c>
       <c r="M5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="18">
+        <v>38</v>
+      </c>
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="32">
-        <v>0</v>
-      </c>
-      <c r="F6" s="32">
-        <v>0</v>
-      </c>
-      <c r="G6" s="32">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32">
-        <v>0</v>
-      </c>
-      <c r="I6" s="32">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
-        <v>0</v>
-      </c>
-      <c r="K6" s="32">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18" t="e">
+      <c r="C6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14" t="e">
         <f>capital_cost!#REF!*B6*0.01</f>
         <v>#REF!</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="18">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14">
         <v>24.14</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="14">
         <f>24300000/B7</f>
         <v>1006628.0033140016</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <f>D7*Allgemein!$B$2</f>
         <v>1097224.5236122617</v>
       </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18">
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <f>efficiency!C3*efficiency!D3</f>
         <v>274616640</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="14">
         <f>J7*Allgemein!$B$12/1000</f>
         <v>9062349.1199999992</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="14">
         <f>D7/K7</f>
         <v>0.11107804278831422</v>
       </c>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="18">
+        <v>46</v>
+      </c>
+      <c r="B8" s="14">
         <v>24.14</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="14">
         <f>19300000/B8</f>
         <v>799502.89975144982</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="14">
         <f>D8*Allgemein!$B$2</f>
         <v>871458.16072908032</v>
       </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
         <f>efficiency!C4*efficiency!D4</f>
         <v>2637246720</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="14">
         <f>J8*Allgemein!$B$15/1000</f>
         <v>13713682.944</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="14">
         <f>D8/K8</f>
         <v>5.8299648826375096E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="18">
+        <v>47</v>
+      </c>
+      <c r="B9" s="14">
         <v>24.14</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="14">
         <v>512882</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <f>D9*Allgemein!$B$2</f>
         <v>559041.38</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14">
         <f>E9/(35*1000*1000)</f>
         <v>1.5972610857142858E-2</v>
       </c>
-      <c r="M9" s="26"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="41">
+        <v>49</v>
+      </c>
+      <c r="B10" s="37">
         <v>0.03</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" s="26"/>
+        <v>140</v>
+      </c>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="41">
+        <v>48</v>
+      </c>
+      <c r="B11" s="37">
         <v>0.03</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="36">
+        <v>140</v>
+      </c>
+      <c r="L11" s="32">
         <f>capital_cost!$J$5*B5*0.01</f>
         <v>21.818181818181817</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="18" t="e">
-        <f>8966666/Gesamt!#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E12" s="14"/>
       <c r="F12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="35" t="e">
+        <v>96</v>
+      </c>
+      <c r="L12" s="31">
         <f>E12/Chile!B17</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +3138,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3375,30 +3156,30 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -3415,108 +3196,108 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="24">
         <f>Allgemein!$B$12/(Allgemein!$B$12+B2)</f>
         <v>0.76744186046511631</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="18">
+        <v>45</v>
+      </c>
+      <c r="C3" s="14">
         <v>11376000</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>24.14</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>37838929</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <f>E3/D3</f>
         <v>1567478.4175642089</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="24">
         <f>1-F3/C3</f>
         <v>0.86221181280202108</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="18">
+        <v>84</v>
+      </c>
+      <c r="I3" s="14">
         <v>160000</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+        <v>103</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="18">
+        <v>46</v>
+      </c>
+      <c r="C4" s="14">
         <v>109248000</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="14">
         <v>24.14</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>8570317</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <f>E4/D4</f>
         <v>355025.55923777958</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="24">
         <f>1-F4/C4</f>
         <v>0.99675027863908006</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="18">
+        <v>84</v>
+      </c>
+      <c r="I4" s="14">
         <v>160000</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18">
+        <v>47</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14">
         <v>24.14</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="I5" s="18">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="I5" s="14">
         <v>160000</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3527,10 +3308,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161CAFB3-6641-4214-A1BC-4CB4769BA3D9}">
   <sheetPr codeName="Tabelle6"/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3540,49 +3321,49 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>118</v>
+        <v>106</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
-        <v>119</v>
+      <c r="B4" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="22" t="s">
-        <v>120</v>
+      <c r="B5" s="18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3590,31 +3371,31 @@
         <v>280</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D10">
         <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F10">
         <v>8000</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3623,7 +3404,7 @@
         <v>14848000000</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3632,19 +3413,19 @@
         <v>14848000</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E12">
         <v>189000</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G12">
         <v>136000</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3653,25 +3434,25 @@
         <v>49640000</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <f>365*E12</f>
         <v>68985000</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G13">
         <f>G12*365</f>
         <v>49640000</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="25">
+      <c r="B15" s="21">
         <f>B13/3</f>
         <v>16546666.666666666</v>
       </c>
@@ -3685,7 +3466,7 @@
         <v>54937600</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
@@ -3694,12 +3475,7 @@
         <v>54937.599999999999</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +3494,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,48 +3504,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>137</v>
+      <c r="A1" s="16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>140</v>
+      <c r="B3" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>141</v>
+      <c r="B4" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>142</v>
+      <c r="B5" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>143</v>
+      <c r="B6" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3777,23 +3553,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>145</v>
+      <c r="B8" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>146</v>
+      <c r="B9" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3801,7 +3577,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3809,95 +3585,95 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>149</v>
+      <c r="B12" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>150</v>
+      <c r="B13" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>151</v>
+      <c r="B14" s="39" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>152</v>
+      <c r="B15" s="39" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="43" t="s">
-        <v>153</v>
+      <c r="B16" s="39" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3912,119 +3688,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF4E21F-9521-427B-9B87-75B05CEB0313}">
-  <sheetPr codeName="Tabelle8"/>
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f>28/34</f>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="B4">
-        <f>6/34</f>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="D4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f>1000*A4</f>
-        <v>823.52941176470586</v>
-      </c>
-      <c r="B6">
-        <f>1000*B4</f>
-        <v>176.47058823529412</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E11">
-        <f>176.47*33.33</f>
-        <v>5881.7451000000001</v>
-      </c>
-      <c r="F11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E13">
-        <f>1500/5.88</f>
-        <v>255.10204081632654</v>
-      </c>
-      <c r="F13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="aca6c290d7270e062501f87f2390e508">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3e4e919cbdb82cbbd1a44b9c8ca9704" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -4201,15 +3874,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4222,6 +3886,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51923598-B81F-46EF-8D6F-A57DA486E2FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4240,27 +3912,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4E73C-EABB-4583-9CD8-EE384797D651}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E7AB49E-189D-4848-B4EA-561D0793F824}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>